--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>material</t>
   </si>
@@ -373,6 +373,36 @@
   </si>
   <si>
     <t>П-8 Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Вкладыш к П-6К Фп Детский травяной чай "ФармаЦветик"</t>
+  </si>
+  <si>
+    <t>Вкладыш к П-6К Фп Фиточай "Лактафитол"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый "Фиточай "Лактафитол"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик® для животика"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик® для иммунитета"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик® при простуде"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик®для спокойного сна"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конверт полипропиленовый Фиточай «ФармаЦветик® для кормящих мам» </t>
   </si>
 </sst>
 </file>
@@ -725,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>83656</v>
+        <v>72800</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,7 +868,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>47600</v>
+        <v>49670</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +892,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>24714</v>
+        <v>25139</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +916,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>87887</v>
+        <v>53487</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,7 +972,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>19600</v>
+        <v>20241</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1121,555 +1151,635 @@
         <v>38530</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="B49" s="2">
-        <v>30756</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+        <v>20357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="B50" s="2">
-        <v>63920</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="B51" s="2">
-        <v>12374</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1281244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="B52" s="2">
-        <v>17359</v>
+        <v>1849848</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="B53" s="2">
-        <v>19000</v>
+        <v>1056466</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="B54" s="2">
-        <v>28710</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>316266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="B55" s="2">
-        <v>39705</v>
+        <v>605093</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="B56" s="2">
-        <v>42140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>484906</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="3">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="B57" s="2">
+        <v>341210</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="B58" s="2">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>815019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B59" s="2">
-        <v>41980</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30756</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B60" s="2">
-        <v>32062</v>
+        <v>63920</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B61" s="2">
-        <v>9962</v>
+        <v>12374</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B62" s="2">
-        <v>27149</v>
+        <v>17359</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B63" s="2">
-        <v>14900</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B64" s="2">
-        <v>8187</v>
+        <v>28710</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B65" s="2">
-        <v>22050</v>
+        <v>39705</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B66" s="2">
-        <v>17235</v>
+        <v>42140</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B67" s="2">
-        <v>4884</v>
+        <v>50095</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B68" s="2">
-        <v>15400</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B69" s="2">
-        <v>22835</v>
+        <v>41980</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B70" s="2">
-        <v>88841</v>
+        <v>32062</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B71" s="2">
-        <v>44000</v>
+        <v>9962</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B72" s="2">
-        <v>41730</v>
+        <v>27149</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B73" s="2">
-        <v>38200</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B74" s="2">
-        <v>41725</v>
+        <v>8187</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B75" s="2">
-        <v>55065</v>
+        <v>22050</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B76" s="2">
-        <v>14553</v>
+        <v>17235</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B77" s="2">
-        <v>53000</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B78" s="2">
-        <v>33625</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B79" s="2">
-        <v>34700</v>
+        <v>22835</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B80" s="2">
-        <v>24106</v>
+        <v>88841</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B81" s="2">
-        <v>109651</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B82" s="2">
-        <v>66440</v>
+        <v>41730</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B83" s="2">
-        <v>97305</v>
+        <v>38200</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B84" s="2">
-        <v>91352</v>
+        <v>41725</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B85" s="2">
-        <v>13650</v>
+        <v>55065</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B86" s="2">
-        <v>31312</v>
+        <v>14553</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B87" s="2">
-        <v>23180</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B88" s="2">
-        <v>36434</v>
+        <v>33625</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B89" s="2">
-        <v>97046</v>
+        <v>34700</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B90" s="2">
-        <v>85900</v>
+        <v>24106</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B91" s="2">
-        <v>380000</v>
+        <v>109651</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B92" s="2">
-        <v>78761</v>
+        <v>66440</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B93" s="2">
-        <v>64000</v>
+        <v>97305</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B94" s="2">
-        <v>1076000</v>
+        <v>91352</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B95" s="2">
-        <v>54295</v>
+        <v>13650</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B96" s="2">
-        <v>21570</v>
+        <v>31312</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B97" s="2">
-        <v>75720</v>
+        <v>23180</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B98" s="2">
-        <v>89610</v>
+        <v>36434</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B99" s="2">
-        <v>123000</v>
+        <v>98396</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2">
-        <v>93640</v>
+        <v>85900</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2">
-        <v>92222</v>
+        <v>380000</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B102" s="2">
-        <v>58000</v>
+        <v>78761</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B103" s="2">
-        <v>118912</v>
+        <v>64550</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B104" s="2">
-        <v>33620</v>
+        <v>1076000</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B105" s="2">
-        <v>51953</v>
+        <v>54295</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B106" s="2">
-        <v>12941</v>
+        <v>21570</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="3">
-        <v>233</v>
+        <v>97</v>
+      </c>
+      <c r="B107" s="2">
+        <v>75720</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B108" s="2">
-        <v>7330</v>
+        <v>89610</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B109" s="2">
-        <v>24530</v>
+        <v>123000</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B110" s="2">
-        <v>3420</v>
+        <v>93640</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B111" s="2">
-        <v>9568</v>
+        <v>92222</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B112" s="2">
-        <v>21000</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2">
-        <v>89096</v>
+        <v>118912</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B114" s="2">
-        <v>71600</v>
+        <v>33620</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2">
-        <v>59480</v>
+        <v>51953</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B116" s="2">
-        <v>186537</v>
+        <v>12941</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" s="3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118" s="2">
+        <v>17330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="2">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B120" s="2">
+        <v>275420</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B121" s="2">
+        <v>19568</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B122" s="2">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B123" s="2">
+        <v>89096</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B124" s="2">
+        <v>71600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B125" s="2">
+        <v>59480</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126" s="2">
+        <v>186537</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B127" s="2">
         <v>92565</v>
       </c>
     </row>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>material</t>
   </si>
@@ -403,6 +403,12 @@
   </si>
   <si>
     <t xml:space="preserve">Конверт полипропиленовый Фиточай «ФармаЦветик® для кормящих мам» </t>
+  </si>
+  <si>
+    <t>Ярлык "ВердиоГаст® Фиточай для улучшения пищеварения"</t>
+  </si>
+  <si>
+    <t>Ярлык "Три листа"</t>
   </si>
 </sst>
 </file>
@@ -755,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +986,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>60970</v>
+        <v>34160</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1100,7 +1106,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>25760</v>
+        <v>26520</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1156,7 +1162,7 @@
         <v>118</v>
       </c>
       <c r="B49" s="2">
-        <v>20357</v>
+        <v>100357</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,7 +1450,7 @@
         <v>75</v>
       </c>
       <c r="B85" s="2">
-        <v>55065</v>
+        <v>37090</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,7 +1482,7 @@
         <v>79</v>
       </c>
       <c r="B89" s="2">
-        <v>34700</v>
+        <v>35042</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1620,7 +1626,7 @@
         <v>97</v>
       </c>
       <c r="B107" s="2">
-        <v>75720</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,7 +1778,7 @@
         <v>116</v>
       </c>
       <c r="B126" s="2">
-        <v>186537</v>
+        <v>187687</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,6 +1787,22 @@
       </c>
       <c r="B127" s="2">
         <v>92565</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="2">
+        <v>923727</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2994000</v>
       </c>
     </row>
   </sheetData>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1929A609-9ABD-5F46-AC27-9EE00C8D305E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="131">
   <si>
     <t>material</t>
   </si>
@@ -216,9 +217,6 @@
     <t>П-8 Фп "Щедрость природы Фиточай при простуде" 20х2,0 г</t>
   </si>
   <si>
-    <t xml:space="preserve">П-8 Фп "Щедрость природы Фиточай успокоительный"20х2,0 г </t>
-  </si>
-  <si>
     <t>П-8 Фп Аир корневища 20х1,5г</t>
   </si>
   <si>
@@ -276,9 +274,6 @@
     <t>П-8 Фп Ноготки цветки 20х1,5г</t>
   </si>
   <si>
-    <t>П-8 Фп Ольхи соплодия  20х1,5г</t>
-  </si>
-  <si>
     <t>П-8 Фп Пастушья сумка 20х1,5г</t>
   </si>
   <si>
@@ -402,23 +397,28 @@
     <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик®для спокойного сна"</t>
   </si>
   <si>
-    <t xml:space="preserve">Конверт полипропиленовый Фиточай «ФармаЦветик® для кормящих мам» </t>
-  </si>
-  <si>
     <t>Ярлык "ВердиоГаст® Фиточай для улучшения пищеварения"</t>
   </si>
   <si>
     <t>Ярлык "Три листа"</t>
+  </si>
+  <si>
+    <t>#############</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый Фиточай «ФармаЦветик® для кормящих мам»</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай успокоительный"20х2,0 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Ольхи соплодия 20х1,5г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,6 +429,7 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -441,7 +442,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -449,41 +450,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -760,20 +736,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B129"/>
+      <selection activeCell="B2" sqref="B2:B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="66.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="66.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,1028 +757,1028 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>20290</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>25318</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>35760</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>51266</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>55695</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>57580</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>72800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>73480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>53170</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>72143</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>32509</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>62710</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>49670</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>23520</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>24580</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>47335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>36155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>25139</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>44290</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>29900</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>53487</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>60785</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>69590</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>47360</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>43273</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>57580</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>50040</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>20241</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>34160</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>56127</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>143340</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>21040</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>82048</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>40505</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>29860</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>22490</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>43275</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>63638</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>10455</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>31100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>85100</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>6305</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>44189</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="2">
-        <v>26520</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>7480</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>29829</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="2">
-        <v>29800</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>14560</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>70350</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>29500</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>56080</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>38530</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="1">
+        <v>100357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="1">
+        <v>34496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="2">
-        <v>100357</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="2">
-        <v>34496</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="2">
-        <v>1281244</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="2">
-        <v>1849848</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B54" s="1">
+        <v>316266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B53" s="2">
-        <v>1056466</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="B55" s="1">
+        <v>605093</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="2">
-        <v>316266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="B56" s="1">
+        <v>484906</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="2">
-        <v>605093</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B56" s="2">
-        <v>484906</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>341210</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B58" s="2">
+        <v>128</v>
+      </c>
+      <c r="B58" s="1">
         <v>815019</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>30756</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>63920</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>12374</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>17359</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>19000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>28710</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>39705</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>42140</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>50095</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>12500</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>41980</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>32062</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>9962</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>27149</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>14900</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>8187</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="1">
+        <v>22050</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="2">
-        <v>22050</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1">
+        <v>17235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B76" s="2">
-        <v>17235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="1">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B77" s="2">
-        <v>4884</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="B78" s="1">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B78" s="2">
-        <v>15400</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="B79" s="1">
+        <v>22835</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B79" s="2">
-        <v>22835</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="1">
+        <v>88841</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B80" s="2">
-        <v>88841</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="1">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B81" s="2">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="1">
+        <v>41730</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B82" s="2">
-        <v>41730</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="1">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B83" s="2">
-        <v>38200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1">
+        <v>41725</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B84" s="2">
-        <v>41725</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="1">
+        <v>37090</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B85" s="2">
-        <v>37090</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="1">
+        <v>14553</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B86" s="2">
-        <v>14553</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="B87" s="1">
+        <v>53730</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B87" s="2">
-        <v>53000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="1">
+        <v>33625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B88" s="2">
-        <v>33625</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="B89" s="1">
+        <v>35042</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B89" s="2">
-        <v>35042</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="1">
+        <v>24106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="2">
-        <v>24106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="B91" s="1">
+        <v>109651</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B91" s="2">
-        <v>109651</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="1">
+        <v>66440</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B92" s="2">
-        <v>66440</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="1">
+        <v>97305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="2">
-        <v>97305</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="1">
+        <v>91352</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B95" s="1">
+        <v>13650</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B94" s="2">
-        <v>91352</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="B96" s="1">
+        <v>31312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B95" s="2">
-        <v>13650</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="B97" s="1">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B96" s="2">
-        <v>31312</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="B98" s="1">
+        <v>36434</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B97" s="2">
-        <v>23180</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="B99" s="1">
+        <v>98396</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B98" s="2">
-        <v>36434</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="B100" s="1">
+        <v>85900</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B99" s="2">
-        <v>98396</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="B101" s="1">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="2">
-        <v>85900</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="B102" s="1">
+        <v>78761</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B101" s="2">
-        <v>380000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="B103" s="1">
+        <v>64550</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B102" s="2">
-        <v>78761</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="B104" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B103" s="2">
-        <v>64550</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="B105" s="1">
+        <v>54295</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B104" s="2">
-        <v>1076000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="B106" s="1">
+        <v>21570</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B105" s="2">
-        <v>54295</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="B107" s="1">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B106" s="2">
-        <v>21570</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="B108" s="1">
+        <v>89610</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B107" s="2">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="B109" s="1">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B108" s="2">
-        <v>89610</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="B110" s="1">
+        <v>93640</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="2">
-        <v>123000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="B111" s="1">
+        <v>92222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B110" s="2">
-        <v>93640</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="B112" s="1">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B111" s="2">
-        <v>92222</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="B113" s="1">
+        <v>78142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B112" s="2">
-        <v>58000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="B114" s="1">
+        <v>33620</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B113" s="2">
-        <v>118912</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="B115" s="1">
+        <v>51953</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B114" s="2">
-        <v>33620</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="B116" s="1">
+        <v>12941</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B115" s="2">
-        <v>51953</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="B117" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B116" s="2">
-        <v>12941</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="B118" s="1">
+        <v>17330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B117" s="3">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="B119" s="1">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B118" s="2">
-        <v>17330</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="B120" s="1">
+        <v>275420</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B119" s="2">
-        <v>44530</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="B121" s="1">
+        <v>19568</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B120" s="2">
-        <v>275420</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="B122" s="1">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B121" s="2">
-        <v>19568</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="B123" s="1">
+        <v>89096</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B122" s="2">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="B124" s="1">
+        <v>72047</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B123" s="2">
-        <v>89096</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="B125" s="1">
+        <v>59480</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B124" s="2">
-        <v>71600</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="B126" s="1">
+        <v>187687</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B125" s="2">
-        <v>59480</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B126" s="2">
-        <v>187687</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B127" s="2">
+      <c r="B127" s="1">
         <v>92565</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128" s="2">
+        <v>125</v>
+      </c>
+      <c r="B128" s="1">
         <v>923727</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" s="2">
-        <v>2994000</v>
+        <v>126</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1929A609-9ABD-5F46-AC27-9EE00C8D305E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3A6941-EE3C-5D44-BF78-2FCD5A29542A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="130">
   <si>
     <t>material</t>
   </si>
@@ -398,9 +398,6 @@
   </si>
   <si>
     <t>Ярлык "ВердиоГаст® Фиточай для улучшения пищеварения"</t>
-  </si>
-  <si>
-    <t>Ярлык "Три листа"</t>
   </si>
   <si>
     <t>#############</t>
@@ -737,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B129"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1154,7 +1151,7 @@
         <v>118</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1162,7 +1159,7 @@
         <v>119</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1170,7 +1167,7 @@
         <v>120</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1207,7 +1204,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B58" s="1">
         <v>815019</v>
@@ -1343,7 +1340,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B75" s="1">
         <v>22050</v>
@@ -1503,7 +1500,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B95" s="1">
         <v>13650</v>
@@ -1578,7 +1575,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1771,14 +1768,6 @@
       </c>
       <c r="B128" s="1">
         <v>923727</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3A6941-EE3C-5D44-BF78-2FCD5A29542A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020DFF87-665B-1144-AC97-FAC56D7FC9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>material</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Ярлык "ВердиоГаст® Фиточай для улучшения пищеварения"</t>
   </si>
   <si>
-    <t>#############</t>
-  </si>
-  <si>
     <t>Конверт полипропиленовый Фиточай «ФармаЦветик® для кормящих мам»</t>
   </si>
   <si>
@@ -410,6 +407,9 @@
   </si>
   <si>
     <t>П-8 Фп Ольхи соплодия 20х1,5г</t>
+  </si>
+  <si>
+    <t>Ярлык "Три листа"</t>
   </si>
 </sst>
 </file>
@@ -734,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1150,24 +1150,24 @@
       <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>126</v>
+      <c r="B51" s="1">
+        <v>1281244</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>126</v>
+      <c r="B52" s="1">
+        <v>1849848</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>126</v>
+      <c r="B53" s="1">
+        <v>1056466</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B58" s="1">
         <v>815019</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B75" s="1">
         <v>22050</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B95" s="1">
         <v>13650</v>
@@ -1574,8 +1574,8 @@
       <c r="A104" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>126</v>
+      <c r="B104" s="1">
+        <v>1076000</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1768,6 +1768,14 @@
       </c>
       <c r="B128" s="1">
         <v>923727</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="1">
+        <v>2994000</v>
       </c>
     </row>
   </sheetData>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020DFF87-665B-1144-AC97-FAC56D7FC9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -400,22 +399,26 @@
     <t>Ярлык "ВердиоГаст® Фиточай для улучшения пищеварения"</t>
   </si>
   <si>
-    <t>Конверт полипропиленовый Фиточай «ФармаЦветик® для кормящих мам»</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Щедрость природы Фиточай успокоительный"20х2,0 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Ольхи соплодия 20х1,5г</t>
-  </si>
-  <si>
     <t>Ярлык "Три листа"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конверт полипропиленовый Фиточай «ФармаЦветик® для кормящих мам» </t>
+  </si>
+  <si>
+    <t xml:space="preserve">П-8 Фп "Щедрость природы Фиточай успокоительный"20х2,0 г </t>
+  </si>
+  <si>
+    <t>П-8 Фп Ольхи соплодия  20х1,5г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,7 +429,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -439,7 +441,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -447,16 +449,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -733,20 +760,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2:B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="66.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -754,1027 +781,1027 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>20290</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>25318</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>35760</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>51266</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>55695</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>57580</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>73480</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>53170</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>72143</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>32509</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>62710</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>49670</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>24580</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>36155</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>25139</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>44290</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>29900</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>53487</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>60785</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>69590</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>47360</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>43273</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>57580</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>50040</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>20241</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>34160</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>56127</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>143340</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>21040</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>82048</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>40505</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>29860</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>22490</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>43275</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>63638</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>10455</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>31100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>85100</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>6305</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>44189</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>7480</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>29829</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>14560</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>70350</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>29500</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>56080</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>38530</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>100357</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>34496</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>1281244</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>1849848</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>1056466</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>316266</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>605093</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>484906</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>341210</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B58" s="1">
+        <v>127</v>
+      </c>
+      <c r="B58" s="2">
         <v>815019</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <v>30756</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <v>63920</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>12374</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>17359</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <v>19000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>28710</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <v>39705</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>42140</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <v>50095</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <v>12500</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <v>41980</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <v>32062</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <v>9962</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <v>27149</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <v>14900</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <v>8187</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B75" s="1">
+        <v>128</v>
+      </c>
+      <c r="B75" s="2">
         <v>22050</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <v>17235</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <v>4884</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <v>15400</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <v>22835</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="2">
         <v>88841</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <v>44000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <v>41730</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <v>27000</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <v>41725</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="2">
         <v>37090</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="2">
         <v>14553</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <v>53730</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <v>33625</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="2">
         <v>35042</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="2">
         <v>24106</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="2">
         <v>109651</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="2">
         <v>66440</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="2">
         <v>97305</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="2">
         <v>91352</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B95" s="1">
+        <v>129</v>
+      </c>
+      <c r="B95" s="2">
         <v>13650</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="2">
         <v>31312</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="2">
         <v>17000</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="2">
         <v>36434</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="2">
         <v>98396</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="2">
         <v>85900</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="2">
         <v>380000</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="2">
         <v>78761</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="2">
         <v>64550</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="2">
         <v>1076000</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="2">
         <v>54295</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="2">
         <v>21570</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="2">
         <v>52000</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="2">
         <v>89610</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="2">
         <v>123000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="2">
         <v>93640</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="2">
         <v>92222</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="2">
         <v>58000</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="2">
         <v>78142</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="2">
         <v>33620</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="2">
         <v>51953</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="2">
         <v>12941</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="2">
         <v>17330</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="2">
         <v>44530</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="2">
         <v>275420</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="2">
         <v>19568</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="2">
         <v>21000</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="2">
         <v>89096</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="2">
         <v>72047</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="2">
         <v>59480</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="2">
         <v>187687</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="2">
         <v>92565</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="2">
         <v>923727</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" s="1">
+        <v>126</v>
+      </c>
+      <c r="B129" s="2">
         <v>2994000</v>
       </c>
     </row>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -810,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>51266</v>
+        <v>51696</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>57580</v>
+        <v>58360</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>36155</v>
+        <v>36475</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -906,7 +906,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>44290</v>
+        <v>25800</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -922,7 +922,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>53487</v>
+        <v>54117</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -986,7 +986,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>34160</v>
+        <v>35090</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>70350</v>
+        <v>35260</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
         <v>70</v>
       </c>
       <c r="B81" s="2">
-        <v>44000</v>
+        <v>44940</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
         <v>74</v>
       </c>
       <c r="B85" s="2">
-        <v>37090</v>
+        <v>37602</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1506,7 +1506,7 @@
         <v>81</v>
       </c>
       <c r="B92" s="2">
-        <v>66440</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1546,7 +1546,7 @@
         <v>85</v>
       </c>
       <c r="B97" s="2">
-        <v>17000</v>
+        <v>17480</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>98396</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>90</v>
       </c>
       <c r="B102" s="2">
-        <v>78761</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
         <v>95</v>
       </c>
       <c r="B107" s="2">
-        <v>52000</v>
+        <v>53120</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="2">
-        <v>89610</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>102</v>
       </c>
       <c r="B114" s="2">
-        <v>33620</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -451,16 +451,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="60"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color indexed="60"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="60"/>
       </top>
       <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="60"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,7 +472,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="2"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -764,7 +764,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B129"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>25318</v>
+        <v>19600</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>143340</v>
+        <v>112477</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>43275</v>
+        <v>22960</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>31100</v>
+        <v>17920</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1106,7 +1106,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>7480</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>316266</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>122</v>
       </c>
@@ -1237,52 +1237,52 @@
         <v>815019</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B59" s="2">
-        <v>30756</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+        <v>12374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B60" s="2">
-        <v>63920</v>
+        <v>17359</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B61" s="2">
-        <v>12374</v>
+        <v>28710</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B62" s="2">
-        <v>17359</v>
+        <v>30756</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B63" s="2">
-        <v>19000</v>
+        <v>63920</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64" s="2">
-        <v>28710</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1410,7 +1410,7 @@
         <v>69</v>
       </c>
       <c r="B80" s="2">
-        <v>88841</v>
+        <v>57866</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>82</v>
       </c>
       <c r="B93" s="2">
-        <v>97305</v>
+        <v>73305</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1578,7 +1578,7 @@
         <v>89</v>
       </c>
       <c r="B101" s="2">
-        <v>380000</v>
+        <v>225293</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1602,7 +1602,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="2">
-        <v>1076000</v>
+        <v>1077378</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1610,7 +1610,7 @@
         <v>93</v>
       </c>
       <c r="B105" s="2">
-        <v>54295</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1658,7 +1658,7 @@
         <v>99</v>
       </c>
       <c r="B111" s="2">
-        <v>92222</v>
+        <v>68613</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>101</v>
       </c>
       <c r="B113" s="2">
-        <v>78142</v>
+        <v>79712</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>110</v>
       </c>
       <c r="B122" s="2">
-        <v>21000</v>
+        <v>21174</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +1770,7 @@
         <v>113</v>
       </c>
       <c r="B125" s="2">
-        <v>59480</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1786,7 +1786,7 @@
         <v>115</v>
       </c>
       <c r="B127" s="2">
-        <v>92565</v>
+        <v>71565</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +946,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>47360</v>
+        <v>35186</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>56127</v>
+        <v>46063</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>112477</v>
+        <v>112400</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>63638</v>
+        <v>41840</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>29829</v>
+        <v>19217</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>14560</v>
+        <v>15290</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>35260</v>
+        <v>37060</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>49</v>
       </c>
       <c r="B62" s="2">
-        <v>30756</v>
+        <v>29518</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="2">
-        <v>63920</v>
+        <v>61845</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1322,7 +1322,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="2">
-        <v>41980</v>
+        <v>39142</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="2">
-        <v>14900</v>
+        <v>13017</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
         <v>72</v>
       </c>
       <c r="B83" s="2">
-        <v>27000</v>
+        <v>27386</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
         <v>79</v>
       </c>
       <c r="B90" s="2">
-        <v>24106</v>
+        <v>18824</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1530,7 +1530,7 @@
         <v>129</v>
       </c>
       <c r="B95" s="2">
-        <v>13650</v>
+        <v>8628</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1578,7 +1578,7 @@
         <v>89</v>
       </c>
       <c r="B101" s="2">
-        <v>225293</v>
+        <v>232000</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>90</v>
       </c>
       <c r="B102" s="2">
-        <v>53000</v>
+        <v>53966</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1610,7 +1610,7 @@
         <v>93</v>
       </c>
       <c r="B105" s="2">
-        <v>44123</v>
+        <v>43295</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="2">
-        <v>55000</v>
+        <v>15384</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
         <v>97</v>
       </c>
       <c r="B109" s="2">
-        <v>123000</v>
+        <v>85325</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1658,7 +1658,7 @@
         <v>99</v>
       </c>
       <c r="B111" s="2">
-        <v>68613</v>
+        <v>68222</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>102</v>
       </c>
       <c r="B114" s="2">
-        <v>17000</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F694C135-9AFA-6447-A678-94BBC169DE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -402,23 +403,19 @@
     <t>Ярлык "Три листа"</t>
   </si>
   <si>
-    <t xml:space="preserve">Конверт полипропиленовый Фиточай «ФармаЦветик® для кормящих мам» </t>
-  </si>
-  <si>
-    <t xml:space="preserve">П-8 Фп "Щедрость природы Фиточай успокоительный"20х2,0 г </t>
-  </si>
-  <si>
-    <t>П-8 Фп Ольхи соплодия  20х1,5г</t>
+    <t>Конверт полипропиленовый Фиточай «ФармаЦветик® для кормящих мам»</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай успокоительный"20х2,0 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Ольхи соплодия 20х1,5г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,6 +426,7 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -441,7 +439,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -449,41 +447,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="60"/>
-      </left>
-      <right style="thin">
-        <color indexed="60"/>
-      </right>
-      <top style="thin">
-        <color indexed="60"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="60"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -760,20 +733,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="66.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="66.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,1027 +754,1027 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>20290</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>19600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>20020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>35760</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>51696</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>55695</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>58360</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>73480</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>53170</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>72143</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>32509</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>62710</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>49670</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>24580</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>36475</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>25139</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
-        <v>25800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>26460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>29900</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>54117</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>60785</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>69590</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>35186</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2">
-        <v>43273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>32539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2">
-        <v>57580</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>42645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2">
-        <v>50040</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>40436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>20241</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>35090</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2">
-        <v>46063</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>112400</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>21040</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>82048</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>40505</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>29860</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>22490</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="2">
-        <v>22960</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>23610</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>41840</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>10455</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>17920</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>85100</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>6305</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>44189</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>8125</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="2">
-        <v>19217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>18920</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>15290</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>37060</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>29500</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>56080</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>38530</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>100357</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>34496</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="2">
-        <v>1281244</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>1244770</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="2">
-        <v>1849848</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>1784528</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>1056466</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>316266</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>605093</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>484906</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>341210</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>815019</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>12374</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>17359</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>28710</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="2">
-        <v>29518</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>29375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="2">
-        <v>61845</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>61805</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>19000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>39705</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>42140</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>50095</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>12500</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="2">
-        <v>39142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>38810</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>32062</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>9962</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>27149</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B73" s="2">
-        <v>13017</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>12735</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>8187</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>22050</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>17235</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>4884</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="2">
-        <v>15400</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
+        <v>11214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>22835</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B80" s="2">
-        <v>57866</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>44940</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>41730</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B83" s="2">
-        <v>27386</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>16619</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="2">
-        <v>41725</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="1">
+        <v>29168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>37602</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>14553</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>53730</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>33625</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>35042</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B90" s="2">
-        <v>18824</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
+        <v>18106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>109651</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="2">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="1">
+        <v>53150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>73305</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>91352</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>8628</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B96" s="2">
-        <v>31312</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="1">
+        <v>26155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>17480</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>36434</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>77000</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B100" s="2">
-        <v>85900</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="1">
+        <v>70095</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <v>232000</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>53966</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>64550</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>1077378</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>43295</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>21570</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>53120</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B108" s="2">
-        <v>15384</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B109" s="2">
-        <v>85325</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="1">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
         <v>93640</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <v>68222</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
         <v>58000</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="1">
         <v>79712</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="1">
         <v>17900</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="1">
         <v>51953</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="1">
         <v>12941</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="1">
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
         <v>17330</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="1">
         <v>44530</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="1">
         <v>275420</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="1">
         <v>19568</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="1">
         <v>21174</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B123" s="2">
-        <v>89096</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="1">
+        <v>74663</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="1">
         <v>72047</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B125" s="2">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="1">
+        <v>40900</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="1">
         <v>187687</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="1">
         <v>71565</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B128" s="2">
-        <v>923727</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="1">
+        <v>768227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="1">
         <v>2994000</v>
       </c>
     </row>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -3,17 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F694C135-9AFA-6447-A678-94BBC169DE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C62D80D-5C9E-F649-8BCD-D321C5F048E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -409,7 +420,7 @@
     <t>П-8 Фп "Щедрость природы Фиточай успокоительный"20х2,0 г</t>
   </si>
   <si>
-    <t>П-8 Фп Ольхи соплодия 20х1,5г</t>
+    <t>П-8 Фп Ольхи соплодия  20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -736,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C62D80D-5C9E-F649-8BCD-D321C5F048E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="51195" windowHeight="27240"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -414,19 +413,23 @@
     <t>Ярлык "Три листа"</t>
   </si>
   <si>
-    <t>Конверт полипропиленовый Фиточай «ФармаЦветик® для кормящих мам»</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Щедрость природы Фиточай успокоительный"20х2,0 г</t>
-  </si>
-  <si>
     <t>П-8 Фп Ольхи соплодия  20х1,5г</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конверт полипропиленовый Фиточай «ФармаЦветик® для кормящих мам» </t>
+  </si>
+  <si>
+    <t xml:space="preserve">П-8 Фп "Щедрость природы Фиточай успокоительный"20х2,0 г </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,7 +440,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -450,7 +452,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -458,16 +460,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="60"/>
+      </left>
+      <right style="thin">
+        <color indexed="60"/>
+      </right>
+      <top style="thin">
+        <color indexed="60"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="60"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -744,20 +771,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -765,1027 +792,1027 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>20290</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>20020</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>35760</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>51696</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>43845</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>58360</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>73480</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>53170</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>72143</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>32509</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>62710</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>49670</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>24580</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>36475</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>25139</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>26460</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>29900</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>54117</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>60785</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>69590</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>35186</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>32539</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>40436</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>20241</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>35090</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>45580</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>112400</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>21040</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>82048</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>40505</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>29860</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>22490</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>23610</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>41840</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>10455</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>17920</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>85100</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>6305</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>44189</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>8125</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>18920</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>15290</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>37060</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>29500</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>56080</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>38530</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>100357</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>34496</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>1244770</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>1784528</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>1056466</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>316266</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>605093</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>484906</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>341210</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B58" s="1">
+        <v>128</v>
+      </c>
+      <c r="B58" s="2">
         <v>815019</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <v>12374</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <v>17359</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>28710</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>29375</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <v>61805</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>19000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <v>39705</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>42140</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <v>50095</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <v>12500</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <v>38810</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <v>32062</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <v>9962</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <v>27149</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <v>12735</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <v>8187</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="1">
+        <v>129</v>
+      </c>
+      <c r="B75" s="2">
         <v>22050</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <v>17235</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <v>4884</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <v>11214</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <v>22835</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="2">
         <v>57000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <v>44940</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <v>41730</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <v>16619</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <v>29168</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="2">
         <v>37602</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="2">
         <v>14553</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <v>53730</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <v>33625</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="2">
         <v>35042</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="2">
         <v>18106</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="2">
         <v>109651</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="2">
         <v>53150</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="2">
         <v>73305</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="2">
         <v>91352</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B95" s="1">
+        <v>127</v>
+      </c>
+      <c r="B95" s="2">
         <v>8628</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="2">
         <v>26155</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="2">
         <v>17480</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="2">
         <v>36434</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="2">
         <v>77000</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="2">
         <v>70095</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="2">
         <v>232000</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="2">
         <v>53966</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="2">
         <v>64550</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="2">
         <v>1077378</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="2">
         <v>43295</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="2">
         <v>21570</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="2">
         <v>53120</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="2">
         <v>15000</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="2">
         <v>85000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="2">
         <v>93640</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="2">
         <v>68222</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="2">
         <v>58000</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="2">
         <v>79712</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="2">
         <v>17900</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="2">
         <v>51953</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="2">
         <v>12941</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="3">
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="2">
         <v>17330</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="2">
         <v>44530</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="2">
         <v>275420</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="2">
         <v>19568</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="2">
         <v>21174</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="2">
         <v>74663</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="2">
         <v>72047</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="2">
         <v>40900</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="2">
         <v>187687</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="2">
         <v>71565</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="2">
         <v>768227</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="2">
         <v>2994000</v>
       </c>
     </row>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>20290</v>
+        <v>28690</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>42645</v>
+        <v>42400</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>40436</v>
+        <v>40320</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>17920</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1101,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>6305</v>
+        <v>32625</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>117</v>
       </c>
       <c r="B50" s="2">
-        <v>34496</v>
+        <v>27866</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>120</v>
       </c>
       <c r="B53" s="2">
-        <v>1056466</v>
+        <v>916716</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
         <v>55</v>
       </c>
       <c r="B65" s="2">
-        <v>39705</v>
+        <v>33010</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>69</v>
       </c>
       <c r="B80" s="2">
-        <v>57000</v>
+        <v>58460</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>72</v>
       </c>
       <c r="B83" s="2">
-        <v>16619</v>
+        <v>16386</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>73</v>
       </c>
       <c r="B84" s="2">
-        <v>29168</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="2">
-        <v>53730</v>
+        <v>41006</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>82</v>
       </c>
       <c r="B93" s="2">
-        <v>73305</v>
+        <v>74305</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
         <v>127</v>
       </c>
       <c r="B95" s="2">
-        <v>8628</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>77000</v>
+        <v>77850</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +1621,7 @@
         <v>93</v>
       </c>
       <c r="B105" s="2">
-        <v>43295</v>
+        <v>44140</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>95</v>
       </c>
       <c r="B107" s="2">
-        <v>53120</v>
+        <v>28004</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>99</v>
       </c>
       <c r="B111" s="2">
-        <v>68222</v>
+        <v>68342</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>103</v>
       </c>
       <c r="B115" s="2">
-        <v>51953</v>
+        <v>34561</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1773,7 +1773,7 @@
         <v>112</v>
       </c>
       <c r="B124" s="2">
-        <v>72047</v>
+        <v>45392</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1789,7 +1789,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="2">
-        <v>187687</v>
+        <v>154670</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
         <v>115</v>
       </c>
       <c r="B127" s="2">
-        <v>71565</v>
+        <v>72065</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="2">
-        <v>2994000</v>
+        <v>2857500</v>
       </c>
     </row>
   </sheetData>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -829,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>43845</v>
+        <v>43560</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>53170</v>
+        <v>43025</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>49670</v>
+        <v>18895</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>35186</v>
+        <v>34960</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>32539</v>
+        <v>32380</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>112400</v>
+        <v>112662</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>41840</v>
+        <v>42560</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,7 +1109,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>44189</v>
+        <v>33009</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1125,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>18920</v>
+        <v>19517</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>38530</v>
+        <v>28522</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>117</v>
       </c>
       <c r="B50" s="2">
-        <v>27866</v>
+        <v>27697</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>120</v>
       </c>
       <c r="B53" s="2">
-        <v>916716</v>
+        <v>883588</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
         <v>55</v>
       </c>
       <c r="B65" s="2">
-        <v>33010</v>
+        <v>32865</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="2">
-        <v>38810</v>
+        <v>39150</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="2">
-        <v>12735</v>
+        <v>12783</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
         <v>67</v>
       </c>
       <c r="B78" s="2">
-        <v>11214</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>79</v>
       </c>
       <c r="B90" s="2">
-        <v>18106</v>
+        <v>18902</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
         <v>84</v>
       </c>
       <c r="B96" s="2">
-        <v>26155</v>
+        <v>25312</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>77850</v>
+        <v>51473</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
         <v>88</v>
       </c>
       <c r="B100" s="2">
-        <v>70095</v>
+        <v>69400</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>95</v>
       </c>
       <c r="B107" s="2">
-        <v>28004</v>
+        <v>27120</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>97</v>
       </c>
       <c r="B109" s="2">
-        <v>85000</v>
+        <v>85145</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>103</v>
       </c>
       <c r="B115" s="2">
-        <v>34561</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>110</v>
       </c>
       <c r="B122" s="2">
-        <v>21174</v>
+        <v>9455</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>111</v>
       </c>
       <c r="B123" s="2">
-        <v>74663</v>
+        <v>74096</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1789,7 +1789,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="2">
-        <v>154670</v>
+        <v>154000</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="2">
-        <v>2857500</v>
+        <v>2814000</v>
       </c>
     </row>
   </sheetData>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>28690</v>
+        <v>18290</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>43560</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>73480</v>
+        <v>62658</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>43025</v>
+        <v>42700</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>18895</v>
+        <v>18480</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>69590</v>
+        <v>53937</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>34960</v>
+        <v>35460</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>42400</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>40320</v>
+        <v>40400</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>45580</v>
+        <v>46380</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1101,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>32625</v>
+        <v>21972</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,7 +1109,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>33009</v>
+        <v>32380</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>28522</v>
+        <v>28210</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
         <v>119</v>
       </c>
       <c r="B52" s="2">
-        <v>1784528</v>
+        <v>1808828</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="2">
-        <v>61805</v>
+        <v>61933</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>57</v>
       </c>
       <c r="B67" s="2">
-        <v>50095</v>
+        <v>35516</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
         <v>67</v>
       </c>
       <c r="B78" s="2">
-        <v>11000</v>
+        <v>11122</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>73</v>
       </c>
       <c r="B84" s="2">
-        <v>28000</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="2">
-        <v>41006</v>
+        <v>40730</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>81</v>
       </c>
       <c r="B92" s="2">
-        <v>53150</v>
+        <v>39756</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
         <v>127</v>
       </c>
       <c r="B95" s="2">
-        <v>8000</v>
+        <v>8645</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
         <v>84</v>
       </c>
       <c r="B96" s="2">
-        <v>25312</v>
+        <v>26239</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>64550</v>
+        <v>14317</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>94</v>
       </c>
       <c r="B106" s="2">
-        <v>21570</v>
+        <v>11285</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="2">
-        <v>15000</v>
+        <v>15159</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
         <v>106</v>
       </c>
       <c r="B118" s="2">
-        <v>17330</v>
+        <v>6749</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
         <v>108</v>
       </c>
       <c r="B120" s="2">
-        <v>275420</v>
+        <v>172951</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>109</v>
       </c>
       <c r="B121" s="2">
-        <v>19568</v>
+        <v>9020</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>110</v>
       </c>
       <c r="B122" s="2">
-        <v>9455</v>
+        <v>9174</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1773,7 +1773,7 @@
         <v>112</v>
       </c>
       <c r="B124" s="2">
-        <v>45392</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="2">
-        <v>768227</v>
+        <v>858185</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -845,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>62658</v>
+        <v>62480</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>72143</v>
+        <v>58102</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>53937</v>
+        <v>53320</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1101,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>21972</v>
+        <v>21840</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,15 +1109,15 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>32380</v>
+        <v>32830</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="2">
-        <v>8125</v>
+      <c r="B42" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1189,7 +1189,7 @@
         <v>118</v>
       </c>
       <c r="B51" s="2">
-        <v>1244770</v>
+        <v>1256770</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>49</v>
       </c>
       <c r="B62" s="2">
-        <v>29375</v>
+        <v>29481</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="2">
-        <v>12783</v>
+        <v>10950</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>129</v>
       </c>
       <c r="B75" s="2">
-        <v>22050</v>
+        <v>19539</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>72</v>
       </c>
       <c r="B83" s="2">
-        <v>16386</v>
+        <v>16724</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="2">
-        <v>40730</v>
+        <v>104730</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>81</v>
       </c>
       <c r="B92" s="2">
-        <v>39756</v>
+        <v>39150</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>86</v>
       </c>
       <c r="B98" s="2">
-        <v>36434</v>
+        <v>28565</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>51473</v>
+        <v>115473</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
         <v>88</v>
       </c>
       <c r="B100" s="2">
-        <v>69400</v>
+        <v>70143</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>89</v>
       </c>
       <c r="B101" s="2">
-        <v>232000</v>
+        <v>682647</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>14317</v>
+        <v>206000</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>94</v>
       </c>
       <c r="B106" s="2">
-        <v>11285</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>95</v>
       </c>
       <c r="B107" s="2">
-        <v>27120</v>
+        <v>28005</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
         <v>106</v>
       </c>
       <c r="B118" s="2">
-        <v>6749</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
         <v>108</v>
       </c>
       <c r="B120" s="2">
-        <v>172951</v>
+        <v>172000</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>109</v>
       </c>
       <c r="B121" s="2">
-        <v>9020</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="2">
-        <v>858185</v>
+        <v>859227</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -480,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -489,6 +489,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -837,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>58360</v>
+        <v>40452</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -853,7 +856,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>42700</v>
+        <v>43286</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -861,7 +864,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>58102</v>
+        <v>57880</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +968,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>32380</v>
+        <v>32870</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1132,9 +1135,7 @@
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="2">
-        <v>15290</v>
-      </c>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -1181,7 +1182,7 @@
         <v>117</v>
       </c>
       <c r="B50" s="2">
-        <v>27697</v>
+        <v>27904</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1205,7 +1206,7 @@
         <v>120</v>
       </c>
       <c r="B53" s="2">
-        <v>883588</v>
+        <v>921988</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1302,7 @@
         <v>55</v>
       </c>
       <c r="B65" s="2">
-        <v>32865</v>
+        <v>33070</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1317,7 +1318,7 @@
         <v>57</v>
       </c>
       <c r="B67" s="2">
-        <v>35516</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,7 +1366,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="2">
-        <v>10950</v>
+        <v>10048</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +1382,7 @@
         <v>129</v>
       </c>
       <c r="B75" s="2">
-        <v>19539</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1478,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="2">
-        <v>104730</v>
+        <v>105200</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1518,7 @@
         <v>81</v>
       </c>
       <c r="B92" s="2">
-        <v>39150</v>
+        <v>39965</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1574,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>115473</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1630,7 @@
         <v>94</v>
       </c>
       <c r="B106" s="2">
-        <v>11000</v>
+        <v>11267</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1686,7 @@
         <v>101</v>
       </c>
       <c r="B113" s="2">
-        <v>79712</v>
+        <v>53995</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,7 +1766,7 @@
         <v>111</v>
       </c>
       <c r="B123" s="2">
-        <v>74096</v>
+        <v>75030</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1789,7 +1790,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="2">
-        <v>154000</v>
+        <v>154965</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -1318,7 +1318,7 @@
         <v>57</v>
       </c>
       <c r="B67" s="2">
-        <v>35000</v>
+        <v>13060</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1566,7 +1566,7 @@
         <v>86</v>
       </c>
       <c r="B98" s="2">
-        <v>28565</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -480,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -489,9 +489,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -800,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>18290</v>
+        <v>17860</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -848,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>62480</v>
+        <v>62870</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -888,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>18480</v>
+        <v>121020</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -896,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>24580</v>
+        <v>49780</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -904,7 +901,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>36475</v>
+        <v>26381</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -920,7 +917,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>26460</v>
+        <v>51100</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -936,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>54117</v>
+        <v>79317</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>35090</v>
+        <v>134770</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>112662</v>
+        <v>178067</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,7 +1061,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>23610</v>
+        <v>74570</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1080,7 +1077,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>10455</v>
+        <v>35655</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1088,7 +1085,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>18100</v>
+        <v>43300</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1096,7 +1093,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>85100</v>
+        <v>235180</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1119,8 +1116,8 @@
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="3">
-        <v>9</v>
+      <c r="B42" s="2">
+        <v>50409</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1132,9 @@
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="2">
+        <v>23920</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -1150,7 +1149,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>29500</v>
+        <v>54140</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1166,7 +1165,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>28210</v>
+        <v>28690</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1318,7 +1317,7 @@
         <v>57</v>
       </c>
       <c r="B67" s="2">
-        <v>13060</v>
+        <v>13560</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1366,7 +1365,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="2">
-        <v>10048</v>
+        <v>10973</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1534,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="2">
-        <v>91352</v>
+        <v>80420</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1574,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>115000</v>
+        <v>94187</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1654,7 +1653,7 @@
         <v>97</v>
       </c>
       <c r="B109" s="2">
-        <v>85145</v>
+        <v>35012</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1678,7 +1677,7 @@
         <v>100</v>
       </c>
       <c r="B112" s="2">
-        <v>58000</v>
+        <v>47653</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1686,7 +1685,7 @@
         <v>101</v>
       </c>
       <c r="B113" s="2">
-        <v>53995</v>
+        <v>53570</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1702,7 +1701,7 @@
         <v>103</v>
       </c>
       <c r="B115" s="2">
-        <v>34000</v>
+        <v>34850</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1726,7 +1725,7 @@
         <v>106</v>
       </c>
       <c r="B118" s="2">
-        <v>6000</v>
+        <v>6724</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1749,7 @@
         <v>109</v>
       </c>
       <c r="B121" s="2">
-        <v>8000</v>
+        <v>9172</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1758,7 +1757,7 @@
         <v>110</v>
       </c>
       <c r="B122" s="2">
-        <v>9174</v>
+        <v>9524</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1774,7 +1773,7 @@
         <v>112</v>
       </c>
       <c r="B124" s="2">
-        <v>44600</v>
+        <v>45570</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>17860</v>
+        <v>18590</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>57880</v>
+        <v>58740</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>53320</v>
+        <v>54630</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1101,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>21840</v>
+        <v>21975</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>50409</v>
+        <v>50400</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1133,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>23920</v>
+        <v>23520</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>57</v>
       </c>
       <c r="B67" s="2">
-        <v>13560</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>129</v>
       </c>
       <c r="B75" s="2">
-        <v>19000</v>
+        <v>19520</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>86</v>
       </c>
       <c r="B98" s="2">
-        <v>28000</v>
+        <v>28660</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>206000</v>
+        <v>181487</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>97</v>
       </c>
       <c r="B109" s="2">
-        <v>35012</v>
+        <v>34145</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +1661,7 @@
         <v>98</v>
       </c>
       <c r="B110" s="2">
-        <v>93640</v>
+        <v>69002</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
         <v>101</v>
       </c>
       <c r="B113" s="2">
-        <v>53570</v>
+        <v>54470</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>102</v>
       </c>
       <c r="B114" s="2">
-        <v>17900</v>
+        <v>1238.3</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
         <v>115</v>
       </c>
       <c r="B127" s="2">
-        <v>72065</v>
+        <v>50201</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -837,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>40452</v>
+        <v>40320</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>79317</v>
+        <v>48531</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -989,7 +989,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>20241</v>
+        <v>8531.9599999999991</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>134770</v>
+        <v>124273</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>178067</v>
+        <v>178080</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>74</v>
       </c>
       <c r="B85" s="2">
-        <v>37602</v>
+        <v>20941</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>81</v>
       </c>
       <c r="B92" s="2">
-        <v>39965</v>
+        <v>28303</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>82</v>
       </c>
       <c r="B93" s="2">
-        <v>74305</v>
+        <v>48314</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="2">
-        <v>80420</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +1661,7 @@
         <v>98</v>
       </c>
       <c r="B110" s="2">
-        <v>69002</v>
+        <v>68640</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1677,7 +1677,7 @@
         <v>100</v>
       </c>
       <c r="B112" s="2">
-        <v>47653</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -1573,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>94187</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -901,7 +901,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>26381</v>
+        <v>26360</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -989,7 +989,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>8531.9599999999991</v>
+        <v>8481</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>50400</v>
+        <v>50689</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1133,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>23520</v>
+        <v>24540</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>69</v>
       </c>
       <c r="B80" s="2">
-        <v>58460</v>
+        <v>122460</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>72</v>
       </c>
       <c r="B83" s="2">
-        <v>16724</v>
+        <v>48724</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>74</v>
       </c>
       <c r="B85" s="2">
-        <v>20941</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>78</v>
       </c>
       <c r="B89" s="2">
-        <v>35042</v>
+        <v>67042</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="2">
-        <v>80000</v>
+        <v>112000</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>94000</v>
+        <v>52374</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>90</v>
       </c>
       <c r="B102" s="2">
-        <v>53966</v>
+        <v>85966</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>181487</v>
+        <v>213487</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>94</v>
       </c>
       <c r="B106" s="2">
-        <v>11267</v>
+        <v>43267</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>95</v>
       </c>
       <c r="B107" s="2">
-        <v>28005</v>
+        <v>92005</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="2">
-        <v>15159</v>
+        <v>79159</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>97</v>
       </c>
       <c r="B109" s="2">
-        <v>34145</v>
+        <v>230145</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>99</v>
       </c>
       <c r="B111" s="2">
-        <v>68342</v>
+        <v>100342</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
         <v>101</v>
       </c>
       <c r="B113" s="2">
-        <v>54470</v>
+        <v>249470</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>102</v>
       </c>
       <c r="B114" s="2">
-        <v>1238.3</v>
+        <v>32900</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>103</v>
       </c>
       <c r="B115" s="2">
-        <v>34850</v>
+        <v>66850</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>110</v>
       </c>
       <c r="B122" s="2">
-        <v>9524</v>
+        <v>41524</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1773,7 +1773,7 @@
         <v>112</v>
       </c>
       <c r="B124" s="2">
-        <v>45570</v>
+        <v>77570</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1789,7 +1789,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="2">
-        <v>154965</v>
+        <v>218965</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
         <v>115</v>
       </c>
       <c r="B127" s="2">
-        <v>50201</v>
+        <v>50065</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -805,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>20020</v>
+        <v>14973</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -837,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>40320</v>
+        <v>40850</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -869,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>32509</v>
+        <v>20397</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>124273</v>
+        <v>124130</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>57</v>
       </c>
       <c r="B67" s="2">
-        <v>13000</v>
+        <v>13610</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>62</v>
       </c>
       <c r="B72" s="2">
-        <v>27149</v>
+        <v>25226</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>69</v>
       </c>
       <c r="B80" s="2">
-        <v>122460</v>
+        <v>97468</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>81</v>
       </c>
       <c r="B92" s="2">
-        <v>28303</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>82</v>
       </c>
       <c r="B93" s="2">
-        <v>48314</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="2">
-        <v>112000</v>
+        <v>89527</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>52374</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>213487</v>
+        <v>213000</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>99</v>
       </c>
       <c r="B111" s="2">
-        <v>100342</v>
+        <v>77854</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1677,7 +1677,7 @@
         <v>100</v>
       </c>
       <c r="B112" s="2">
-        <v>47000</v>
+        <v>47500</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
         <v>108</v>
       </c>
       <c r="B120" s="2">
-        <v>172000</v>
+        <v>173480</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -805,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>14973</v>
+        <v>14560</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -869,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>20397</v>
+        <v>20160</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>26360</v>
+        <v>26540</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>48531</v>
+        <v>48160</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>43200</v>
+        <v>21498</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>235180</v>
+        <v>208431</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>62</v>
       </c>
       <c r="B72" s="2">
-        <v>25226</v>
+        <v>24925</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>69</v>
       </c>
       <c r="B80" s="2">
-        <v>97468</v>
+        <v>97000</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>74</v>
       </c>
       <c r="B85" s="2">
-        <v>52000</v>
+        <v>53045</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>81</v>
       </c>
       <c r="B92" s="2">
-        <v>28000</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="2">
-        <v>89527</v>
+        <v>88797</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>90</v>
       </c>
       <c r="B102" s="2">
-        <v>85966</v>
+        <v>61354</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>99</v>
       </c>
       <c r="B111" s="2">
-        <v>77854</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>102</v>
       </c>
       <c r="B114" s="2">
-        <v>32900</v>
+        <v>33415</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
         <v>113</v>
       </c>
       <c r="B125" s="2">
-        <v>40900</v>
+        <v>19307</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
         <v>115</v>
       </c>
       <c r="B127" s="2">
-        <v>50065</v>
+        <v>50480</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -973,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>21498</v>
+        <v>21280</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -989,7 +989,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>8481</v>
+        <v>8831</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>124130</v>
+        <v>124440</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>43300</v>
+        <v>34418</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
         <v>67</v>
       </c>
       <c r="B78" s="2">
-        <v>11122</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
         <v>68</v>
       </c>
       <c r="B79" s="2">
-        <v>22835</v>
+        <v>15038</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>75</v>
       </c>
       <c r="B86" s="2">
-        <v>14553</v>
+        <v>8553</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="2">
-        <v>105200</v>
+        <v>92538</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>82</v>
       </c>
       <c r="B93" s="2">
-        <v>48000</v>
+        <v>48910</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="2">
-        <v>88797</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>85</v>
       </c>
       <c r="B97" s="2">
-        <v>17480</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>86</v>
       </c>
       <c r="B98" s="2">
-        <v>28660</v>
+        <v>11999</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>90</v>
       </c>
       <c r="B102" s="2">
-        <v>61354</v>
+        <v>61000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>213000</v>
+        <v>188443</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>95</v>
       </c>
       <c r="B107" s="2">
-        <v>92005</v>
+        <v>42729</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>103</v>
       </c>
       <c r="B115" s="2">
-        <v>66850</v>
+        <v>57160</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
         <v>113</v>
       </c>
       <c r="B125" s="2">
-        <v>19307</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -805,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>14560</v>
+        <v>15110</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -869,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>20160</v>
+        <v>20620</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>25139</v>
+        <v>14480</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>40400</v>
+        <v>31208</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>124440</v>
+        <v>109098</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>178080</v>
+        <v>178493</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,7 +1037,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>40505</v>
+        <v>35429</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>208431</v>
+        <v>207660</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>116</v>
       </c>
       <c r="B49" s="2">
-        <v>100357</v>
+        <v>95357</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>124</v>
       </c>
       <c r="B57" s="2">
-        <v>341210</v>
+        <v>272630</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
         <v>53</v>
       </c>
       <c r="B64" s="2">
-        <v>19000</v>
+        <v>16250</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>58</v>
       </c>
       <c r="B68" s="2">
-        <v>12500</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="2">
-        <v>39150</v>
+        <v>36651</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
         <v>61</v>
       </c>
       <c r="B71" s="2">
-        <v>9962</v>
+        <v>7913</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>62</v>
       </c>
       <c r="B72" s="2">
-        <v>24925</v>
+        <v>25160</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
         <v>64</v>
       </c>
       <c r="B74" s="2">
-        <v>8187</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>129</v>
       </c>
       <c r="B75" s="2">
-        <v>19520</v>
+        <v>17021</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
         <v>67</v>
       </c>
       <c r="B78" s="2">
-        <v>7370</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
         <v>68</v>
       </c>
       <c r="B79" s="2">
-        <v>15038</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>69</v>
       </c>
       <c r="B80" s="2">
-        <v>97000</v>
+        <v>97834</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
         <v>70</v>
       </c>
       <c r="B81" s="2">
-        <v>44940</v>
+        <v>24127</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>75</v>
       </c>
       <c r="B86" s="2">
-        <v>8553</v>
+        <v>9107</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="2">
-        <v>92538</v>
+        <v>92000</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
         <v>77</v>
       </c>
       <c r="B88" s="2">
-        <v>33625</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>78</v>
       </c>
       <c r="B89" s="2">
-        <v>67042</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="2">
-        <v>89000</v>
+        <v>90039</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>85</v>
       </c>
       <c r="B97" s="2">
-        <v>7000</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>86</v>
       </c>
       <c r="B98" s="2">
-        <v>11999</v>
+        <v>11660</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>188443</v>
+        <v>188000</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +1621,7 @@
         <v>93</v>
       </c>
       <c r="B105" s="2">
-        <v>44140</v>
+        <v>34045</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>95</v>
       </c>
       <c r="B107" s="2">
-        <v>42729</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>99</v>
       </c>
       <c r="B111" s="2">
-        <v>77000</v>
+        <v>77749</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>103</v>
       </c>
       <c r="B115" s="2">
-        <v>57160</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>110</v>
       </c>
       <c r="B122" s="2">
-        <v>41524</v>
+        <v>26529</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
         <v>113</v>
       </c>
       <c r="B125" s="2">
-        <v>19000</v>
+        <v>19540</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="2">
-        <v>2814000</v>
+        <v>2634000</v>
       </c>
     </row>
   </sheetData>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -829,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>44069</v>
+        <v>33471</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>62870</v>
+        <v>52104</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>48160</v>
+        <v>11946</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>21280</v>
+        <v>20160</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>31208</v>
+        <v>30880</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>109098</v>
+        <v>108640</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,7 +1037,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>35429</v>
+        <v>35405</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>34418</v>
+        <v>34340</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>50689</v>
+        <v>35548</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>116</v>
       </c>
       <c r="B49" s="2">
-        <v>95357</v>
+        <v>97917</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>124</v>
       </c>
       <c r="B57" s="2">
-        <v>272630</v>
+        <v>291930</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
         <v>53</v>
       </c>
       <c r="B64" s="2">
-        <v>16250</v>
+        <v>16339</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="2">
-        <v>36651</v>
+        <v>36110</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
         <v>60</v>
       </c>
       <c r="B70" s="2">
-        <v>32062</v>
+        <v>29563</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
         <v>61</v>
       </c>
       <c r="B71" s="2">
-        <v>7913</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
         <v>64</v>
       </c>
       <c r="B74" s="2">
-        <v>5688</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>129</v>
       </c>
       <c r="B75" s="2">
-        <v>17021</v>
+        <v>16520</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
         <v>68</v>
       </c>
       <c r="B79" s="2">
-        <v>15000</v>
+        <v>15065</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
         <v>70</v>
       </c>
       <c r="B81" s="2">
-        <v>24127</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>72</v>
       </c>
       <c r="B83" s="2">
-        <v>48724</v>
+        <v>32607</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>73</v>
       </c>
       <c r="B84" s="2">
-        <v>29000</v>
+        <v>15339</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>74</v>
       </c>
       <c r="B85" s="2">
-        <v>53045</v>
+        <v>36384</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>80</v>
       </c>
       <c r="B91" s="2">
-        <v>109651</v>
+        <v>87992</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>81</v>
       </c>
       <c r="B92" s="2">
-        <v>28500</v>
+        <v>18474</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>86</v>
       </c>
       <c r="B98" s="2">
-        <v>11660</v>
+        <v>12160</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>90</v>
       </c>
       <c r="B102" s="2">
-        <v>61000</v>
+        <v>61093</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="2">
-        <v>79159</v>
+        <v>40254</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>103</v>
       </c>
       <c r="B115" s="2">
-        <v>57000</v>
+        <v>57200</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1733,7 +1733,7 @@
         <v>107</v>
       </c>
       <c r="B119" s="2">
-        <v>44530</v>
+        <v>34505</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>110</v>
       </c>
       <c r="B122" s="2">
-        <v>26529</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -933,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>11946</v>
+        <v>11970</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>20160</v>
+        <v>20870</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>207660</v>
+        <v>208950</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>72</v>
       </c>
       <c r="B83" s="2">
-        <v>32607</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="2">
-        <v>92000</v>
+        <v>92560</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
         <v>77</v>
       </c>
       <c r="B88" s="2">
-        <v>22000</v>
+        <v>23030</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>52000</v>
+        <v>26026</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +1621,7 @@
         <v>93</v>
       </c>
       <c r="B105" s="2">
-        <v>34045</v>
+        <v>33845</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="2">
-        <v>40254</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>97</v>
       </c>
       <c r="B109" s="2">
-        <v>230145</v>
+        <v>205158</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -845,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>52104</v>
+        <v>52160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>14480</v>
+        <v>14560</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>108640</v>
+        <v>109338</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,7 +1037,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>35405</v>
+        <v>35555</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>34340</v>
+        <v>34595</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>120</v>
       </c>
       <c r="B53" s="2">
-        <v>921988</v>
+        <v>840688</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>58</v>
       </c>
       <c r="B68" s="2">
-        <v>2385</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="2">
-        <v>36110</v>
+        <v>36638</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
         <v>60</v>
       </c>
       <c r="B70" s="2">
-        <v>29563</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
         <v>61</v>
       </c>
       <c r="B71" s="2">
-        <v>7532</v>
+        <v>7907</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
         <v>64</v>
       </c>
       <c r="B74" s="2">
-        <v>5337</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>129</v>
       </c>
       <c r="B75" s="2">
-        <v>16520</v>
+        <v>17020</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>78</v>
       </c>
       <c r="B89" s="2">
-        <v>56000</v>
+        <v>56910</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>188000</v>
+        <v>188450</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>95</v>
       </c>
       <c r="B107" s="2">
-        <v>42000</v>
+        <v>42415</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1733,7 +1733,7 @@
         <v>107</v>
       </c>
       <c r="B119" s="2">
-        <v>34505</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -909,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>14560</v>
+        <v>14730</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>35548</v>
+        <v>35280</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>54140</v>
+        <v>43037</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
         <v>70</v>
       </c>
       <c r="B81" s="2">
-        <v>24000</v>
+        <v>24140</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>79</v>
       </c>
       <c r="B90" s="2">
-        <v>18902</v>
+        <v>13627</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>26026</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +1621,7 @@
         <v>93</v>
       </c>
       <c r="B105" s="2">
-        <v>33845</v>
+        <v>34026</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>103</v>
       </c>
       <c r="B115" s="2">
-        <v>57200</v>
+        <v>47863</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>110</v>
       </c>
       <c r="B122" s="2">
-        <v>26000</v>
+        <v>26630</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -829,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>33471</v>
+        <v>33240</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>11970</v>
+        <v>12715</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>30880</v>
+        <v>30970</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>58</v>
       </c>
       <c r="B68" s="2">
-        <v>2000</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
         <v>60</v>
       </c>
       <c r="B70" s="2">
-        <v>29000</v>
+        <v>29620</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1396,8 +1396,8 @@
       <c r="A77" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="2">
-        <v>4884</v>
+      <c r="B77" s="3">
+        <v>888</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>72</v>
       </c>
       <c r="B83" s="2">
-        <v>32000</v>
+        <v>32790</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>80</v>
       </c>
       <c r="B91" s="2">
-        <v>87992</v>
+        <v>87000</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="2">
-        <v>90039</v>
+        <v>71582</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>89</v>
       </c>
       <c r="B101" s="2">
-        <v>682647</v>
+        <v>1018647</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>103</v>
       </c>
       <c r="B115" s="2">
-        <v>47863</v>
+        <v>47200</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1733,7 +1733,7 @@
         <v>107</v>
       </c>
       <c r="B119" s="2">
-        <v>34000</v>
+        <v>34308</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -845,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>52160</v>
+        <v>52360</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>49780</v>
+        <v>22527</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>51100</v>
+        <v>40320</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>43037</v>
+        <v>43120</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>73</v>
       </c>
       <c r="B84" s="2">
-        <v>15339</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>79</v>
       </c>
       <c r="B90" s="2">
-        <v>13627</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="2">
-        <v>71582</v>
+        <v>71039</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>25000</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -893,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>22527</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>32870</v>
+        <v>22655</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>35280</v>
+        <v>36277</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="2">
-        <v>36638</v>
+        <v>33882</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="2">
-        <v>10973</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
         <v>66</v>
       </c>
       <c r="B77" s="3">
-        <v>888</v>
+        <v>540</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>74</v>
       </c>
       <c r="B85" s="2">
-        <v>36384</v>
+        <v>36045</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>81</v>
       </c>
       <c r="B92" s="2">
-        <v>18474</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>1455</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
         <v>88</v>
       </c>
       <c r="B100" s="2">
-        <v>70143</v>
+        <v>58481</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>103</v>
       </c>
       <c r="B115" s="2">
-        <v>47200</v>
+        <v>47887</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -829,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>33240</v>
+        <v>33630</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>43286</v>
+        <v>32305</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>40320</v>
+        <v>40790</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>208950</v>
+        <v>184281</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>73</v>
       </c>
       <c r="B84" s="2">
-        <v>15000</v>
+        <v>15540</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>79</v>
       </c>
       <c r="B90" s="2">
-        <v>13000</v>
+        <v>13630</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>80</v>
       </c>
       <c r="B91" s="2">
-        <v>87000</v>
+        <v>88265</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="2">
-        <v>71039</v>
+        <v>53350</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>4155</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>188450</v>
+        <v>163463</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>97</v>
       </c>
       <c r="B109" s="2">
-        <v>205158</v>
+        <v>204145</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -853,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>32305</v>
+        <v>32380</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>22655</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>46380</v>
+        <v>36367</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>43120</v>
+        <v>43240</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="2">
-        <v>33882</v>
+        <v>33410</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1396,8 +1396,8 @@
       <c r="A77" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="3">
-        <v>540</v>
+      <c r="B77" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>69</v>
       </c>
       <c r="B80" s="2">
-        <v>97834</v>
+        <v>65861</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>81</v>
       </c>
       <c r="B92" s="2">
-        <v>18000</v>
+        <v>18593</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="2">
-        <v>53350</v>
+        <v>54017</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -861,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>58740</v>
+        <v>46123</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>22400</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>184281</v>
+        <v>184240</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>74</v>
       </c>
       <c r="B85" s="2">
-        <v>36045</v>
+        <v>36415</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
         <v>88</v>
       </c>
       <c r="B100" s="2">
-        <v>58481</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>163463</v>
+        <v>163000</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>94</v>
       </c>
       <c r="B106" s="2">
-        <v>43267</v>
+        <v>33072</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -901,7 +901,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>26540</v>
+        <v>12880</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>22400</v>
+        <v>22960</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>109338</v>
+        <v>93996</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>36367</v>
+        <v>36120</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="2">
-        <v>33410</v>
+        <v>33850</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>62</v>
       </c>
       <c r="B72" s="2">
-        <v>25160</v>
+        <v>22835</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>69</v>
       </c>
       <c r="B80" s="2">
-        <v>65861</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="2">
-        <v>54017</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>97</v>
       </c>
       <c r="B109" s="2">
-        <v>204145</v>
+        <v>205145</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -853,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>32380</v>
+        <v>32446</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>12880</v>
+        <v>13130</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>36120</v>
+        <v>36700</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>74570</v>
+        <v>64476</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>184240</v>
+        <v>184800</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1125,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>19517</v>
+        <v>9460</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>116</v>
       </c>
       <c r="B49" s="2">
-        <v>97917</v>
+        <v>95444</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>117</v>
       </c>
       <c r="B50" s="2">
-        <v>27904</v>
+        <v>21304</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1189,7 +1189,7 @@
         <v>118</v>
       </c>
       <c r="B51" s="2">
-        <v>1256770</v>
+        <v>1233830</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>120</v>
       </c>
       <c r="B53" s="2">
-        <v>840688</v>
+        <v>702966</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>124</v>
       </c>
       <c r="B57" s="2">
-        <v>291930</v>
+        <v>239793</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>49</v>
       </c>
       <c r="B62" s="2">
-        <v>29481</v>
+        <v>28382</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
         <v>53</v>
       </c>
       <c r="B64" s="2">
-        <v>16339</v>
+        <v>13842</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
         <v>55</v>
       </c>
       <c r="B65" s="2">
-        <v>33070</v>
+        <v>26455</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>62</v>
       </c>
       <c r="B72" s="2">
-        <v>22835</v>
+        <v>23268</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="2">
-        <v>9100</v>
+        <v>9048</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>78</v>
       </c>
       <c r="B89" s="2">
-        <v>56910</v>
+        <v>46920</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>3700</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
         <v>88</v>
       </c>
       <c r="B100" s="2">
-        <v>58000</v>
+        <v>58600</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>89</v>
       </c>
       <c r="B101" s="2">
-        <v>1018647</v>
+        <v>1072247</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>163000</v>
+        <v>163440</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>97</v>
       </c>
       <c r="B109" s="2">
-        <v>205145</v>
+        <v>130932</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="2">
-        <v>859227</v>
+        <v>836820</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="2">
-        <v>2634000</v>
+        <v>2449872</v>
       </c>
     </row>
   </sheetData>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -805,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>15110</v>
+        <v>40870</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>46123</v>
+        <v>45920</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>23000</v>
+        <v>48760</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>12715</v>
+        <v>38475</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>35460</v>
+        <v>23045</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>93996</v>
+        <v>94290</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>64476</v>
+        <v>64400</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>35655</v>
+        <v>20585</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1125,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>9460</v>
+        <v>35220</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>43240</v>
+        <v>30623</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2">
-        <v>28690</v>
+        <v>54450</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>116</v>
       </c>
       <c r="B49" s="2">
-        <v>95444</v>
+        <v>93795</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1189,7 +1189,7 @@
         <v>118</v>
       </c>
       <c r="B51" s="2">
-        <v>1233830</v>
+        <v>1165770</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>123</v>
       </c>
       <c r="B56" s="2">
-        <v>484906</v>
+        <v>450141</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="2">
-        <v>28710</v>
+        <v>27045</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>49</v>
       </c>
       <c r="B62" s="2">
-        <v>28382</v>
+        <v>28306</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
         <v>68</v>
       </c>
       <c r="B79" s="2">
-        <v>15065</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>69</v>
       </c>
       <c r="B80" s="2">
-        <v>65000</v>
+        <v>97000</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>78</v>
       </c>
       <c r="B89" s="2">
-        <v>46920</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="2">
-        <v>53000</v>
+        <v>54442</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>4472</v>
+        <v>42332</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>89</v>
       </c>
       <c r="B101" s="2">
-        <v>1072247</v>
+        <v>1381247</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>163440</v>
+        <v>367328</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>94</v>
       </c>
       <c r="B106" s="2">
-        <v>33072</v>
+        <v>32267</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>95</v>
       </c>
       <c r="B107" s="2">
-        <v>42415</v>
+        <v>74415</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="2">
-        <v>40000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>97</v>
       </c>
       <c r="B109" s="2">
-        <v>130932</v>
+        <v>258000</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>102</v>
       </c>
       <c r="B114" s="2">
-        <v>33415</v>
+        <v>65415</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1789,7 +1789,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="2">
-        <v>218965</v>
+        <v>250965</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="2">
-        <v>836820</v>
+        <v>823424</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="2">
-        <v>2449872</v>
+        <v>2600043</v>
       </c>
     </row>
   </sheetData>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -837,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>40850</v>
+        <v>30240</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>178493</v>
+        <v>153783</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>20585</v>
+        <v>20160</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1125,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>35220</v>
+        <v>35780</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>30623</v>
+        <v>30360</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>116</v>
       </c>
       <c r="B49" s="2">
-        <v>93795</v>
+        <v>92917</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1189,7 +1189,7 @@
         <v>118</v>
       </c>
       <c r="B51" s="2">
-        <v>1165770</v>
+        <v>1220967</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>123</v>
       </c>
       <c r="B56" s="2">
-        <v>450141</v>
+        <v>448632</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>124</v>
       </c>
       <c r="B57" s="2">
-        <v>239793</v>
+        <v>238414</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="2">
-        <v>27045</v>
+        <v>26960</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
         <v>53</v>
       </c>
       <c r="B64" s="2">
-        <v>13842</v>
+        <v>13750</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>69</v>
       </c>
       <c r="B80" s="2">
-        <v>97000</v>
+        <v>97750</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>42332</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>111</v>
       </c>
       <c r="B123" s="2">
-        <v>75030</v>
+        <v>48862</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="2">
-        <v>823424</v>
+        <v>768227</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="2">
-        <v>2600043</v>
+        <v>2634000</v>
       </c>
     </row>
   </sheetData>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -861,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>45920</v>
+        <v>46805</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>14730</v>
+        <v>39930</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>23045</v>
+        <v>22960</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>22960</v>
+        <v>48160</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -989,7 +989,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>8831</v>
+        <v>34591</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>153783</v>
+        <v>203623</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>64400</v>
+        <v>64815</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,7 +1109,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>32830</v>
+        <v>58030</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>36277</v>
+        <v>86117</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>117</v>
       </c>
       <c r="B50" s="2">
-        <v>21304</v>
+        <v>21412</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1189,7 +1189,7 @@
         <v>118</v>
       </c>
       <c r="B51" s="2">
-        <v>1220967</v>
+        <v>1234002</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>120</v>
       </c>
       <c r="B53" s="2">
-        <v>702966</v>
+        <v>709966</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,7 +1277,7 @@
         <v>49</v>
       </c>
       <c r="B62" s="2">
-        <v>28306</v>
+        <v>28378</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
         <v>55</v>
       </c>
       <c r="B65" s="2">
-        <v>26455</v>
+        <v>26555</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
         <v>61</v>
       </c>
       <c r="B71" s="2">
-        <v>7907</v>
+        <v>39907</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="2">
-        <v>9048</v>
+        <v>41048</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
         <v>64</v>
       </c>
       <c r="B74" s="2">
-        <v>5637</v>
+        <v>37637</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
         <v>66</v>
       </c>
       <c r="B77" s="2">
-        <v>1000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>72</v>
       </c>
       <c r="B83" s="2">
-        <v>32790</v>
+        <v>64790</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
         <v>73</v>
       </c>
       <c r="B84" s="2">
-        <v>15540</v>
+        <v>47540</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="2">
-        <v>92560</v>
+        <v>124560</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>78</v>
       </c>
       <c r="B89" s="2">
-        <v>46000</v>
+        <v>47300</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>81</v>
       </c>
       <c r="B92" s="2">
-        <v>18593</v>
+        <v>50593</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>82</v>
       </c>
       <c r="B93" s="2">
-        <v>48910</v>
+        <v>80910</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="B94" s="2">
-        <v>54442</v>
+        <v>86442</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>86</v>
       </c>
       <c r="B98" s="2">
-        <v>12160</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>94</v>
       </c>
       <c r="B106" s="2">
-        <v>32267</v>
+        <v>32862</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +1661,7 @@
         <v>98</v>
       </c>
       <c r="B110" s="2">
-        <v>68640</v>
+        <v>58545</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>110</v>
       </c>
       <c r="B122" s="2">
-        <v>26630</v>
+        <v>58630</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1789,7 +1789,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="2">
-        <v>250965</v>
+        <v>226307</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="2">
-        <v>768227</v>
+        <v>836988</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -805,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>40870</v>
+        <v>35770</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>48160</v>
+        <v>38430</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>203623</v>
+        <v>203133</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>56080</v>
+        <v>44640</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="2">
-        <v>33850</v>
+        <v>29478</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>89</v>
       </c>
       <c r="B101" s="2">
-        <v>1381247</v>
+        <v>1276281</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>367328</v>
+        <v>367000</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>102</v>
       </c>
       <c r="B114" s="2">
-        <v>65415</v>
+        <v>46522</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>103</v>
       </c>
       <c r="B115" s="2">
-        <v>47887</v>
+        <v>37340</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>111</v>
       </c>
       <c r="B123" s="2">
-        <v>48862</v>
+        <v>48096</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
         <v>115</v>
       </c>
       <c r="B127" s="2">
-        <v>50480</v>
+        <v>30540</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -837,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>30240</v>
+        <v>30580</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>20160</v>
+        <v>21290</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>116</v>
       </c>
       <c r="B49" s="2">
-        <v>92917</v>
+        <v>93907</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>123</v>
       </c>
       <c r="B56" s="2">
-        <v>448632</v>
+        <v>452632</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>124</v>
       </c>
       <c r="B57" s="2">
-        <v>238414</v>
+        <v>241414</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="2">
-        <v>26960</v>
+        <v>27066</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
         <v>53</v>
       </c>
       <c r="B64" s="2">
-        <v>13750</v>
+        <v>14078</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
         <v>68</v>
       </c>
       <c r="B79" s="2">
-        <v>38000</v>
+        <v>38857</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
         <v>115</v>
       </c>
       <c r="B127" s="2">
-        <v>30540</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -480,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -489,6 +489,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -796,9 +799,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>18590</v>
-      </c>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1100,9 +1101,7 @@
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="2">
-        <v>21975</v>
-      </c>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -1149,7 +1148,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>30360</v>
+        <v>31095</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1740,9 +1739,7 @@
       <c r="A120" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B120" s="2">
-        <v>173480</v>
-      </c>
+      <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -1789,7 +1786,7 @@
         <v>114</v>
       </c>
       <c r="B126" s="2">
-        <v>226307</v>
+        <v>226000</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -958,7 +958,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>22960</v>
+        <v>23610</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1156,7 +1156,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>44640</v>
+        <v>44680</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>72</v>
       </c>
       <c r="B83" s="2">
-        <v>64790</v>
+        <v>54078</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
         <v>82</v>
       </c>
       <c r="B93" s="2">
-        <v>80910</v>
+        <v>60084</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1588,7 +1588,7 @@
         <v>89</v>
       </c>
       <c r="B101" s="2">
-        <v>1276281</v>
+        <v>1276323</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>97</v>
       </c>
       <c r="B109" s="2">
-        <v>258000</v>
+        <v>259041</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
         <v>98</v>
       </c>
       <c r="B110" s="2">
-        <v>58545</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1676,7 +1676,7 @@
         <v>100</v>
       </c>
       <c r="B112" s="2">
-        <v>47500</v>
+        <v>37505</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,7 +1700,7 @@
         <v>103</v>
       </c>
       <c r="B115" s="2">
-        <v>37340</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -806,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>35770</v>
+        <v>35280</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>40790</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>35555</v>
+        <v>30377</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="2">
-        <v>124560</v>
+        <v>100235</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>42000</v>
+        <v>21187</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1588,7 +1588,7 @@
         <v>89</v>
       </c>
       <c r="B101" s="2">
-        <v>1276323</v>
+        <v>1275642</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
         <v>111</v>
       </c>
       <c r="B123" s="2">
-        <v>48096</v>
+        <v>49046</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
         <v>115</v>
       </c>
       <c r="B127" s="2">
-        <v>30000</v>
+        <v>30950</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -30,15 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>material</t>
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>Б-6М "Лён обыкновенный" (ТМ "Будь здоров!")(БАД) 100г</t>
   </si>
   <si>
     <t>Б-6М Аир корневища 75г</t>
@@ -778,7 +775,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B129"/>
+      <selection activeCell="A2" sqref="A2:B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,14 +796,16 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="2">
+        <v>35280</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>35280</v>
+        <v>35760</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>35760</v>
+        <v>51696</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +821,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>51696</v>
+        <v>33630</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>33630</v>
+        <v>30580</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>30580</v>
+        <v>52360</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -846,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>52360</v>
+        <v>32446</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>32446</v>
+        <v>46805</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +861,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>46805</v>
+        <v>20620</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>20620</v>
+        <v>62710</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -878,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>62710</v>
+        <v>121020</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>121020</v>
+        <v>48760</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>48760</v>
+        <v>13130</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -902,7 +901,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>13130</v>
+        <v>39930</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>39930</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +917,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>25200</v>
+        <v>29900</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +925,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>29900</v>
+        <v>38475</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>38475</v>
+        <v>60785</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,7 +941,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>60785</v>
+        <v>54630</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,7 +949,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>54630</v>
+        <v>23610</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,7 +957,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>23610</v>
+        <v>38080</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -966,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>38430</v>
+        <v>20870</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -974,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>20870</v>
+        <v>30970</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -982,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>30970</v>
+        <v>34591</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,7 +989,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>34591</v>
+        <v>94290</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>94290</v>
+        <v>36700</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,7 +1005,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>36700</v>
+        <v>203133</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>203133</v>
+        <v>21040</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1022,7 +1021,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>21040</v>
+        <v>82048</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1030,7 +1029,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>82048</v>
+        <v>30377</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,7 +1037,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>30377</v>
+        <v>29860</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1046,7 +1045,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>29860</v>
+        <v>22490</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1054,7 +1053,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>22490</v>
+        <v>64815</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,7 +1061,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>64815</v>
+        <v>42560</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,7 +1069,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>42560</v>
+        <v>21290</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1077,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>21290</v>
+        <v>34595</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,29 +1085,29 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>34595</v>
+        <v>184800</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2">
-        <v>184800</v>
-      </c>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="2">
+        <v>58030</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>58030</v>
+        <v>86117</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1116,7 +1115,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>86117</v>
+        <v>35780</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1124,7 +1123,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>35780</v>
+        <v>24540</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1132,7 +1131,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>24540</v>
+        <v>37060</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1140,7 +1139,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>37060</v>
+        <v>9648</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1148,7 +1147,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>31095</v>
+        <v>44680</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1156,15 +1155,15 @@
         <v>47</v>
       </c>
       <c r="B47" s="2">
-        <v>44680</v>
+        <v>54450</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="B48" s="2">
-        <v>54450</v>
+        <v>93907</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1172,15 +1171,15 @@
         <v>116</v>
       </c>
       <c r="B49" s="2">
-        <v>93907</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B50" s="2">
-        <v>21412</v>
+        <v>1234002</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1188,15 +1187,15 @@
         <v>118</v>
       </c>
       <c r="B51" s="2">
-        <v>1234002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+        <v>1808828</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B52" s="2">
-        <v>1808828</v>
+        <v>709966</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1204,7 +1203,7 @@
         <v>120</v>
       </c>
       <c r="B53" s="2">
-        <v>709966</v>
+        <v>316266</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1212,7 +1211,7 @@
         <v>121</v>
       </c>
       <c r="B54" s="2">
-        <v>316266</v>
+        <v>605093</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1220,31 +1219,31 @@
         <v>122</v>
       </c>
       <c r="B55" s="2">
-        <v>605093</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>452632</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B56" s="2">
-        <v>452632</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+        <v>241414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B57" s="2">
-        <v>241414</v>
+        <v>815019</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="B58" s="2">
-        <v>815019</v>
+        <v>12374</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1252,23 +1251,23 @@
         <v>51</v>
       </c>
       <c r="B59" s="2">
-        <v>12374</v>
+        <v>17359</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B60" s="2">
-        <v>17359</v>
+        <v>27066</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B61" s="2">
-        <v>27066</v>
+        <v>28378</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1276,23 +1275,23 @@
         <v>49</v>
       </c>
       <c r="B62" s="2">
-        <v>28378</v>
+        <v>61933</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B63" s="2">
-        <v>61933</v>
+        <v>14078</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B64" s="2">
-        <v>14078</v>
+        <v>26555</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1300,7 +1299,7 @@
         <v>55</v>
       </c>
       <c r="B65" s="2">
-        <v>26555</v>
+        <v>42140</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1308,7 +1307,7 @@
         <v>56</v>
       </c>
       <c r="B66" s="2">
-        <v>42140</v>
+        <v>13610</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1316,7 +1315,7 @@
         <v>57</v>
       </c>
       <c r="B67" s="2">
-        <v>13610</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1324,7 +1323,7 @@
         <v>58</v>
       </c>
       <c r="B68" s="2">
-        <v>2240</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1332,7 +1331,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="2">
-        <v>29478</v>
+        <v>29620</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1340,7 +1339,7 @@
         <v>60</v>
       </c>
       <c r="B70" s="2">
-        <v>29620</v>
+        <v>39907</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1348,7 +1347,7 @@
         <v>61</v>
       </c>
       <c r="B71" s="2">
-        <v>39907</v>
+        <v>23268</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1356,7 +1355,7 @@
         <v>62</v>
       </c>
       <c r="B72" s="2">
-        <v>23268</v>
+        <v>41048</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1364,23 +1363,23 @@
         <v>63</v>
       </c>
       <c r="B73" s="2">
-        <v>41048</v>
+        <v>37637</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2">
-        <v>37637</v>
+        <v>17020</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="B75" s="2">
-        <v>17020</v>
+        <v>17235</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1388,7 +1387,7 @@
         <v>65</v>
       </c>
       <c r="B76" s="2">
-        <v>17235</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1396,7 +1395,7 @@
         <v>66</v>
       </c>
       <c r="B77" s="2">
-        <v>33000</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +1403,7 @@
         <v>67</v>
       </c>
       <c r="B78" s="2">
-        <v>7550</v>
+        <v>38857</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1412,7 +1411,7 @@
         <v>68</v>
       </c>
       <c r="B79" s="2">
-        <v>38857</v>
+        <v>97750</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,7 +1419,7 @@
         <v>69</v>
       </c>
       <c r="B80" s="2">
-        <v>97750</v>
+        <v>24140</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1428,7 +1427,7 @@
         <v>70</v>
       </c>
       <c r="B81" s="2">
-        <v>24140</v>
+        <v>41730</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1436,7 +1435,7 @@
         <v>71</v>
       </c>
       <c r="B82" s="2">
-        <v>41730</v>
+        <v>54078</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,7 +1443,7 @@
         <v>72</v>
       </c>
       <c r="B83" s="2">
-        <v>54078</v>
+        <v>47540</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1452,7 +1451,7 @@
         <v>73</v>
       </c>
       <c r="B84" s="2">
-        <v>47540</v>
+        <v>36415</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1460,7 +1459,7 @@
         <v>74</v>
       </c>
       <c r="B85" s="2">
-        <v>36415</v>
+        <v>9107</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +1467,7 @@
         <v>75</v>
       </c>
       <c r="B86" s="2">
-        <v>9107</v>
+        <v>100235</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,7 +1475,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="2">
-        <v>100235</v>
+        <v>23030</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1484,7 +1483,7 @@
         <v>77</v>
       </c>
       <c r="B88" s="2">
-        <v>23030</v>
+        <v>47300</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1492,7 +1491,7 @@
         <v>78</v>
       </c>
       <c r="B89" s="2">
-        <v>47300</v>
+        <v>13630</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1500,7 +1499,7 @@
         <v>79</v>
       </c>
       <c r="B90" s="2">
-        <v>13630</v>
+        <v>88265</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1508,7 +1507,7 @@
         <v>80</v>
       </c>
       <c r="B91" s="2">
-        <v>88265</v>
+        <v>50593</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1516,7 +1515,7 @@
         <v>81</v>
       </c>
       <c r="B92" s="2">
-        <v>50593</v>
+        <v>60084</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1524,23 +1523,23 @@
         <v>82</v>
       </c>
       <c r="B93" s="2">
-        <v>60084</v>
+        <v>86442</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2">
-        <v>86442</v>
+        <v>8645</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B95" s="2">
-        <v>8645</v>
+        <v>26239</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,7 +1547,7 @@
         <v>84</v>
       </c>
       <c r="B96" s="2">
-        <v>26239</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1556,7 +1555,7 @@
         <v>85</v>
       </c>
       <c r="B97" s="2">
-        <v>7718</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1564,7 +1563,7 @@
         <v>86</v>
       </c>
       <c r="B98" s="2">
-        <v>44160</v>
+        <v>21187</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +1571,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>21187</v>
+        <v>58600</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1580,7 +1579,7 @@
         <v>88</v>
       </c>
       <c r="B100" s="2">
-        <v>58600</v>
+        <v>1275642</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1588,7 +1587,7 @@
         <v>89</v>
       </c>
       <c r="B101" s="2">
-        <v>1275642</v>
+        <v>61093</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1596,7 +1595,7 @@
         <v>90</v>
       </c>
       <c r="B102" s="2">
-        <v>61093</v>
+        <v>367000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1604,7 +1603,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>367000</v>
+        <v>977428</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1612,7 +1611,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="2">
-        <v>1077378</v>
+        <v>34026</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1620,7 +1619,7 @@
         <v>93</v>
       </c>
       <c r="B105" s="2">
-        <v>34026</v>
+        <v>32862</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1628,7 +1627,7 @@
         <v>94</v>
       </c>
       <c r="B106" s="2">
-        <v>32862</v>
+        <v>74415</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1636,7 +1635,7 @@
         <v>95</v>
       </c>
       <c r="B107" s="2">
-        <v>74415</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1644,7 +1643,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="2">
-        <v>72000</v>
+        <v>259041</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1652,7 +1651,7 @@
         <v>97</v>
       </c>
       <c r="B109" s="2">
-        <v>259041</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1660,7 +1659,7 @@
         <v>98</v>
       </c>
       <c r="B110" s="2">
-        <v>58000</v>
+        <v>77749</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1668,7 +1667,7 @@
         <v>99</v>
       </c>
       <c r="B111" s="2">
-        <v>77749</v>
+        <v>37505</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1676,7 +1675,7 @@
         <v>100</v>
       </c>
       <c r="B112" s="2">
-        <v>37505</v>
+        <v>249470</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1684,7 +1683,7 @@
         <v>101</v>
       </c>
       <c r="B113" s="2">
-        <v>249470</v>
+        <v>46522</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +1691,7 @@
         <v>102</v>
       </c>
       <c r="B114" s="2">
-        <v>46522</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,23 +1699,23 @@
         <v>103</v>
       </c>
       <c r="B115" s="2">
-        <v>37000</v>
+        <v>12941</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B116" s="2">
-        <v>12941</v>
+      <c r="B116" s="3">
+        <v>233</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B117" s="3">
-        <v>233</v>
+      <c r="B117" s="2">
+        <v>6724</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,29 +1723,29 @@
         <v>106</v>
       </c>
       <c r="B118" s="2">
-        <v>6724</v>
+        <v>34308</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B119" s="2">
-        <v>34308</v>
-      </c>
+      <c r="B119" s="4"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B120" s="4"/>
+      <c r="B120" s="2">
+        <v>9172</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B121" s="2">
-        <v>9172</v>
+        <v>58630</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1754,7 +1753,7 @@
         <v>110</v>
       </c>
       <c r="B122" s="2">
-        <v>58630</v>
+        <v>49046</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,7 +1761,7 @@
         <v>111</v>
       </c>
       <c r="B123" s="2">
-        <v>49046</v>
+        <v>77570</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +1769,7 @@
         <v>112</v>
       </c>
       <c r="B124" s="2">
-        <v>77570</v>
+        <v>19540</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,7 +1777,7 @@
         <v>113</v>
       </c>
       <c r="B125" s="2">
-        <v>19540</v>
+        <v>226000</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1786,15 +1785,15 @@
         <v>114</v>
       </c>
       <c r="B126" s="2">
-        <v>226000</v>
+        <v>30950</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B127" s="2">
-        <v>30950</v>
+        <v>836988</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,16 +1801,12 @@
         <v>125</v>
       </c>
       <c r="B128" s="2">
-        <v>836988</v>
+        <v>2634000</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B129" s="2">
-        <v>2634000</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -1005,7 +1005,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>203133</v>
+        <v>204535</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>44680</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
         <v>71</v>
       </c>
       <c r="B82" s="2">
-        <v>54078</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1563,7 +1563,7 @@
         <v>86</v>
       </c>
       <c r="B98" s="2">
-        <v>21187</v>
+        <v>21937</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1683,7 +1683,7 @@
         <v>101</v>
       </c>
       <c r="B113" s="2">
-        <v>46522</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>material</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Б-6М Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Фиточай "Укроп" (ТМ "Будь здоров!")(БАД) 50г</t>
   </si>
   <si>
     <t>Б-6М Чабрец трава 50г</t>
@@ -775,7 +772,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B128"/>
+      <selection activeCell="A2" sqref="A2:B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>35280</v>
+        <v>35960</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -813,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>51696</v>
+        <v>38372</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +906,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>25200</v>
+        <v>25695</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +954,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>38080</v>
+        <v>38760</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1092,14 +1089,16 @@
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="4"/>
+      <c r="B39" s="2">
+        <v>58030</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>58030</v>
+        <v>86117</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1107,7 +1106,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>86117</v>
+        <v>35780</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1115,7 +1114,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>35780</v>
+        <v>24540</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1123,7 +1122,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>24540</v>
+        <v>37060</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1131,7 +1130,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>37060</v>
+        <v>9648</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1139,7 +1138,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>9648</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1147,15 +1146,15 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>44930</v>
+        <v>54450</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="B47" s="2">
-        <v>54450</v>
+        <v>93907</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1163,15 +1162,15 @@
         <v>115</v>
       </c>
       <c r="B48" s="2">
-        <v>93907</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B49" s="2">
-        <v>21412</v>
+        <v>1234002</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1179,15 +1178,15 @@
         <v>117</v>
       </c>
       <c r="B50" s="2">
-        <v>1234002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+        <v>1808828</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B51" s="2">
-        <v>1808828</v>
+        <v>709966</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1195,7 +1194,7 @@
         <v>119</v>
       </c>
       <c r="B52" s="2">
-        <v>709966</v>
+        <v>316266</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1203,7 +1202,7 @@
         <v>120</v>
       </c>
       <c r="B53" s="2">
-        <v>316266</v>
+        <v>605093</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1211,31 +1210,31 @@
         <v>121</v>
       </c>
       <c r="B54" s="2">
-        <v>605093</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>452632</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B55" s="2">
-        <v>452632</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+        <v>241414</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B56" s="2">
-        <v>241414</v>
+        <v>815019</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="B57" s="2">
-        <v>815019</v>
+        <v>12374</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1243,23 +1242,23 @@
         <v>50</v>
       </c>
       <c r="B58" s="2">
-        <v>12374</v>
+        <v>17359</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B59" s="2">
-        <v>17359</v>
+        <v>27066</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B60" s="2">
-        <v>27066</v>
+        <v>28378</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1267,23 +1266,23 @@
         <v>48</v>
       </c>
       <c r="B61" s="2">
-        <v>28378</v>
+        <v>61933</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B62" s="2">
-        <v>61933</v>
+        <v>14078</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B63" s="2">
-        <v>14078</v>
+        <v>26555</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1291,7 +1290,7 @@
         <v>54</v>
       </c>
       <c r="B64" s="2">
-        <v>26555</v>
+        <v>42140</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1299,7 +1298,7 @@
         <v>55</v>
       </c>
       <c r="B65" s="2">
-        <v>42140</v>
+        <v>13610</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1307,7 +1306,7 @@
         <v>56</v>
       </c>
       <c r="B66" s="2">
-        <v>13610</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1315,7 +1314,7 @@
         <v>57</v>
       </c>
       <c r="B67" s="2">
-        <v>2240</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1323,7 +1322,7 @@
         <v>58</v>
       </c>
       <c r="B68" s="2">
-        <v>29000</v>
+        <v>29620</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1331,7 +1330,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="2">
-        <v>29620</v>
+        <v>39907</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1339,7 +1338,7 @@
         <v>60</v>
       </c>
       <c r="B70" s="2">
-        <v>39907</v>
+        <v>23268</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1347,7 +1346,7 @@
         <v>61</v>
       </c>
       <c r="B71" s="2">
-        <v>23268</v>
+        <v>41048</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1355,23 +1354,23 @@
         <v>62</v>
       </c>
       <c r="B72" s="2">
-        <v>41048</v>
+        <v>37637</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="B73" s="2">
-        <v>37637</v>
+        <v>17020</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="B74" s="2">
-        <v>17020</v>
+        <v>17235</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1379,7 +1378,7 @@
         <v>64</v>
       </c>
       <c r="B75" s="2">
-        <v>17235</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1387,7 +1386,7 @@
         <v>65</v>
       </c>
       <c r="B76" s="2">
-        <v>33000</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1395,7 +1394,7 @@
         <v>66</v>
       </c>
       <c r="B77" s="2">
-        <v>7550</v>
+        <v>38857</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1403,7 +1402,7 @@
         <v>67</v>
       </c>
       <c r="B78" s="2">
-        <v>38857</v>
+        <v>97750</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1411,7 +1410,7 @@
         <v>68</v>
       </c>
       <c r="B79" s="2">
-        <v>97750</v>
+        <v>24140</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1419,7 +1418,7 @@
         <v>69</v>
       </c>
       <c r="B80" s="2">
-        <v>24140</v>
+        <v>41730</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1427,7 +1426,7 @@
         <v>70</v>
       </c>
       <c r="B81" s="2">
-        <v>41730</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1435,7 +1434,7 @@
         <v>71</v>
       </c>
       <c r="B82" s="2">
-        <v>53000</v>
+        <v>47540</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1443,7 +1442,7 @@
         <v>72</v>
       </c>
       <c r="B83" s="2">
-        <v>47540</v>
+        <v>36415</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1451,7 +1450,7 @@
         <v>73</v>
       </c>
       <c r="B84" s="2">
-        <v>36415</v>
+        <v>9107</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1459,7 +1458,7 @@
         <v>74</v>
       </c>
       <c r="B85" s="2">
-        <v>9107</v>
+        <v>100235</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1467,7 +1466,7 @@
         <v>75</v>
       </c>
       <c r="B86" s="2">
-        <v>100235</v>
+        <v>23030</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1475,7 +1474,7 @@
         <v>76</v>
       </c>
       <c r="B87" s="2">
-        <v>23030</v>
+        <v>47300</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1483,7 +1482,7 @@
         <v>77</v>
       </c>
       <c r="B88" s="2">
-        <v>47300</v>
+        <v>13630</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1491,7 +1490,7 @@
         <v>78</v>
       </c>
       <c r="B89" s="2">
-        <v>13630</v>
+        <v>41101</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1499,7 +1498,7 @@
         <v>79</v>
       </c>
       <c r="B90" s="2">
-        <v>88265</v>
+        <v>50593</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1507,7 +1506,7 @@
         <v>80</v>
       </c>
       <c r="B91" s="2">
-        <v>50593</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1515,23 +1514,23 @@
         <v>81</v>
       </c>
       <c r="B92" s="2">
-        <v>60084</v>
+        <v>86442</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2">
-        <v>86442</v>
+        <v>8645</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="B94" s="2">
-        <v>8645</v>
+        <v>26239</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1539,7 +1538,7 @@
         <v>83</v>
       </c>
       <c r="B95" s="2">
-        <v>26239</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1547,7 +1546,7 @@
         <v>84</v>
       </c>
       <c r="B96" s="2">
-        <v>7718</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1555,7 +1554,7 @@
         <v>85</v>
       </c>
       <c r="B97" s="2">
-        <v>44160</v>
+        <v>21750</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1563,7 +1562,7 @@
         <v>86</v>
       </c>
       <c r="B98" s="2">
-        <v>21937</v>
+        <v>58600</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1571,7 +1570,7 @@
         <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>58600</v>
+        <v>1275642</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1579,7 +1578,7 @@
         <v>88</v>
       </c>
       <c r="B100" s="2">
-        <v>1275642</v>
+        <v>61093</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1587,7 +1586,7 @@
         <v>89</v>
       </c>
       <c r="B101" s="2">
-        <v>61093</v>
+        <v>367292</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1595,7 +1594,7 @@
         <v>90</v>
       </c>
       <c r="B102" s="2">
-        <v>367000</v>
+        <v>977428</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1603,7 +1602,7 @@
         <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>977428</v>
+        <v>34026</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1611,7 +1610,7 @@
         <v>92</v>
       </c>
       <c r="B104" s="2">
-        <v>34026</v>
+        <v>32862</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1619,7 +1618,7 @@
         <v>93</v>
       </c>
       <c r="B105" s="2">
-        <v>32862</v>
+        <v>74415</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1627,7 +1626,7 @@
         <v>94</v>
       </c>
       <c r="B106" s="2">
-        <v>74415</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1635,7 +1634,7 @@
         <v>95</v>
       </c>
       <c r="B107" s="2">
-        <v>72000</v>
+        <v>259041</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1643,7 +1642,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="2">
-        <v>259041</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1651,7 +1650,7 @@
         <v>97</v>
       </c>
       <c r="B109" s="2">
-        <v>58000</v>
+        <v>77749</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1659,7 +1658,7 @@
         <v>98</v>
       </c>
       <c r="B110" s="2">
-        <v>77749</v>
+        <v>37505</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1667,7 +1666,7 @@
         <v>99</v>
       </c>
       <c r="B111" s="2">
-        <v>37505</v>
+        <v>249470</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1675,7 +1674,7 @@
         <v>100</v>
       </c>
       <c r="B112" s="2">
-        <v>249470</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1683,7 +1682,7 @@
         <v>101</v>
       </c>
       <c r="B113" s="2">
-        <v>46000</v>
+        <v>37425</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1691,23 +1690,23 @@
         <v>102</v>
       </c>
       <c r="B114" s="2">
-        <v>37000</v>
+        <v>12941</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B115" s="2">
-        <v>12941</v>
+      <c r="B115" s="3">
+        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B116" s="3">
-        <v>233</v>
+      <c r="B116" s="2">
+        <v>6724</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1715,29 +1714,29 @@
         <v>105</v>
       </c>
       <c r="B117" s="2">
-        <v>6724</v>
+        <v>34308</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B118" s="2">
-        <v>34308</v>
-      </c>
+      <c r="B118" s="4"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B119" s="4"/>
+      <c r="B119" s="2">
+        <v>9172</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B120" s="2">
-        <v>9172</v>
+        <v>58630</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1745,7 +1744,7 @@
         <v>109</v>
       </c>
       <c r="B121" s="2">
-        <v>58630</v>
+        <v>49046</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1753,7 +1752,7 @@
         <v>110</v>
       </c>
       <c r="B122" s="2">
-        <v>49046</v>
+        <v>77570</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1761,7 +1760,7 @@
         <v>111</v>
       </c>
       <c r="B123" s="2">
-        <v>77570</v>
+        <v>19540</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1769,7 +1768,7 @@
         <v>112</v>
       </c>
       <c r="B124" s="2">
-        <v>19540</v>
+        <v>226340</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1777,15 +1776,15 @@
         <v>113</v>
       </c>
       <c r="B125" s="2">
-        <v>226000</v>
+        <v>30950</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B126" s="2">
-        <v>30950</v>
+        <v>836988</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1793,16 +1792,12 @@
         <v>124</v>
       </c>
       <c r="B127" s="2">
-        <v>836988</v>
+        <v>2634000</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B128" s="2">
-        <v>2634000</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>material</t>
   </si>
@@ -414,6 +414,12 @@
   </si>
   <si>
     <t xml:space="preserve">П-8 Фп "Щедрость природы Фиточай успокоительный"20х2,0 г </t>
+  </si>
+  <si>
+    <t>Б-6М "Лён обыкновенный" (ТМ "Будь здоров!")(БАД) 100г</t>
+  </si>
+  <si>
+    <t>Б-6М Фиточай "Укроп" (ТМ "Будь здоров!")(БАД) 50г</t>
   </si>
 </sst>
 </file>
@@ -772,7 +778,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B127"/>
+      <selection activeCell="A2" sqref="A2:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,1017 +797,1025 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>35960</v>
+        <v>128</v>
+      </c>
+      <c r="B2" s="3">
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>35760</v>
+        <v>35960</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>38372</v>
+        <v>35760</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>33630</v>
+        <v>37840</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>30580</v>
+        <v>33630</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>52360</v>
+        <v>30580</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>32446</v>
+        <v>52360</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>46805</v>
+        <v>32446</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>20620</v>
+        <v>46805</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>62710</v>
+        <v>20620</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>121020</v>
+        <v>62710</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>48760</v>
+        <v>121020</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>13130</v>
+        <v>48760</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>39930</v>
+        <v>13130</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>25695</v>
+        <v>39930</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>29900</v>
+        <v>25695</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>38475</v>
+        <v>29900</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>60785</v>
+        <v>38475</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>54630</v>
+        <v>60785</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>23610</v>
+        <v>54630</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>38760</v>
+        <v>23610</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>20870</v>
+        <v>38760</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>30970</v>
+        <v>20870</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>34591</v>
+        <v>30970</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>94290</v>
+        <v>34591</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>36700</v>
+        <v>94290</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>204535</v>
+        <v>36700</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>21040</v>
+        <v>173600</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>82048</v>
+        <v>21040</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>30377</v>
+        <v>82048</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>29860</v>
+        <v>30533</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>22490</v>
+        <v>29860</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>64815</v>
+        <v>22490</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>42560</v>
+        <v>64815</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>21290</v>
+        <v>42560</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>34595</v>
+        <v>21290</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>184800</v>
+        <v>34595</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>58030</v>
+        <v>184800</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2">
-        <v>86117</v>
+        <v>129</v>
+      </c>
+      <c r="B40" s="3">
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>35780</v>
+        <v>58030</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>24540</v>
+        <v>86117</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>37060</v>
+        <v>35780</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>9648</v>
+        <v>24540</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>44930</v>
+        <v>37060</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>54450</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>93907</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>54450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="2">
+        <v>84368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B50" s="2">
         <v>21412</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B51" s="2">
         <v>1234002</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B52" s="2">
         <v>1808828</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" s="2">
-        <v>709966</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" s="2">
-        <v>316266</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2">
-        <v>605093</v>
+        <v>709966</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B54" s="2">
-        <v>452632</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+        <v>272642</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B55" s="2">
-        <v>241414</v>
+        <v>565319</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B56" s="2">
-        <v>815019</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>418732</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2">
-        <v>12374</v>
+        <v>199704</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="B58" s="2">
-        <v>17359</v>
+        <v>815019</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B59" s="2">
-        <v>27066</v>
+        <v>10169</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B60" s="2">
-        <v>28378</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B61" s="2">
-        <v>61933</v>
+        <v>25460</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B62" s="2">
-        <v>14078</v>
+        <v>28378</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B63" s="2">
-        <v>26555</v>
+        <v>61933</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B64" s="2">
-        <v>42140</v>
+        <v>12080</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B65" s="2">
-        <v>13610</v>
+        <v>26555</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B66" s="2">
-        <v>2240</v>
+        <v>42140</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B67" s="2">
-        <v>29000</v>
+        <v>13610</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B68" s="2">
-        <v>29620</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B69" s="2">
-        <v>39907</v>
+        <v>29371</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B70" s="2">
-        <v>23268</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B71" s="2">
-        <v>41048</v>
+        <v>38034</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B72" s="2">
-        <v>37637</v>
+        <v>23268</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="B73" s="2">
-        <v>17020</v>
+        <v>41048</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" s="2">
-        <v>17235</v>
+        <v>34487</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2">
-        <v>33000</v>
+        <v>14509</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B76" s="2">
-        <v>7550</v>
+        <v>17235</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B77" s="2">
-        <v>38857</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B78" s="2">
-        <v>97750</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B79" s="2">
-        <v>24140</v>
+        <v>38857</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B80" s="2">
-        <v>41730</v>
+        <v>97750</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B81" s="2">
-        <v>53000</v>
+        <v>24140</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B82" s="2">
-        <v>47540</v>
+        <v>24147</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B83" s="2">
-        <v>36415</v>
+        <v>54278</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B84" s="2">
-        <v>9107</v>
+        <v>47540</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B85" s="2">
-        <v>100235</v>
+        <v>36415</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B86" s="2">
-        <v>23030</v>
+        <v>9107</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B87" s="2">
-        <v>47300</v>
+        <v>100243</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B88" s="2">
-        <v>13630</v>
+        <v>23030</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B89" s="2">
-        <v>41101</v>
+        <v>47300</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B90" s="2">
-        <v>50593</v>
+        <v>13630</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B91" s="2">
-        <v>59000</v>
+        <v>41865</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B92" s="2">
-        <v>86442</v>
+        <v>50593</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="B93" s="2">
-        <v>8645</v>
+        <v>60274</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2">
-        <v>26239</v>
+        <v>86442</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2">
-        <v>7718</v>
+        <v>8645</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B96" s="2">
-        <v>44160</v>
+        <v>26239</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B97" s="2">
-        <v>21750</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B98" s="2">
-        <v>58600</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>1275642</v>
+        <v>21750</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B100" s="2">
-        <v>61093</v>
+        <v>58600</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B101" s="2">
-        <v>367292</v>
+        <v>1276737</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B102" s="2">
-        <v>977428</v>
+        <v>61093</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>34026</v>
+        <v>367292</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B104" s="2">
-        <v>32862</v>
+        <v>977000</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2">
-        <v>74415</v>
+        <v>34026</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2">
-        <v>72000</v>
+        <v>32862</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B107" s="2">
-        <v>259041</v>
+        <v>74415</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B108" s="2">
-        <v>58000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B109" s="2">
-        <v>77749</v>
+        <v>259041</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B110" s="2">
-        <v>37505</v>
+        <v>58446</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B111" s="2">
-        <v>249470</v>
+        <v>47889</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B112" s="2">
-        <v>46000</v>
+        <v>37519</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>37425</v>
+        <v>224846</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B114" s="2">
-        <v>12941</v>
+        <v>46406</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B115" s="3">
-        <v>233</v>
+        <v>101</v>
+      </c>
+      <c r="B115" s="2">
+        <v>37425</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B116" s="2">
-        <v>6724</v>
+        <v>7743</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B117" s="2">
-        <v>34308</v>
+        <v>103</v>
+      </c>
+      <c r="B117" s="3">
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B118" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="B118" s="2">
+        <v>6724</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B119" s="2">
-        <v>9172</v>
+        <v>34308</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B120" s="2">
-        <v>58630</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B121" s="2">
-        <v>49046</v>
+        <v>9172</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B122" s="2">
-        <v>77570</v>
+        <v>58630</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2">
-        <v>19540</v>
+        <v>49046</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B124" s="2">
-        <v>226340</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2">
-        <v>30950</v>
+        <v>19540</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2">
-        <v>836988</v>
+        <v>176340</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B127" s="2">
+        <v>30950</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128" s="2">
+        <v>836988</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B127" s="2">
-        <v>2634000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="2"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="2"/>
+      <c r="B129" s="2">
+        <v>2340873</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -880,7 +880,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>62710</v>
+        <v>46560</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1112,7 +1112,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>58030</v>
+        <v>35077</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>5600</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1176,7 +1176,7 @@
         <v>114</v>
       </c>
       <c r="B49" s="2">
-        <v>84368</v>
+        <v>86347</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1224,7 +1224,7 @@
         <v>120</v>
       </c>
       <c r="B55" s="2">
-        <v>565319</v>
+        <v>568543</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
         <v>122</v>
       </c>
       <c r="B57" s="2">
-        <v>199704</v>
+        <v>186942</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="2">
-        <v>15500</v>
+        <v>15652</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1296,7 +1296,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="2">
-        <v>12080</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
         <v>59</v>
       </c>
       <c r="B71" s="2">
-        <v>38034</v>
+        <v>37532</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1384,7 +1384,7 @@
         <v>127</v>
       </c>
       <c r="B75" s="2">
-        <v>14509</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
         <v>69</v>
       </c>
       <c r="B82" s="2">
-        <v>24147</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>21750</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>88</v>
       </c>
       <c r="B102" s="2">
-        <v>61093</v>
+        <v>48775</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1608,7 +1608,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>367292</v>
+        <v>316767</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1712,7 +1712,7 @@
         <v>102</v>
       </c>
       <c r="B116" s="2">
-        <v>7743</v>
+        <v>7064</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
         <v>112</v>
       </c>
       <c r="B126" s="2">
-        <v>176340</v>
+        <v>177058</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>124</v>
       </c>
       <c r="B129" s="2">
-        <v>2340873</v>
+        <v>2454000</v>
       </c>
     </row>
   </sheetData>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>37840</v>
+        <v>38792</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,7 +1000,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>94290</v>
+        <v>63625</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>121</v>
       </c>
       <c r="B56" s="2">
-        <v>418732</v>
+        <v>422632</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1256,7 +1256,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="2">
-        <v>10169</v>
+        <v>10319</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1272,7 +1272,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="2">
-        <v>25460</v>
+        <v>25617</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
         <v>58</v>
       </c>
       <c r="B70" s="2">
-        <v>27000</v>
+        <v>27260</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1376,7 +1376,7 @@
         <v>62</v>
       </c>
       <c r="B74" s="2">
-        <v>34487</v>
+        <v>34875</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
         <v>90</v>
       </c>
       <c r="B104" s="2">
-        <v>977000</v>
+        <v>830118</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1672,7 +1672,7 @@
         <v>97</v>
       </c>
       <c r="B111" s="2">
-        <v>47889</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1688,7 +1688,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>224846</v>
+        <v>224000</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,9 +1749,7 @@
       <c r="A121" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B121" s="2">
-        <v>9172</v>
-      </c>
+      <c r="B121" s="4"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -1798,7 +1796,7 @@
         <v>113</v>
       </c>
       <c r="B127" s="2">
-        <v>30950</v>
+        <v>10960</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>material</t>
   </si>
@@ -351,9 +351,6 @@
   </si>
   <si>
     <t>П-8 Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20*1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Фиточай "Шиповник" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
   </si>
   <si>
     <t>П-8 Фп Хвощ трава 20х1,5 г</t>
@@ -480,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -489,9 +486,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -778,7 +772,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B129"/>
+      <selection activeCell="A2" sqref="A2:B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +791,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3">
         <v>390</v>
@@ -880,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>46560</v>
+        <v>45840</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,7 +1010,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>173600</v>
+        <v>174975</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1095,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" s="3">
         <v>390</v>
@@ -1112,7 +1106,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>35077</v>
+        <v>34720</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,15 +1167,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" s="2">
-        <v>86347</v>
+        <v>83270</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B50" s="2">
         <v>21412</v>
@@ -1189,7 +1183,7 @@
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2">
         <v>1234002</v>
@@ -1197,15 +1191,15 @@
     </row>
     <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2">
-        <v>1808828</v>
+        <v>1749008</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B53" s="2">
         <v>709966</v>
@@ -1213,7 +1207,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2">
         <v>272642</v>
@@ -1221,15 +1215,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2">
-        <v>568543</v>
+        <v>533777</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2">
         <v>422632</v>
@@ -1237,15 +1231,15 @@
     </row>
     <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2">
-        <v>186942</v>
+        <v>161102</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2">
         <v>815019</v>
@@ -1264,7 +1258,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="2">
-        <v>15652</v>
+        <v>13986</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1288,7 +1282,7 @@
         <v>48</v>
       </c>
       <c r="B63" s="2">
-        <v>61933</v>
+        <v>59690</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1296,7 +1290,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="2">
-        <v>12000</v>
+        <v>10191</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1352,7 +1346,7 @@
         <v>59</v>
       </c>
       <c r="B71" s="2">
-        <v>37532</v>
+        <v>38037</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1368,7 +1362,7 @@
         <v>61</v>
       </c>
       <c r="B73" s="2">
-        <v>41048</v>
+        <v>38861</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,10 +1375,10 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2">
-        <v>14000</v>
+        <v>14519</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1520,7 +1514,7 @@
         <v>79</v>
       </c>
       <c r="B92" s="2">
-        <v>50593</v>
+        <v>32200</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1541,7 +1535,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2">
         <v>8645</v>
@@ -1576,7 +1570,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>1588</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1592,7 +1586,7 @@
         <v>87</v>
       </c>
       <c r="B101" s="2">
-        <v>1276737</v>
+        <v>1173104</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1600,7 +1594,7 @@
         <v>88</v>
       </c>
       <c r="B102" s="2">
-        <v>48775</v>
+        <v>48677</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1608,7 +1602,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>316767</v>
+        <v>316292</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1616,7 +1610,7 @@
         <v>90</v>
       </c>
       <c r="B104" s="2">
-        <v>830118</v>
+        <v>829895</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1624,7 +1618,7 @@
         <v>91</v>
       </c>
       <c r="B105" s="2">
-        <v>34026</v>
+        <v>23931</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1672,7 +1666,7 @@
         <v>97</v>
       </c>
       <c r="B111" s="2">
-        <v>47000</v>
+        <v>47918</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1688,7 +1682,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>224000</v>
+        <v>224810</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1712,7 +1706,7 @@
         <v>102</v>
       </c>
       <c r="B116" s="2">
-        <v>7064</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,20 +1737,24 @@
       <c r="A120" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B120" s="4"/>
+      <c r="B120" s="2">
+        <v>2700</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B121" s="4"/>
+      <c r="B121" s="2">
+        <v>58630</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B122" s="2">
-        <v>58630</v>
+        <v>49046</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,7 +1762,7 @@
         <v>109</v>
       </c>
       <c r="B123" s="2">
-        <v>49046</v>
+        <v>38263</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,7 +1770,7 @@
         <v>110</v>
       </c>
       <c r="B124" s="2">
-        <v>37000</v>
+        <v>19540</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1780,7 +1778,7 @@
         <v>111</v>
       </c>
       <c r="B125" s="2">
-        <v>19540</v>
+        <v>177058</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1788,15 +1786,15 @@
         <v>112</v>
       </c>
       <c r="B126" s="2">
-        <v>177058</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B127" s="2">
-        <v>10960</v>
+        <v>768227</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1804,16 +1802,12 @@
         <v>123</v>
       </c>
       <c r="B128" s="2">
-        <v>836988</v>
+        <v>2381130</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B129" s="2">
-        <v>2454000</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -1170,7 +1170,7 @@
         <v>113</v>
       </c>
       <c r="B49" s="2">
-        <v>83270</v>
+        <v>81621</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
         <v>115</v>
       </c>
       <c r="B51" s="2">
-        <v>1234002</v>
+        <v>1211062</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>120</v>
       </c>
       <c r="B56" s="2">
-        <v>422632</v>
+        <v>387867</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="2">
-        <v>25617</v>
+        <v>23951</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>47</v>
       </c>
       <c r="B62" s="2">
-        <v>28378</v>
+        <v>27279</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1330,7 +1330,7 @@
         <v>57</v>
       </c>
       <c r="B69" s="2">
-        <v>29371</v>
+        <v>23774</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
         <v>60</v>
       </c>
       <c r="B72" s="2">
-        <v>23268</v>
+        <v>20619</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1522,7 +1522,7 @@
         <v>80</v>
       </c>
       <c r="B93" s="2">
-        <v>60274</v>
+        <v>41114</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1754,7 +1754,7 @@
         <v>108</v>
       </c>
       <c r="B122" s="2">
-        <v>49046</v>
+        <v>33218</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
         <v>122</v>
       </c>
       <c r="B127" s="2">
-        <v>768227</v>
+        <v>745820</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
         <v>123</v>
       </c>
       <c r="B128" s="2">
-        <v>2381130</v>
+        <v>2347173</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -994,7 +994,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>63625</v>
+        <v>63348</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
         <v>113</v>
       </c>
       <c r="B49" s="2">
-        <v>81621</v>
+        <v>80160</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>119</v>
       </c>
       <c r="B55" s="2">
-        <v>533777</v>
+        <v>529948</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
         <v>121</v>
       </c>
       <c r="B57" s="2">
-        <v>161102</v>
+        <v>152430</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="2">
-        <v>13986</v>
+        <v>13750</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="2">
-        <v>10191</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
         <v>69</v>
       </c>
       <c r="B82" s="2">
-        <v>24000</v>
+        <v>24544</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>87</v>
       </c>
       <c r="B101" s="2">
-        <v>1173104</v>
+        <v>1172737</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1602,7 +1602,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>316292</v>
+        <v>316802</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
         <v>123</v>
       </c>
       <c r="B128" s="2">
-        <v>2347173</v>
+        <v>2240043</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -477,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -486,6 +486,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -842,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>52360</v>
+        <v>30278</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -874,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>45840</v>
+        <v>47290</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>63348</v>
+        <v>63280</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1106,7 +1109,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>34720</v>
+        <v>35390</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,7 +1133,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>24540</v>
+        <v>9965</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1170,7 +1173,7 @@
         <v>113</v>
       </c>
       <c r="B49" s="2">
-        <v>80160</v>
+        <v>81649</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1186,7 +1189,7 @@
         <v>115</v>
       </c>
       <c r="B51" s="2">
-        <v>1211062</v>
+        <v>1203401</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1194,7 +1197,7 @@
         <v>116</v>
       </c>
       <c r="B52" s="2">
-        <v>1749008</v>
+        <v>1767608</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1218,7 +1221,7 @@
         <v>119</v>
       </c>
       <c r="B55" s="2">
-        <v>529948</v>
+        <v>536543</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1226,7 +1229,7 @@
         <v>120</v>
       </c>
       <c r="B56" s="2">
-        <v>387867</v>
+        <v>384484</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1258,7 +1261,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="2">
-        <v>13750</v>
+        <v>14035</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1266,7 +1269,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="2">
-        <v>23951</v>
+        <v>23750</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1274,7 +1277,7 @@
         <v>47</v>
       </c>
       <c r="B62" s="2">
-        <v>27279</v>
+        <v>27131</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1282,7 +1285,7 @@
         <v>48</v>
       </c>
       <c r="B63" s="2">
-        <v>59690</v>
+        <v>59925</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1362,7 +1365,7 @@
         <v>61</v>
       </c>
       <c r="B73" s="2">
-        <v>38861</v>
+        <v>38048</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1482,7 +1485,7 @@
         <v>75</v>
       </c>
       <c r="B88" s="2">
-        <v>23030</v>
+        <v>12207</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1514,7 +1517,7 @@
         <v>79</v>
       </c>
       <c r="B92" s="2">
-        <v>32200</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1522,7 +1525,7 @@
         <v>80</v>
       </c>
       <c r="B93" s="2">
-        <v>41114</v>
+        <v>40274</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1586,7 +1589,7 @@
         <v>87</v>
       </c>
       <c r="B101" s="2">
-        <v>1172737</v>
+        <v>956975</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1610,7 +1613,7 @@
         <v>90</v>
       </c>
       <c r="B104" s="2">
-        <v>829895</v>
+        <v>830462</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1618,7 +1621,7 @@
         <v>91</v>
       </c>
       <c r="B105" s="2">
-        <v>23931</v>
+        <v>23918</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,7 +1637,7 @@
         <v>93</v>
       </c>
       <c r="B107" s="2">
-        <v>74415</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1698,7 +1701,7 @@
         <v>101</v>
       </c>
       <c r="B115" s="2">
-        <v>37425</v>
+        <v>25560</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1754,7 +1757,7 @@
         <v>108</v>
       </c>
       <c r="B122" s="2">
-        <v>33218</v>
+        <v>32950</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1785,16 +1788,14 @@
       <c r="A126" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B126" s="2">
-        <v>10000</v>
-      </c>
+      <c r="B126" s="4"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B127" s="2">
-        <v>745820</v>
+        <v>685727</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,7 +1803,7 @@
         <v>123</v>
       </c>
       <c r="B128" s="2">
-        <v>2240043</v>
+        <v>2274000</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -477,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -486,9 +486,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -837,7 +834,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>30580</v>
+        <v>53540</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>30278</v>
+        <v>30240</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +882,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>121020</v>
+        <v>100836</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -901,7 +898,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>13130</v>
+        <v>36650</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +930,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>38475</v>
+        <v>112395</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +994,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>63280</v>
+        <v>64100</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1130,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>9965</v>
+        <v>35180</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1170,7 @@
         <v>113</v>
       </c>
       <c r="B49" s="2">
-        <v>81649</v>
+        <v>81709</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1189,7 +1186,7 @@
         <v>115</v>
       </c>
       <c r="B51" s="2">
-        <v>1203401</v>
+        <v>1212302</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1229,7 +1226,7 @@
         <v>120</v>
       </c>
       <c r="B56" s="2">
-        <v>384484</v>
+        <v>389484</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1237,7 +1234,7 @@
         <v>121</v>
       </c>
       <c r="B57" s="2">
-        <v>152430</v>
+        <v>163130</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,7 +1266,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="2">
-        <v>23750</v>
+        <v>23997</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,7 +1274,7 @@
         <v>47</v>
       </c>
       <c r="B62" s="2">
-        <v>27131</v>
+        <v>27291</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1290,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="2">
-        <v>10000</v>
+        <v>10178</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +1330,7 @@
         <v>57</v>
       </c>
       <c r="B69" s="2">
-        <v>23774</v>
+        <v>23371</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1357,7 +1354,7 @@
         <v>60</v>
       </c>
       <c r="B72" s="2">
-        <v>20619</v>
+        <v>20183</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,7 +1362,7 @@
         <v>61</v>
       </c>
       <c r="B73" s="2">
-        <v>38048</v>
+        <v>38936</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +1378,7 @@
         <v>126</v>
       </c>
       <c r="B75" s="2">
-        <v>14519</v>
+        <v>31875</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +1426,7 @@
         <v>68</v>
       </c>
       <c r="B81" s="2">
-        <v>24140</v>
+        <v>56140</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +1458,7 @@
         <v>72</v>
       </c>
       <c r="B85" s="2">
-        <v>36415</v>
+        <v>56415</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,7 +1514,7 @@
         <v>79</v>
       </c>
       <c r="B92" s="2">
-        <v>32000</v>
+        <v>32560</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1522,7 @@
         <v>80</v>
       </c>
       <c r="B93" s="2">
-        <v>40274</v>
+        <v>41562</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1570,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>1000</v>
+        <v>97770</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1586,7 @@
         <v>87</v>
       </c>
       <c r="B101" s="2">
-        <v>956975</v>
+        <v>1085875</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1634,7 @@
         <v>93</v>
       </c>
       <c r="B107" s="2">
-        <v>43555</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1642,7 @@
         <v>94</v>
       </c>
       <c r="B108" s="2">
-        <v>72000</v>
+        <v>136000</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1650,7 @@
         <v>95</v>
       </c>
       <c r="B109" s="2">
-        <v>259041</v>
+        <v>216903</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1698,7 @@
         <v>101</v>
       </c>
       <c r="B115" s="2">
-        <v>25560</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,7 +1746,7 @@
         <v>107</v>
       </c>
       <c r="B121" s="2">
-        <v>58630</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1754,7 @@
         <v>108</v>
       </c>
       <c r="B122" s="2">
-        <v>32950</v>
+        <v>33631</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1788,14 +1785,16 @@
       <c r="A126" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B126" s="4"/>
+      <c r="B126" s="3">
+        <v>24</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B127" s="2">
-        <v>685727</v>
+        <v>772467</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -882,7 +882,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>100836</v>
+        <v>100800</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>54630</v>
+        <v>38952</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>30970</v>
+        <v>16240</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
         <v>68</v>
       </c>
       <c r="B81" s="2">
-        <v>56140</v>
+        <v>39832</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
         <v>74</v>
       </c>
       <c r="B87" s="2">
-        <v>100243</v>
+        <v>74131</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
         <v>75</v>
       </c>
       <c r="B88" s="2">
-        <v>12207</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
         <v>95</v>
       </c>
       <c r="B109" s="2">
-        <v>216903</v>
+        <v>216041</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1658,7 +1658,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="2">
-        <v>58446</v>
+        <v>48532.62</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -477,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -486,6 +486,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -842,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>30240</v>
+        <v>31050</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -866,7 +869,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>20620</v>
+        <v>8319</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -946,7 +949,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>38952</v>
+        <v>38700</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1026,7 +1029,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>82048</v>
+        <v>60480</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1082,7 +1085,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>34595</v>
+        <v>26230</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,7 +1133,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>35180</v>
+        <v>35675</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1313,16 +1316,16 @@
       <c r="A67" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="2">
-        <v>13610</v>
+      <c r="B67" s="3">
+        <v>782</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="2">
-        <v>2240</v>
+      <c r="B68" s="3">
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1330,7 +1333,7 @@
         <v>57</v>
       </c>
       <c r="B69" s="2">
-        <v>23371</v>
+        <v>23731</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1354,7 +1357,7 @@
         <v>60</v>
       </c>
       <c r="B72" s="2">
-        <v>20183</v>
+        <v>20579</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1418,7 +1421,7 @@
         <v>67</v>
       </c>
       <c r="B80" s="2">
-        <v>97750</v>
+        <v>65110</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1426,7 +1429,7 @@
         <v>68</v>
       </c>
       <c r="B81" s="2">
-        <v>39832</v>
+        <v>39140</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1442,7 +1445,7 @@
         <v>70</v>
       </c>
       <c r="B83" s="2">
-        <v>54278</v>
+        <v>43529</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1474,7 +1477,7 @@
         <v>74</v>
       </c>
       <c r="B87" s="2">
-        <v>74131</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1586,7 +1589,7 @@
         <v>87</v>
       </c>
       <c r="B101" s="2">
-        <v>1085875</v>
+        <v>925776</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1610,7 +1613,7 @@
         <v>90</v>
       </c>
       <c r="B104" s="2">
-        <v>830462</v>
+        <v>707485</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,7 +1637,7 @@
         <v>93</v>
       </c>
       <c r="B107" s="2">
-        <v>75000</v>
+        <v>75523</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1658,7 +1661,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="2">
-        <v>48532.62</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1721,16 +1724,14 @@
       <c r="A118" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B118" s="2">
-        <v>6724</v>
-      </c>
+      <c r="B118" s="4"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B119" s="2">
-        <v>34308</v>
+        <v>23905</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +1747,7 @@
         <v>107</v>
       </c>
       <c r="B121" s="2">
-        <v>42000</v>
+        <v>42632</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>material</t>
   </si>
@@ -342,9 +342,6 @@
   </si>
   <si>
     <t>П-8 Фп Фиточай "Дивный вечер" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Фиточай "Мята" (ТМ "Будь здоров!") (БАД)20*1,5г</t>
   </si>
   <si>
     <t>П-8 Фп Фиточай "Опалиховский"(ТМ "Будь здоров!") (БАД)20*2.0г</t>
@@ -477,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -486,9 +483,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -775,7 +769,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B128"/>
+      <selection activeCell="A2" sqref="A2:B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +788,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3">
         <v>390</v>
@@ -869,7 +863,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>8319</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +879,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>100800</v>
+        <v>100960</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +927,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>112395</v>
+        <v>84560</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +943,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>38700</v>
+        <v>39220</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +975,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>16240</v>
+        <v>16540</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1029,7 +1023,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>60480</v>
+        <v>60566</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1079,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>26230</v>
+        <v>26195</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,12 +1087,12 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>184800</v>
+        <v>133380</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B40" s="3">
         <v>390</v>
@@ -1165,12 +1159,12 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>54450</v>
+        <v>44750</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49" s="2">
         <v>81709</v>
@@ -1178,7 +1172,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50" s="2">
         <v>21412</v>
@@ -1186,7 +1180,7 @@
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2">
         <v>1212302</v>
@@ -1194,7 +1188,7 @@
     </row>
     <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2">
         <v>1767608</v>
@@ -1202,7 +1196,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B53" s="2">
         <v>709966</v>
@@ -1210,7 +1204,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2">
         <v>272642</v>
@@ -1218,7 +1212,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2">
         <v>536543</v>
@@ -1226,7 +1220,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2">
         <v>389484</v>
@@ -1234,7 +1228,7 @@
     </row>
     <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2">
         <v>163130</v>
@@ -1242,7 +1236,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B58" s="2">
         <v>815019</v>
@@ -1317,7 +1311,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="3">
-        <v>782</v>
+        <v>610</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1325,7 +1319,7 @@
         <v>56</v>
       </c>
       <c r="B68" s="3">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1378,7 +1372,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2">
         <v>31875</v>
@@ -1421,7 +1415,7 @@
         <v>67</v>
       </c>
       <c r="B80" s="2">
-        <v>65110</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1439,7 @@
         <v>70</v>
       </c>
       <c r="B83" s="2">
-        <v>43529</v>
+        <v>43278</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,7 +1479,7 @@
         <v>75</v>
       </c>
       <c r="B88" s="2">
-        <v>12000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1538,7 +1532,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2">
         <v>8645</v>
@@ -1589,7 +1583,7 @@
         <v>87</v>
       </c>
       <c r="B101" s="2">
-        <v>925776</v>
+        <v>924875</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1647,7 @@
         <v>95</v>
       </c>
       <c r="B109" s="2">
-        <v>216041</v>
+        <v>216641</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +1655,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="2">
-        <v>48000</v>
+        <v>48224</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1695,7 @@
         <v>101</v>
       </c>
       <c r="B115" s="2">
-        <v>25000</v>
+        <v>25598</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,14 +1718,16 @@
       <c r="A118" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B118" s="4"/>
+      <c r="B118" s="2">
+        <v>23308</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B119" s="2">
-        <v>23905</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1739,7 +1735,7 @@
         <v>106</v>
       </c>
       <c r="B120" s="2">
-        <v>2700</v>
+        <v>42632</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1747,7 +1743,7 @@
         <v>107</v>
       </c>
       <c r="B121" s="2">
-        <v>42632</v>
+        <v>33631</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1755,7 +1751,7 @@
         <v>108</v>
       </c>
       <c r="B122" s="2">
-        <v>33631</v>
+        <v>38263</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1763,7 +1759,7 @@
         <v>109</v>
       </c>
       <c r="B123" s="2">
-        <v>38263</v>
+        <v>19540</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1771,23 +1767,23 @@
         <v>110</v>
       </c>
       <c r="B124" s="2">
-        <v>19540</v>
+        <v>177058</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B125" s="2">
-        <v>177058</v>
+      <c r="B125" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B126" s="3">
-        <v>24</v>
+        <v>121</v>
+      </c>
+      <c r="B126" s="2">
+        <v>772467</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1795,16 +1791,12 @@
         <v>122</v>
       </c>
       <c r="B127" s="2">
-        <v>772467</v>
+        <v>2274000</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B128" s="2">
-        <v>2274000</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -863,7 +863,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>8300</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>29900</v>
+        <v>9052</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>60785</v>
+        <v>39456</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>26195</v>
+        <v>26275</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>133380</v>
+        <v>133280</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>44750</v>
+        <v>44240</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>55</v>
       </c>
       <c r="B67" s="3">
-        <v>610</v>
+        <v>702</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
         <v>125</v>
       </c>
       <c r="B75" s="2">
-        <v>31875</v>
+        <v>31519</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>97770</v>
+        <v>74940</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>87</v>
       </c>
       <c r="B101" s="2">
-        <v>924875</v>
+        <v>796372</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>316802</v>
+        <v>267455</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1607,7 +1607,7 @@
         <v>90</v>
       </c>
       <c r="B104" s="2">
-        <v>707485</v>
+        <v>707000</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>104</v>
       </c>
       <c r="B118" s="2">
-        <v>23308</v>
+        <v>23678</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -919,7 +919,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>9052</v>
+        <v>8960</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>174975</v>
+        <v>142343</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>44240</v>
+        <v>44675</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>87</v>
       </c>
       <c r="B101" s="2">
-        <v>796372</v>
+        <v>795875</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>98</v>
       </c>
       <c r="B112" s="2">
-        <v>37519</v>
+        <v>27459</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -935,7 +935,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>39456</v>
+        <v>38960</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>142343</v>
+        <v>142240</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>29860</v>
+        <v>20565</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>64815</v>
+        <v>54741</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
         <v>68</v>
       </c>
       <c r="B81" s="2">
-        <v>39140</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>74940</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>267455</v>
+        <v>267000</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1639,7 +1639,7 @@
         <v>94</v>
       </c>
       <c r="B108" s="2">
-        <v>136000</v>
+        <v>96884</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -1063,7 +1063,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>42560</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>86117</v>
+        <v>71561</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>112</v>
       </c>
       <c r="B49" s="2">
-        <v>81709</v>
+        <v>74442</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1175,7 @@
         <v>113</v>
       </c>
       <c r="B50" s="2">
-        <v>21412</v>
+        <v>16567</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>116</v>
       </c>
       <c r="B53" s="2">
-        <v>709966</v>
+        <v>607841</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>118</v>
       </c>
       <c r="B55" s="2">
-        <v>536543</v>
+        <v>485481</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
         <v>120</v>
       </c>
       <c r="B57" s="2">
-        <v>163130</v>
+        <v>61005</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="2">
-        <v>14035</v>
+        <v>11589</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="2">
-        <v>10178</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="2">
-        <v>26555</v>
+        <v>21663</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="2">
-        <v>13630</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>82</v>
       </c>
       <c r="B96" s="2">
-        <v>26239</v>
+        <v>21294</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>84</v>
       </c>
       <c r="B98" s="2">
-        <v>44160</v>
+        <v>30588</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>87</v>
       </c>
       <c r="B101" s="2">
-        <v>795875</v>
+        <v>579603</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1607,7 +1607,7 @@
         <v>90</v>
       </c>
       <c r="B104" s="2">
-        <v>707000</v>
+        <v>703000</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="2">
-        <v>32862</v>
+        <v>22876</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1639,7 +1639,7 @@
         <v>94</v>
       </c>
       <c r="B108" s="2">
-        <v>96884</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>98</v>
       </c>
       <c r="B112" s="2">
-        <v>27459</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>224810</v>
+        <v>192170</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,7 +1791,7 @@
         <v>122</v>
       </c>
       <c r="B127" s="2">
-        <v>2274000</v>
+        <v>2024625</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -919,7 +919,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>8960</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>54741</v>
+        <v>54735</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>133280</v>
+        <v>134070</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
         <v>125</v>
       </c>
       <c r="B75" s="2">
-        <v>31519</v>
+        <v>31756</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -831,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>53540</v>
+        <v>37885</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>100960</v>
+        <v>65120</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>38960</v>
+        <v>39950</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>142240</v>
+        <v>143100</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>20565</v>
+        <v>19780</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>54735</v>
+        <v>54825</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>19500</v>
+        <v>19040</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>71561</v>
+        <v>71867</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>37060</v>
+        <v>17836</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>112</v>
       </c>
       <c r="B49" s="2">
-        <v>74442</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>118</v>
       </c>
       <c r="B55" s="2">
-        <v>485481</v>
+        <v>470984</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
         <v>120</v>
       </c>
       <c r="B57" s="2">
-        <v>61005</v>
+        <v>51768</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="2">
-        <v>11589</v>
+        <v>11285</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="2">
-        <v>5286</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>61</v>
       </c>
       <c r="B73" s="2">
-        <v>38936</v>
+        <v>36488</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>70</v>
       </c>
       <c r="B83" s="2">
-        <v>43278</v>
+        <v>43438</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>72</v>
       </c>
       <c r="B85" s="2">
-        <v>56415</v>
+        <v>31968</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>82</v>
       </c>
       <c r="B96" s="2">
-        <v>21294</v>
+        <v>21258</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>84</v>
       </c>
       <c r="B98" s="2">
-        <v>30588</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
         <v>86</v>
       </c>
       <c r="B100" s="2">
-        <v>58600</v>
+        <v>43600</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
         <v>87</v>
       </c>
       <c r="B101" s="2">
-        <v>579603</v>
+        <v>579400</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>267000</v>
+        <v>218044</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1607,7 +1607,7 @@
         <v>90</v>
       </c>
       <c r="B104" s="2">
-        <v>703000</v>
+        <v>703611</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="2">
-        <v>22876</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>98</v>
       </c>
       <c r="B112" s="2">
-        <v>27000</v>
+        <v>27250</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>192170</v>
+        <v>191000</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
         <v>110</v>
       </c>
       <c r="B124" s="2">
-        <v>177058</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -799,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>35960</v>
+        <v>31016</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>37885</v>
+        <v>37520</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>32446</v>
+        <v>22063</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>84560</v>
+        <v>59228</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>19780</v>
+        <v>20320</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>19040</v>
+        <v>19856</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1175,7 @@
         <v>113</v>
       </c>
       <c r="B50" s="2">
-        <v>16567</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>116</v>
       </c>
       <c r="B53" s="2">
-        <v>607841</v>
+        <v>602996</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>118</v>
       </c>
       <c r="B55" s="2">
-        <v>470984</v>
+        <v>488743</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="2">
-        <v>11285</v>
+        <v>11635</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="2">
-        <v>21663</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,7 @@
         <v>57</v>
       </c>
       <c r="B69" s="2">
-        <v>23731</v>
+        <v>18835</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
         <v>58</v>
       </c>
       <c r="B70" s="2">
-        <v>27260</v>
+        <v>24812</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>72</v>
       </c>
       <c r="B85" s="2">
-        <v>31968</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="2">
-        <v>7270</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>84</v>
       </c>
       <c r="B98" s="2">
-        <v>30000</v>
+        <v>30508</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>88</v>
       </c>
       <c r="B102" s="2">
-        <v>48677</v>
+        <v>24395</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>218044</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="2">
-        <v>22000</v>
+        <v>22725</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -847,7 +847,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>22063</v>
+        <v>21840</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>65120</v>
+        <v>65586</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>64100</v>
+        <v>30984</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>17836</v>
+        <v>17280</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>112</v>
       </c>
       <c r="B49" s="2">
-        <v>70000</v>
+        <v>67545</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>118</v>
       </c>
       <c r="B55" s="2">
-        <v>488743</v>
+        <v>436993</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="2">
-        <v>11635</v>
+        <v>9156</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>61</v>
       </c>
       <c r="B73" s="2">
-        <v>36488</v>
+        <v>36048</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
         <v>80</v>
       </c>
       <c r="B93" s="2">
-        <v>41562</v>
+        <v>23610</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>74000</v>
+        <v>49930</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>98</v>
       </c>
       <c r="B112" s="2">
-        <v>27250</v>
+        <v>17043</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>191000</v>
+        <v>192092</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>109</v>
       </c>
       <c r="B123" s="2">
-        <v>19540</v>
+        <v>8965</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1767,7 +1767,7 @@
         <v>110</v>
       </c>
       <c r="B124" s="2">
-        <v>146000</v>
+        <v>146425</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,7 +1791,7 @@
         <v>122</v>
       </c>
       <c r="B127" s="2">
-        <v>2024625</v>
+        <v>1974078</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -799,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>31016</v>
+        <v>30920</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>37520</v>
+        <v>37926</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
         <v>120</v>
       </c>
       <c r="B57" s="2">
-        <v>51768</v>
+        <v>60575</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="2">
-        <v>5178</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,7 @@
         <v>57</v>
       </c>
       <c r="B69" s="2">
-        <v>18835</v>
+        <v>18371</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
         <v>58</v>
       </c>
       <c r="B70" s="2">
-        <v>24812</v>
+        <v>24260</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
         <v>80</v>
       </c>
       <c r="B93" s="2">
-        <v>23610</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>49930</v>
+        <v>51167</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>88</v>
       </c>
       <c r="B102" s="2">
-        <v>24395</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>216000</v>
+        <v>217045</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>107</v>
       </c>
       <c r="B121" s="2">
-        <v>33631</v>
+        <v>18355</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>109</v>
       </c>
       <c r="B123" s="2">
-        <v>8965</v>
+        <v>8540</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -799,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>30920</v>
+        <v>31048</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>21840</v>
+        <v>22140</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>59228</v>
+        <v>59360</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>34591</v>
+        <v>24990</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>30984</v>
+        <v>30800</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>21040</v>
+        <v>16616</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>17280</v>
+        <v>17820</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>118</v>
       </c>
       <c r="B55" s="2">
-        <v>436993</v>
+        <v>435790</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="2">
-        <v>9156</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>61</v>
       </c>
       <c r="B73" s="2">
-        <v>36048</v>
+        <v>36548</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>72</v>
       </c>
       <c r="B85" s="2">
-        <v>31000</v>
+        <v>31733</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="2">
-        <v>7000</v>
+        <v>7174</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
         <v>86</v>
       </c>
       <c r="B100" s="2">
-        <v>43600</v>
+        <v>43765</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>217045</v>
+        <v>166596</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>98</v>
       </c>
       <c r="B112" s="2">
-        <v>17043</v>
+        <v>16250</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>107</v>
       </c>
       <c r="B121" s="2">
-        <v>18355</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,7 +1791,7 @@
         <v>122</v>
       </c>
       <c r="B127" s="2">
-        <v>1974078</v>
+        <v>2043453</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>material</t>
   </si>
@@ -414,6 +414,12 @@
   </si>
   <si>
     <t>Б-6М Фиточай "Укроп" (ТМ "Будь здоров!")(БАД) 50г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Фиточай "Мята" (ТМ "Будь здоров!") (БАД)20*1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Фиточай "Шиповник" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -483,6 +489,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -769,7 +778,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B127"/>
+      <selection activeCell="A2" sqref="A2:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,8 +799,8 @@
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="3">
-        <v>390</v>
+      <c r="B2" s="2">
+        <v>14950</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>33630</v>
+        <v>23247</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>8385</v>
+        <v>33025</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +888,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>65586</v>
+        <v>90786</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +896,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>48760</v>
+        <v>23544</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,7 +920,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>25695</v>
+        <v>50335</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,7 +968,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>38760</v>
+        <v>28120</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +976,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>20870</v>
+        <v>46070</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,7 +984,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>16540</v>
+        <v>41180</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -983,7 +992,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>24990</v>
+        <v>24640</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +1000,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>30800</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,7 +1024,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>16616</v>
+        <v>16340</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1047,7 +1056,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>22490</v>
+        <v>12405</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1094,8 +1103,8 @@
       <c r="A40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="3">
-        <v>390</v>
+      <c r="B40" s="2">
+        <v>14950</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1103,7 +1112,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>35390</v>
+        <v>60590</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1144,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>17820</v>
+        <v>42460</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1143,7 +1152,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>5930</v>
+        <v>22730</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1176,7 @@
         <v>112</v>
       </c>
       <c r="B49" s="2">
-        <v>67545</v>
+        <v>67126.66</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1184,7 @@
         <v>113</v>
       </c>
       <c r="B50" s="2">
-        <v>16500</v>
+        <v>9977</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1199,7 +1208,7 @@
         <v>116</v>
       </c>
       <c r="B53" s="2">
-        <v>602996</v>
+        <v>501248</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1230,9 +1239,7 @@
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="2">
-        <v>60575</v>
-      </c>
+      <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -1287,7 +1294,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="2">
-        <v>5318</v>
+        <v>2416.4899999999998</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,7 +1302,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="2">
-        <v>21500</v>
+        <v>16423</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1310,16 +1317,16 @@
       <c r="A67" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="3">
-        <v>702</v>
+      <c r="B67" s="2">
+        <v>20702</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="3">
-        <v>50</v>
+      <c r="B68" s="2">
+        <v>30050</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1327,7 +1334,7 @@
         <v>57</v>
       </c>
       <c r="B69" s="2">
-        <v>18371</v>
+        <v>15923</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1335,7 +1342,7 @@
         <v>58</v>
       </c>
       <c r="B70" s="2">
-        <v>24260</v>
+        <v>24824</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1343,7 +1350,7 @@
         <v>59</v>
       </c>
       <c r="B71" s="2">
-        <v>38037</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1519,7 +1526,7 @@
         <v>80</v>
       </c>
       <c r="B93" s="2">
-        <v>23000</v>
+        <v>23634</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1567,7 +1574,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>51167</v>
+        <v>50237</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1655,7 +1662,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="2">
-        <v>48224</v>
+        <v>28349</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,91 +1723,99 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B118" s="2">
-        <v>23678</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B119" s="2">
-        <v>2700</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B120" s="2">
-        <v>42632</v>
+        <v>256700</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2">
-        <v>18000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B122" s="2">
-        <v>38263</v>
+        <v>42632</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B123" s="2">
-        <v>8540</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2">
-        <v>146425</v>
+        <v>38263</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B125" s="3">
-        <v>24</v>
+        <v>109</v>
+      </c>
+      <c r="B125" s="2">
+        <v>8540</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2">
-        <v>772467</v>
+        <v>146425</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B128" s="2">
+        <v>772467</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B127" s="2">
-        <v>2043453</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="2"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="2"/>
+      <c r="B129" s="2">
+        <v>1887843</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>material</t>
   </si>
@@ -390,9 +390,6 @@
   </si>
   <si>
     <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик® при простуде"</t>
-  </si>
-  <si>
-    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик®для спокойного сна"</t>
   </si>
   <si>
     <t>Ярлык "ВердиоГаст® Фиточай для улучшения пищеварения"</t>
@@ -778,7 +775,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B129"/>
+      <selection activeCell="A2" sqref="A2:B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +794,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2">
         <v>14950</v>
@@ -832,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>23247</v>
+        <v>22960</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -896,7 +893,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>23544</v>
+        <v>23520</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -912,7 +909,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>39930</v>
+        <v>30437</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -968,7 +965,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>28120</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -976,7 +973,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>46070</v>
+        <v>34975</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -992,7 +989,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>24640</v>
+        <v>25230</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>56000</v>
+        <v>56190</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,7 +1021,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>16340</v>
+        <v>16670</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1056,7 +1053,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>12405</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,7 +1061,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>54825</v>
+        <v>34810</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1098,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="2">
         <v>14950</v>
@@ -1151,16 +1148,14 @@
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
-        <v>22730</v>
-      </c>
+      <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>44930</v>
+        <v>34610</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1176,7 +1171,7 @@
         <v>112</v>
       </c>
       <c r="B49" s="2">
-        <v>67126.66</v>
+        <v>66930</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1192,7 +1187,7 @@
         <v>114</v>
       </c>
       <c r="B51" s="2">
-        <v>1212302</v>
+        <v>1177320</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1216,7 +1211,7 @@
         <v>117</v>
       </c>
       <c r="B54" s="2">
-        <v>272642</v>
+        <v>240077</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1224,7 +1219,7 @@
         <v>118</v>
       </c>
       <c r="B55" s="2">
-        <v>435790</v>
+        <v>436740</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1235,570 +1230,572 @@
         <v>389484</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="B57" s="2">
+        <v>815019</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="B58" s="2">
-        <v>815019</v>
+        <v>9094</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B59" s="2">
-        <v>10319</v>
+        <v>9104</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B60" s="2">
-        <v>9000</v>
+        <v>23997</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B61" s="2">
-        <v>23997</v>
+        <v>25540</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B62" s="2">
-        <v>27291</v>
+        <v>59925</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B63" s="2">
-        <v>59925</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B64" s="2">
-        <v>2416.4899999999998</v>
+        <v>16423</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B65" s="2">
-        <v>16423</v>
+        <v>42140</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B66" s="2">
-        <v>42140</v>
+        <v>20702</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B67" s="2">
-        <v>20702</v>
+        <v>30050</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B68" s="2">
-        <v>30050</v>
+        <v>13221</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B69" s="2">
-        <v>15923</v>
+        <v>24824</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B70" s="2">
-        <v>24824</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B71" s="2">
-        <v>32000</v>
+        <v>20579</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B72" s="2">
-        <v>20579</v>
+        <v>36548</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B73" s="2">
-        <v>36548</v>
+        <v>34875</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2">
-        <v>34875</v>
+        <v>29504</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="B75" s="2">
-        <v>31756</v>
+        <v>17235</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B76" s="2">
-        <v>17235</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B77" s="2">
-        <v>33000</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B78" s="2">
-        <v>7550</v>
+        <v>38857</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B79" s="2">
-        <v>38857</v>
+        <v>32360</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B80" s="2">
-        <v>65000</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B81" s="2">
-        <v>39747</v>
+        <v>24544</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B82" s="2">
-        <v>24544</v>
+        <v>43438</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B83" s="2">
-        <v>43438</v>
+        <v>47540</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B84" s="2">
-        <v>47540</v>
+        <v>31733</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B85" s="2">
-        <v>31733</v>
+        <v>9107</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B86" s="2">
-        <v>9107</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B87" s="2">
-        <v>74000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B88" s="2">
-        <v>12500</v>
+        <v>37300</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B89" s="2">
-        <v>47300</v>
+        <v>7174</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B90" s="2">
-        <v>7174</v>
+        <v>41865</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B91" s="2">
-        <v>41865</v>
+        <v>10959</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B92" s="2">
-        <v>32560</v>
+        <v>23634</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B93" s="2">
-        <v>23634</v>
+        <v>64442</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="B94" s="2">
-        <v>86442</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="B95" s="2">
-        <v>8645</v>
+        <v>21258</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B96" s="2">
-        <v>21258</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B97" s="2">
-        <v>7718</v>
+        <v>30508</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B98" s="2">
-        <v>30508</v>
+        <v>30853</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B99" s="2">
-        <v>50237</v>
+        <v>43765</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B100" s="2">
-        <v>43765</v>
+        <v>576200</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B101" s="2">
-        <v>579400</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B102" s="2">
-        <v>24000</v>
+        <v>166045</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B103" s="2">
-        <v>166596</v>
+        <v>703611</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B104" s="2">
-        <v>703611</v>
+        <v>23918</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B105" s="2">
-        <v>23918</v>
+        <v>22725</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B106" s="2">
-        <v>22725</v>
+        <v>75523</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B107" s="2">
-        <v>75523</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B108" s="2">
-        <v>96000</v>
+        <v>167685</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B109" s="2">
-        <v>216641</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B110" s="2">
-        <v>28349</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B111" s="2">
-        <v>47918</v>
+        <v>16750</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B112" s="2">
-        <v>16250</v>
+        <v>192092</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B113" s="2">
-        <v>192092</v>
+        <v>46406</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B114" s="2">
-        <v>46406</v>
+        <v>25598</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B115" s="2">
-        <v>25598</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B116" s="2">
-        <v>7696</v>
+        <v>103</v>
+      </c>
+      <c r="B116" s="3">
+        <v>233</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B117" s="3">
-        <v>233</v>
+        <v>127</v>
+      </c>
+      <c r="B117" s="2">
+        <v>15000</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B118" s="2">
-        <v>15000</v>
+        <v>43678</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B119" s="2">
-        <v>43678</v>
+        <v>256700</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B120" s="2">
-        <v>256700</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B121" s="2">
-        <v>15000</v>
+        <v>31534</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B122" s="2">
-        <v>42632</v>
+        <v>18469</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2">
-        <v>18000</v>
+        <v>38263</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B124" s="2">
-        <v>38263</v>
+        <v>9010</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2">
-        <v>8540</v>
+        <v>146425</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B126" s="2">
-        <v>146425</v>
+        <v>111</v>
+      </c>
+      <c r="B126" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B127" s="3">
-        <v>24</v>
+        <v>120</v>
+      </c>
+      <c r="B127" s="2">
+        <v>610367</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1806,16 +1803,12 @@
         <v>121</v>
       </c>
       <c r="B128" s="2">
-        <v>772467</v>
+        <v>1707843</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B129" s="2">
-        <v>1887843</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -829,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>22960</v>
+        <v>23190</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>30437</v>
+        <v>30410</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>50335</v>
+        <v>35464</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>34975</v>
+        <v>34870</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>34810</v>
+        <v>34720</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>71867</v>
+        <v>53791</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
         <v>113</v>
       </c>
       <c r="B50" s="2">
-        <v>9977</v>
+        <v>11437</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1203,7 +1203,7 @@
         <v>116</v>
       </c>
       <c r="B53" s="2">
-        <v>501248</v>
+        <v>504948</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1291,7 +1291,7 @@
         <v>53</v>
       </c>
       <c r="B64" s="2">
-        <v>16423</v>
+        <v>16522</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1323,7 +1323,7 @@
         <v>57</v>
       </c>
       <c r="B68" s="2">
-        <v>13221</v>
+        <v>13225</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1371,7 +1371,7 @@
         <v>124</v>
       </c>
       <c r="B74" s="2">
-        <v>29504</v>
+        <v>29237</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
         <v>65</v>
       </c>
       <c r="B77" s="2">
-        <v>7550</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>76</v>
       </c>
       <c r="B88" s="2">
-        <v>37300</v>
+        <v>37962</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1507,7 +1507,7 @@
         <v>79</v>
       </c>
       <c r="B91" s="2">
-        <v>10959</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1531,7 +1531,7 @@
         <v>122</v>
       </c>
       <c r="B94" s="2">
-        <v>3645</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1563,7 +1563,7 @@
         <v>85</v>
       </c>
       <c r="B98" s="2">
-        <v>30853</v>
+        <v>30237</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
         <v>93</v>
       </c>
       <c r="B106" s="2">
-        <v>75523</v>
+        <v>51045</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1683,7 +1683,7 @@
         <v>100</v>
       </c>
       <c r="B113" s="2">
-        <v>46406</v>
+        <v>30086</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1691,7 +1691,7 @@
         <v>101</v>
       </c>
       <c r="B114" s="2">
-        <v>25598</v>
+        <v>13978</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1747,7 +1747,7 @@
         <v>106</v>
       </c>
       <c r="B121" s="2">
-        <v>31534</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1803,7 +1803,7 @@
         <v>121</v>
       </c>
       <c r="B128" s="2">
-        <v>1707843</v>
+        <v>1767000</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -901,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>36650</v>
+        <v>26267</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>30410</v>
+        <v>30529</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>35464</v>
+        <v>35280</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>53791</v>
+        <v>53760</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1133,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>35675</v>
+        <v>23828</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1155,7 +1155,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>34610</v>
+        <v>34887</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,7 +1187,7 @@
         <v>114</v>
       </c>
       <c r="B51" s="2">
-        <v>1177320</v>
+        <v>1179120</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
         <v>47</v>
       </c>
       <c r="B61" s="2">
-        <v>25540</v>
+        <v>25613</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1283,7 +1283,7 @@
         <v>51</v>
       </c>
       <c r="B63" s="2">
-        <v>2250</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1331,7 +1331,7 @@
         <v>58</v>
       </c>
       <c r="B69" s="2">
-        <v>24824</v>
+        <v>22376</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="2">
-        <v>32360</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
         <v>74</v>
       </c>
       <c r="B86" s="2">
-        <v>74000</v>
+        <v>57495</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>89</v>
       </c>
       <c r="B102" s="2">
-        <v>166045</v>
+        <v>165045</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
         <v>99</v>
       </c>
       <c r="B112" s="2">
-        <v>192092</v>
+        <v>175772</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1795,7 +1795,7 @@
         <v>120</v>
       </c>
       <c r="B127" s="2">
-        <v>610367</v>
+        <v>737985</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -901,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>26267</v>
+        <v>26010</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>35280</v>
+        <v>35840</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>34870</v>
+        <v>35210</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>143100</v>
+        <v>60056</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>34720</v>
+        <v>34888</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>53760</v>
+        <v>54320</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1133,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>23828</v>
+        <v>23520</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
         <v>112</v>
       </c>
       <c r="B49" s="2">
-        <v>66930</v>
+        <v>67970</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1211,7 +1211,7 @@
         <v>117</v>
       </c>
       <c r="B54" s="2">
-        <v>240077</v>
+        <v>247277</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="2">
-        <v>9094</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1323,7 +1323,7 @@
         <v>57</v>
       </c>
       <c r="B68" s="2">
-        <v>13225</v>
+        <v>13625</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1331,7 +1331,7 @@
         <v>58</v>
       </c>
       <c r="B69" s="2">
-        <v>22376</v>
+        <v>21824</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1371,7 +1371,7 @@
         <v>124</v>
       </c>
       <c r="B74" s="2">
-        <v>29237</v>
+        <v>29417</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
         <v>65</v>
       </c>
       <c r="B77" s="2">
-        <v>5259</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="2">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="2">
-        <v>24544</v>
+        <v>44544</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
         <v>70</v>
       </c>
       <c r="B82" s="2">
-        <v>43438</v>
+        <v>32141</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
         <v>77</v>
       </c>
       <c r="B89" s="2">
-        <v>7174</v>
+        <v>27174</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1507,7 +1507,7 @@
         <v>79</v>
       </c>
       <c r="B91" s="2">
-        <v>10000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1515,7 +1515,7 @@
         <v>80</v>
       </c>
       <c r="B92" s="2">
-        <v>23634</v>
+        <v>55682</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
         <v>81</v>
       </c>
       <c r="B93" s="2">
-        <v>64442</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1563,7 +1563,7 @@
         <v>85</v>
       </c>
       <c r="B98" s="2">
-        <v>30237</v>
+        <v>30657</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1579,7 +1579,7 @@
         <v>87</v>
       </c>
       <c r="B100" s="2">
-        <v>576200</v>
+        <v>685200</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>89</v>
       </c>
       <c r="B102" s="2">
-        <v>165045</v>
+        <v>106479</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
         <v>91</v>
       </c>
       <c r="B104" s="2">
-        <v>23918</v>
+        <v>13907</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
         <v>93</v>
       </c>
       <c r="B106" s="2">
-        <v>51045</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1659,7 +1659,7 @@
         <v>97</v>
       </c>
       <c r="B110" s="2">
-        <v>28000</v>
+        <v>49050</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1683,7 +1683,7 @@
         <v>100</v>
       </c>
       <c r="B113" s="2">
-        <v>30086</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1691,7 +1691,7 @@
         <v>101</v>
       </c>
       <c r="B114" s="2">
-        <v>13978</v>
+        <v>33598</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1747,7 +1747,7 @@
         <v>106</v>
       </c>
       <c r="B121" s="2">
-        <v>31000</v>
+        <v>31445</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1755,7 +1755,7 @@
         <v>107</v>
       </c>
       <c r="B122" s="2">
-        <v>18469</v>
+        <v>68469</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1771,7 +1771,7 @@
         <v>109</v>
       </c>
       <c r="B124" s="2">
-        <v>9010</v>
+        <v>29010</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1786,8 +1786,8 @@
       <c r="A126" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B126" s="3">
-        <v>24</v>
+      <c r="B126" s="2">
+        <v>50024</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -901,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>26010</v>
+        <v>26518</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>36700</v>
+        <v>27286</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>60056</v>
+        <v>59920</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>26275</v>
+        <v>15240</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1125,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>35780</v>
+        <v>26366</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1133,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>23520</v>
+        <v>24140</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1331,7 +1331,7 @@
         <v>58</v>
       </c>
       <c r="B69" s="2">
-        <v>21824</v>
+        <v>22324</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1387,7 +1387,7 @@
         <v>64</v>
       </c>
       <c r="B76" s="2">
-        <v>33000</v>
+        <v>29738</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
         <v>65</v>
       </c>
       <c r="B77" s="2">
-        <v>5000</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="2">
-        <v>31000</v>
+        <v>31730</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
         <v>74</v>
       </c>
       <c r="B86" s="2">
-        <v>57495</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
         <v>81</v>
       </c>
       <c r="B93" s="2">
-        <v>44922</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1563,7 +1563,7 @@
         <v>85</v>
       </c>
       <c r="B98" s="2">
-        <v>30657</v>
+        <v>11903</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>89</v>
       </c>
       <c r="B102" s="2">
-        <v>106479</v>
+        <v>106000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
         <v>93</v>
       </c>
       <c r="B106" s="2">
-        <v>50000</v>
+        <v>50434</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>95</v>
       </c>
       <c r="B108" s="2">
-        <v>167685</v>
+        <v>167041</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
         <v>99</v>
       </c>
       <c r="B112" s="2">
-        <v>175772</v>
+        <v>175092</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1683,7 +1683,7 @@
         <v>100</v>
       </c>
       <c r="B113" s="2">
-        <v>29000</v>
+        <v>29770</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1691,7 +1691,7 @@
         <v>101</v>
       </c>
       <c r="B114" s="2">
-        <v>33598</v>
+        <v>33978</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1779,7 +1779,7 @@
         <v>110</v>
       </c>
       <c r="B125" s="2">
-        <v>146425</v>
+        <v>85242</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1787,7 +1787,7 @@
         <v>111</v>
       </c>
       <c r="B126" s="2">
-        <v>50024</v>
+        <v>27994</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -869,7 +869,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>33025</v>
+        <v>22564</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>59360</v>
+        <v>29697</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>15240</v>
+        <v>15120</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
         <v>74</v>
       </c>
       <c r="B86" s="2">
-        <v>56000</v>
+        <v>56650</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
         <v>99</v>
       </c>
       <c r="B112" s="2">
-        <v>175092</v>
+        <v>175472</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -1435,7 +1435,7 @@
         <v>70</v>
       </c>
       <c r="B82" s="2">
-        <v>32141</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1515,7 +1515,7 @@
         <v>80</v>
       </c>
       <c r="B92" s="2">
-        <v>55682</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
         <v>91</v>
       </c>
       <c r="B104" s="2">
-        <v>13907</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1619,7 +1619,7 @@
         <v>92</v>
       </c>
       <c r="B105" s="2">
-        <v>22725</v>
+        <v>12714</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>95</v>
       </c>
       <c r="B108" s="2">
-        <v>167041</v>
+        <v>166041</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
         <v>98</v>
       </c>
       <c r="B111" s="2">
-        <v>16750</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1779,7 +1779,7 @@
         <v>110</v>
       </c>
       <c r="B125" s="2">
-        <v>85242</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -1331,7 +1331,7 @@
         <v>58</v>
       </c>
       <c r="B69" s="2">
-        <v>22324</v>
+        <v>19656</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>89</v>
       </c>
       <c r="B102" s="2">
-        <v>106000</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1635,7 +1635,7 @@
         <v>94</v>
       </c>
       <c r="B107" s="2">
-        <v>96000</v>
+        <v>66382</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>95</v>
       </c>
       <c r="B108" s="2">
-        <v>166041</v>
+        <v>166661</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1787,7 +1787,7 @@
         <v>111</v>
       </c>
       <c r="B126" s="2">
-        <v>27994</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -1005,7 +1005,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>27286</v>
+        <v>27240</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>59920</v>
+        <v>61880</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1125,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>26366</v>
+        <v>26320</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1331,7 +1331,7 @@
         <v>58</v>
       </c>
       <c r="B69" s="2">
-        <v>19656</v>
+        <v>19260</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
         <v>59</v>
       </c>
       <c r="B70" s="2">
-        <v>32000</v>
+        <v>26933</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1387,7 +1387,7 @@
         <v>64</v>
       </c>
       <c r="B76" s="2">
-        <v>29738</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
         <v>81</v>
       </c>
       <c r="B93" s="2">
-        <v>39000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>89</v>
       </c>
       <c r="B102" s="2">
-        <v>104000</v>
+        <v>104206</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
         <v>91</v>
       </c>
       <c r="B104" s="2">
-        <v>13000</v>
+        <v>13677</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1619,7 +1619,7 @@
         <v>92</v>
       </c>
       <c r="B105" s="2">
-        <v>12714</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
         <v>98</v>
       </c>
       <c r="B111" s="2">
-        <v>6592</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1723,7 +1723,7 @@
         <v>104</v>
       </c>
       <c r="B118" s="2">
-        <v>43678</v>
+        <v>29799</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1731,7 +1731,7 @@
         <v>105</v>
       </c>
       <c r="B119" s="2">
-        <v>256700</v>
+        <v>205782</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -477,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -486,9 +486,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -845,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>31050</v>
+        <v>15744</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -869,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>22564</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +930,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>29697</v>
+        <v>29680</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1082,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>15120</v>
+        <v>15350</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1148,7 +1145,9 @@
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="2">
+        <v>34720</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -1331,7 +1330,7 @@
         <v>58</v>
       </c>
       <c r="B69" s="2">
-        <v>19260</v>
+        <v>19590</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1339,7 +1338,7 @@
         <v>59</v>
       </c>
       <c r="B70" s="2">
-        <v>26933</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1403,7 +1402,7 @@
         <v>66</v>
       </c>
       <c r="B78" s="2">
-        <v>38857</v>
+        <v>31008</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1515,7 +1514,7 @@
         <v>80</v>
       </c>
       <c r="B92" s="2">
-        <v>55000</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1563,7 +1562,7 @@
         <v>85</v>
       </c>
       <c r="B98" s="2">
-        <v>11903</v>
+        <v>11420</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1571,7 +1570,7 @@
         <v>86</v>
       </c>
       <c r="B99" s="2">
-        <v>43765</v>
+        <v>32341</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1587,7 +1586,7 @@
         <v>88</v>
       </c>
       <c r="B101" s="2">
-        <v>24000</v>
+        <v>11370</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1635,7 +1634,7 @@
         <v>94</v>
       </c>
       <c r="B107" s="2">
-        <v>66382</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1731,7 +1730,7 @@
         <v>105</v>
       </c>
       <c r="B119" s="2">
-        <v>205782</v>
+        <v>205000</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1779,7 +1778,7 @@
         <v>110</v>
       </c>
       <c r="B125" s="2">
-        <v>85000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -1002,7 +1002,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>27240</v>
+        <v>27470</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>26320</v>
+        <v>26405</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,7 @@
         <v>64</v>
       </c>
       <c r="B76" s="2">
-        <v>29000</v>
+        <v>29660</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
         <v>76</v>
       </c>
       <c r="B88" s="2">
-        <v>37962</v>
+        <v>28177</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1594,7 +1594,7 @@
         <v>89</v>
       </c>
       <c r="B102" s="2">
-        <v>104206</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
         <v>98</v>
       </c>
       <c r="B111" s="2">
-        <v>6250</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1722,7 +1722,7 @@
         <v>104</v>
       </c>
       <c r="B118" s="2">
-        <v>29799</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
         <v>110</v>
       </c>
       <c r="B125" s="2">
-        <v>84000</v>
+        <v>84570</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1786,7 +1786,7 @@
         <v>111</v>
       </c>
       <c r="B126" s="2">
-        <v>27000</v>
+        <v>27600</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -842,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>15744</v>
+        <v>15680</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>46805</v>
+        <v>36400</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>22400</v>
+        <v>22630</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>28400</v>
+        <v>18160</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>41180</v>
+        <v>27180</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>30533</v>
+        <v>25363</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1338,7 +1338,7 @@
         <v>59</v>
       </c>
       <c r="B70" s="2">
-        <v>26000</v>
+        <v>26750</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
         <v>61</v>
       </c>
       <c r="B72" s="2">
-        <v>36548</v>
+        <v>33953</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>63</v>
       </c>
       <c r="B75" s="2">
-        <v>17235</v>
+        <v>12045</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
         <v>65</v>
       </c>
       <c r="B77" s="2">
-        <v>5253</v>
+        <v>25253</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
         <v>66</v>
       </c>
       <c r="B78" s="2">
-        <v>31008</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1410,7 +1410,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="2">
-        <v>31730</v>
+        <v>61730</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1442,7 +1442,7 @@
         <v>71</v>
       </c>
       <c r="B83" s="2">
-        <v>47540</v>
+        <v>32036</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1458,7 +1458,7 @@
         <v>73</v>
       </c>
       <c r="B85" s="2">
-        <v>9107</v>
+        <v>29107</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
         <v>75</v>
       </c>
       <c r="B87" s="2">
-        <v>12500</v>
+        <v>21639</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
         <v>76</v>
       </c>
       <c r="B88" s="2">
-        <v>28177</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
         <v>78</v>
       </c>
       <c r="B90" s="2">
-        <v>41865</v>
+        <v>61865</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1506,7 +1506,7 @@
         <v>79</v>
       </c>
       <c r="B91" s="2">
-        <v>11000</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>80</v>
       </c>
       <c r="B92" s="2">
-        <v>55800</v>
+        <v>75800</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1546,7 +1546,7 @@
         <v>83</v>
       </c>
       <c r="B96" s="2">
-        <v>7718</v>
+        <v>27718</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
         <v>85</v>
       </c>
       <c r="B98" s="2">
-        <v>11420</v>
+        <v>134820</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1578,7 +1578,7 @@
         <v>87</v>
       </c>
       <c r="B100" s="2">
-        <v>685200</v>
+        <v>782200</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>88</v>
       </c>
       <c r="B101" s="2">
-        <v>11370</v>
+        <v>41370</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1594,7 +1594,7 @@
         <v>89</v>
       </c>
       <c r="B102" s="2">
-        <v>2206</v>
+        <v>196000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
         <v>92</v>
       </c>
       <c r="B105" s="2">
-        <v>12000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
         <v>93</v>
       </c>
       <c r="B106" s="2">
-        <v>50434</v>
+        <v>80434</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
         <v>94</v>
       </c>
       <c r="B107" s="2">
-        <v>66000</v>
+        <v>65676</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
         <v>95</v>
       </c>
       <c r="B108" s="2">
-        <v>166661</v>
+        <v>196661</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
         <v>96</v>
       </c>
       <c r="B109" s="2">
-        <v>28000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1658,7 +1658,7 @@
         <v>97</v>
       </c>
       <c r="B110" s="2">
-        <v>49050</v>
+        <v>81050</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
         <v>98</v>
       </c>
       <c r="B111" s="2">
-        <v>6360</v>
+        <v>36360</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>99</v>
       </c>
       <c r="B112" s="2">
-        <v>175472</v>
+        <v>152265</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>100</v>
       </c>
       <c r="B113" s="2">
-        <v>29770</v>
+        <v>49770</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1698,7 +1698,7 @@
         <v>102</v>
       </c>
       <c r="B115" s="2">
-        <v>7696</v>
+        <v>27696</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>106</v>
       </c>
       <c r="B121" s="2">
-        <v>31445</v>
+        <v>41653</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
         <v>108</v>
       </c>
       <c r="B123" s="2">
-        <v>38263</v>
+        <v>58263</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +1770,7 @@
         <v>109</v>
       </c>
       <c r="B124" s="2">
-        <v>29010</v>
+        <v>49010</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1786,7 +1786,7 @@
         <v>111</v>
       </c>
       <c r="B126" s="2">
-        <v>27600</v>
+        <v>47600</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>material</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>П-8 Фп Фиточай "Шиповник" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик®для спокойного сна"</t>
   </si>
 </sst>
 </file>
@@ -772,7 +775,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B128"/>
+      <selection activeCell="A2" sqref="A2:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>31048</v>
+        <v>26104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1034,7 +1037,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>25363</v>
+        <v>25373</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1202,7 +1205,7 @@
         <v>116</v>
       </c>
       <c r="B53" s="2">
-        <v>504948</v>
+        <v>963087</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,585 +1232,589 @@
         <v>389484</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B57" s="2">
-        <v>815019</v>
+        <v>499183</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="B58" s="2">
-        <v>9212</v>
+        <v>815019</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" s="2">
-        <v>9104</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" s="2">
-        <v>23997</v>
+        <v>9104</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B61" s="2">
-        <v>25613</v>
+        <v>23997</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B62" s="2">
-        <v>59925</v>
+        <v>25613</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B63" s="2">
-        <v>2411</v>
+        <v>59925</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B64" s="2">
-        <v>16522</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B65" s="2">
-        <v>42140</v>
+        <v>16522</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B66" s="2">
-        <v>20702</v>
+        <v>42140</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B67" s="2">
-        <v>30050</v>
+        <v>20702</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68" s="2">
-        <v>13625</v>
+        <v>30050</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69" s="2">
-        <v>19590</v>
+        <v>13625</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" s="2">
-        <v>26750</v>
+        <v>19590</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" s="2">
-        <v>20579</v>
+        <v>26750</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="2">
-        <v>33953</v>
+        <v>20579</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" s="2">
-        <v>34875</v>
+        <v>33548</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="B74" s="2">
-        <v>29417</v>
+        <v>34875</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2">
-        <v>12045</v>
+        <v>29417</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B76" s="2">
-        <v>29660</v>
+        <v>12045</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B77" s="2">
-        <v>25253</v>
+        <v>29660</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B78" s="2">
-        <v>30000</v>
+        <v>25253</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B79" s="2">
-        <v>61730</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B80" s="2">
-        <v>39747</v>
+        <v>61730</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B81" s="2">
-        <v>44544</v>
+        <v>39747</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" s="2">
-        <v>32000</v>
+        <v>44544</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" s="2">
-        <v>32036</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84" s="2">
-        <v>31733</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B85" s="2">
-        <v>29107</v>
+        <v>31733</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B86" s="2">
-        <v>56650</v>
+        <v>29107</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B87" s="2">
-        <v>21639</v>
+        <v>56650</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B88" s="2">
-        <v>28000</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B89" s="2">
-        <v>27174</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B90" s="2">
-        <v>61865</v>
+        <v>27174</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B91" s="2">
-        <v>41000</v>
+        <v>61865</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B92" s="2">
-        <v>75800</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B93" s="2">
-        <v>45000</v>
+        <v>75800</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2">
-        <v>3713</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="B95" s="2">
-        <v>21258</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B96" s="2">
-        <v>27718</v>
+        <v>21258</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B97" s="2">
-        <v>30508</v>
+        <v>27718</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B98" s="2">
-        <v>134820</v>
+        <v>30508</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>32341</v>
+        <v>134820</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B100" s="2">
-        <v>782200</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B101" s="2">
-        <v>41370</v>
+        <v>782200</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B102" s="2">
-        <v>196000</v>
+        <v>41370</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>703611</v>
+        <v>196000</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B104" s="2">
-        <v>13677</v>
+        <v>703611</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2">
-        <v>12500</v>
+        <v>13677</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2">
-        <v>80434</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B107" s="2">
-        <v>65676</v>
+        <v>80434</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B108" s="2">
-        <v>196661</v>
+        <v>65676</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B109" s="2">
-        <v>60000</v>
+        <v>196661</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110" s="2">
-        <v>81050</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B111" s="2">
-        <v>36360</v>
+        <v>81050</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B112" s="2">
-        <v>152265</v>
+        <v>36360</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>49770</v>
+        <v>152265</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B114" s="2">
-        <v>33978</v>
+        <v>49770</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B115" s="2">
-        <v>27696</v>
+        <v>33978</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B116" s="3">
-        <v>233</v>
+        <v>102</v>
+      </c>
+      <c r="B116" s="2">
+        <v>27696</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B117" s="2">
-        <v>15000</v>
+        <v>103</v>
+      </c>
+      <c r="B117" s="3">
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="B118" s="2">
-        <v>29000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B119" s="2">
-        <v>205000</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B120" s="2">
-        <v>15000</v>
+        <v>205122</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="B121" s="2">
-        <v>41653</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B122" s="2">
-        <v>68469</v>
+        <v>41653</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B123" s="2">
-        <v>58263</v>
+        <v>68469</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2">
-        <v>49010</v>
+        <v>58263</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2">
-        <v>84570</v>
+        <v>38125</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2">
-        <v>47600</v>
+        <v>84570</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2">
-        <v>737985</v>
+        <v>47600</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B128" s="2">
+        <v>737985</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B129" s="2">
         <v>1767000</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -805,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>26104</v>
+        <v>26008</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -837,7 +837,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>37926</v>
+        <v>24227</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>15680</v>
+        <v>16210</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>36400</v>
+        <v>37050</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>18160</v>
+        <v>17920</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>27180</v>
+        <v>27050</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>134070</v>
+        <v>93992</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>56</v>
       </c>
       <c r="B68" s="2">
-        <v>30050</v>
+        <v>17481</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,7 +1365,7 @@
         <v>61</v>
       </c>
       <c r="B73" s="2">
-        <v>33548</v>
+        <v>33908</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1389,7 +1389,7 @@
         <v>63</v>
       </c>
       <c r="B76" s="2">
-        <v>12045</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
         <v>66</v>
       </c>
       <c r="B79" s="2">
-        <v>30000</v>
+        <v>30909</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>67</v>
       </c>
       <c r="B80" s="2">
-        <v>61730</v>
+        <v>40730</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>70</v>
       </c>
       <c r="B83" s="2">
-        <v>32000</v>
+        <v>20703</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>74</v>
       </c>
       <c r="B87" s="2">
-        <v>56650</v>
+        <v>43594</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>76</v>
       </c>
       <c r="B89" s="2">
-        <v>28000</v>
+        <v>28140</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>83</v>
       </c>
       <c r="B97" s="2">
-        <v>27718</v>
+        <v>21549</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>134820</v>
+        <v>117000</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
         <v>86</v>
       </c>
       <c r="B100" s="2">
-        <v>32000</v>
+        <v>32187</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>88</v>
       </c>
       <c r="B102" s="2">
-        <v>41370</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>196000</v>
+        <v>198432</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>95</v>
       </c>
       <c r="B109" s="2">
-        <v>196661</v>
+        <v>148440</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>97</v>
       </c>
       <c r="B111" s="2">
-        <v>81050</v>
+        <v>51440</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>152265</v>
+        <v>151472</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
         <v>127</v>
       </c>
       <c r="B118" s="2">
-        <v>15000</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>128</v>
       </c>
       <c r="B121" s="2">
-        <v>15000</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>106</v>
       </c>
       <c r="B122" s="2">
-        <v>41653</v>
+        <v>41445</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1773,7 +1773,7 @@
         <v>108</v>
       </c>
       <c r="B124" s="2">
-        <v>58263</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
         <v>109</v>
       </c>
       <c r="B125" s="2">
-        <v>38125</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -805,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>26008</v>
+        <v>26193</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -837,7 +837,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>24227</v>
+        <v>24080</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>16210</v>
+        <v>40850</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>22140</v>
+        <v>46780</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +885,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>90786</v>
+        <v>49831</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>9950</v>
+        <v>34590</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>29680</v>
+        <v>79520</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>17920</v>
+        <v>42910</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>35210</v>
+        <v>59850</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>56190</v>
+        <v>80830</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>61880</v>
+        <v>111160</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>19856</v>
+        <v>44496</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>15350</v>
+        <v>39430</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>93992</v>
+        <v>94080</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="2">
-        <v>9212</v>
+        <v>29212</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="2">
-        <v>9104</v>
+        <v>28104</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="2">
-        <v>2411</v>
+        <v>22161</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="2">
-        <v>16522</v>
+        <v>76522</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>56</v>
       </c>
       <c r="B68" s="2">
-        <v>17481</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>57</v>
       </c>
       <c r="B69" s="2">
-        <v>13625</v>
+        <v>7432</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>124</v>
       </c>
       <c r="B75" s="2">
-        <v>29417</v>
+        <v>24507</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1389,7 +1389,7 @@
         <v>63</v>
       </c>
       <c r="B76" s="2">
-        <v>11000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
         <v>68</v>
       </c>
       <c r="B81" s="2">
-        <v>39747</v>
+        <v>29148</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>70</v>
       </c>
       <c r="B83" s="2">
-        <v>20703</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>74</v>
       </c>
       <c r="B87" s="2">
-        <v>43594</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
         <v>75</v>
       </c>
       <c r="B88" s="2">
-        <v>21500</v>
+        <v>21604</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
         <v>82</v>
       </c>
       <c r="B96" s="2">
-        <v>21258</v>
+        <v>16460</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>88</v>
       </c>
       <c r="B102" s="2">
-        <v>41000</v>
+        <v>41064</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>93</v>
       </c>
       <c r="B107" s="2">
-        <v>80434</v>
+        <v>56470</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>95</v>
       </c>
       <c r="B109" s="2">
-        <v>148440</v>
+        <v>148000</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +1661,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="2">
-        <v>60000</v>
+        <v>50210</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>151472</v>
+        <v>151689</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
         <v>127</v>
       </c>
       <c r="B118" s="2">
-        <v>4767</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>128</v>
       </c>
       <c r="B121" s="2">
-        <v>3618</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1773,7 +1773,7 @@
         <v>108</v>
       </c>
       <c r="B124" s="2">
-        <v>37000</v>
+        <v>37750</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -885,7 +885,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>49831</v>
+        <v>49840</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>94080</v>
+        <v>94500</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
         <v>68</v>
       </c>
       <c r="B81" s="2">
-        <v>29148</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>83</v>
       </c>
       <c r="B97" s="2">
-        <v>21549</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>117000</v>
+        <v>117692</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
         <v>127</v>
       </c>
       <c r="B118" s="2">
-        <v>4000</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1733,7 +1733,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="2">
-        <v>29000</v>
+        <v>29385</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>128</v>
       </c>
       <c r="B121" s="2">
-        <v>3000</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -837,7 +837,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>24080</v>
+        <v>24230</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>39220</v>
+        <v>27779</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>23610</v>
+        <v>12733</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>44675</v>
+        <v>32480</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1325,7 +1325,7 @@
         <v>56</v>
       </c>
       <c r="B68" s="2">
-        <v>17000</v>
+        <v>17470</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>57</v>
       </c>
       <c r="B69" s="2">
-        <v>7432</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>124</v>
       </c>
       <c r="B75" s="2">
-        <v>24507</v>
+        <v>24180</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>70</v>
       </c>
       <c r="B83" s="2">
-        <v>20000</v>
+        <v>20680</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>74</v>
       </c>
       <c r="B87" s="2">
-        <v>43000</v>
+        <v>43388</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>81</v>
       </c>
       <c r="B94" s="2">
-        <v>45000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>83</v>
       </c>
       <c r="B97" s="2">
-        <v>21000</v>
+        <v>21620</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>198432</v>
+        <v>101157</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>97</v>
       </c>
       <c r="B111" s="2">
-        <v>51440</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>151689</v>
+        <v>102729</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>100</v>
       </c>
       <c r="B114" s="2">
-        <v>49770</v>
+        <v>37465</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>101</v>
       </c>
       <c r="B115" s="2">
-        <v>33978</v>
+        <v>22358</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>106</v>
       </c>
       <c r="B122" s="2">
-        <v>41445</v>
+        <v>31653</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
         <v>109</v>
       </c>
       <c r="B125" s="2">
-        <v>37000</v>
+        <v>38084</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -853,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>46780</v>
+        <v>36397</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +885,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>49840</v>
+        <v>50360</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>27779</v>
+        <v>27520</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>12733</v>
+        <v>12410</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>59850</v>
+        <v>48845</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>54320</v>
+        <v>31775</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>113</v>
       </c>
       <c r="B50" s="2">
-        <v>11437</v>
+        <v>71437</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>57</v>
       </c>
       <c r="B69" s="2">
-        <v>7000</v>
+        <v>7222</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>124</v>
       </c>
       <c r="B75" s="2">
-        <v>24180</v>
+        <v>24308</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
         <v>68</v>
       </c>
       <c r="B81" s="2">
-        <v>29000</v>
+        <v>29375</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>78</v>
       </c>
       <c r="B91" s="2">
-        <v>61865</v>
+        <v>38473</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>80</v>
       </c>
       <c r="B93" s="2">
-        <v>75800</v>
+        <v>56282</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
         <v>82</v>
       </c>
       <c r="B96" s="2">
-        <v>16460</v>
+        <v>16258</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>117692</v>
+        <v>101000</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>93</v>
       </c>
       <c r="B107" s="2">
-        <v>56470</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>95</v>
       </c>
       <c r="B109" s="2">
-        <v>148000</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +1661,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="2">
-        <v>50210</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>97</v>
       </c>
       <c r="B111" s="2">
-        <v>51000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>102729</v>
+        <v>102309</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>100</v>
       </c>
       <c r="B114" s="2">
-        <v>37465</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>101</v>
       </c>
       <c r="B115" s="2">
-        <v>22358</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -973,7 +973,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>48845</v>
+        <v>48720</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>32480</v>
+        <v>32760</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>78</v>
       </c>
       <c r="B91" s="2">
-        <v>38473</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>101157</v>
+        <v>101000</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>97</v>
       </c>
       <c r="B111" s="2">
-        <v>50000</v>
+        <v>50640</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>100</v>
       </c>
       <c r="B114" s="2">
-        <v>37000</v>
+        <v>37067</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
         <v>105</v>
       </c>
       <c r="B120" s="2">
-        <v>205122</v>
+        <v>161385</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>106</v>
       </c>
       <c r="B122" s="2">
-        <v>31653</v>
+        <v>31445</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -853,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>36397</v>
+        <v>36400</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>27520</v>
+        <v>27645</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>80830</v>
+        <v>65008</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>31775</v>
+        <v>31360</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
         <v>82</v>
       </c>
       <c r="B96" s="2">
-        <v>16258</v>
+        <v>16382</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>101000</v>
+        <v>100692</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>93</v>
       </c>
       <c r="B107" s="2">
-        <v>56000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>102309</v>
+        <v>101309</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -901,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>26518</v>
+        <v>16135</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>12410</v>
+        <v>13030</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>48720</v>
+        <v>49150</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>65008</v>
+        <v>64960</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>44496</v>
+        <v>31305</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>42460</v>
+        <v>23474</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>74</v>
       </c>
       <c r="B87" s="2">
-        <v>43388</v>
+        <v>24294</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>76</v>
       </c>
       <c r="B89" s="2">
-        <v>28140</v>
+        <v>18975</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="2">
-        <v>27174</v>
+        <v>20667</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>78</v>
       </c>
       <c r="B91" s="2">
-        <v>38000</v>
+        <v>38052</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>80</v>
       </c>
       <c r="B93" s="2">
-        <v>56282</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>81</v>
       </c>
       <c r="B94" s="2">
-        <v>21000</v>
+        <v>22404</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>84</v>
       </c>
       <c r="B98" s="2">
-        <v>30508</v>
+        <v>19215</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>88</v>
       </c>
       <c r="B102" s="2">
-        <v>41064</v>
+        <v>23611</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="2">
-        <v>12500</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>93</v>
       </c>
       <c r="B107" s="2">
-        <v>55000</v>
+        <v>55818</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>101309</v>
+        <v>101799</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>101</v>
       </c>
       <c r="B115" s="2">
-        <v>22000</v>
+        <v>22344</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
         <v>105</v>
       </c>
       <c r="B120" s="2">
-        <v>161385</v>
+        <v>161000</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -805,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>26193</v>
+        <v>18942</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>35760</v>
+        <v>30487</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -821,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>38792</v>
+        <v>31534</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>36400</v>
+        <v>36546</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>16135</v>
+        <v>15680</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>30529</v>
+        <v>20146</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>64960</v>
+        <v>64838</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>34888</v>
+        <v>21401</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>39430</v>
+        <v>28266</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>31360</v>
+        <v>32120</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>23474</v>
+        <v>22960</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>34887</v>
+        <v>24308</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>112</v>
       </c>
       <c r="B49" s="2">
-        <v>67970</v>
+        <v>65871</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>113</v>
       </c>
       <c r="B50" s="2">
-        <v>71437</v>
+        <v>66592</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>116</v>
       </c>
       <c r="B53" s="2">
-        <v>963087</v>
+        <v>860962</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>119</v>
       </c>
       <c r="B56" s="2">
-        <v>389484</v>
+        <v>345237</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="2">
-        <v>23997</v>
+        <v>21877</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="2">
-        <v>76522</v>
+        <v>71629</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>70</v>
       </c>
       <c r="B83" s="2">
-        <v>20680</v>
+        <v>9383</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>74</v>
       </c>
       <c r="B87" s="2">
-        <v>24294</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>76</v>
       </c>
       <c r="B89" s="2">
-        <v>18975</v>
+        <v>18140</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="2">
-        <v>20667</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>80</v>
       </c>
       <c r="B93" s="2">
-        <v>56000</v>
+        <v>56132</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>84</v>
       </c>
       <c r="B98" s="2">
-        <v>19215</v>
+        <v>18508</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>100692</v>
+        <v>80432</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>87</v>
       </c>
       <c r="B101" s="2">
-        <v>782200</v>
+        <v>685260</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>101000</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="2">
-        <v>2501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>101</v>
       </c>
       <c r="B115" s="2">
-        <v>22344</v>
+        <v>11128</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
         <v>105</v>
       </c>
       <c r="B120" s="2">
-        <v>161000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>107</v>
       </c>
       <c r="B123" s="2">
-        <v>68469</v>
+        <v>55413</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>121</v>
       </c>
       <c r="B129" s="2">
-        <v>1767000</v>
+        <v>1624032</v>
       </c>
     </row>
   </sheetData>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -805,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>18942</v>
+        <v>18480</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -821,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>31534</v>
+        <v>31052</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>21401</v>
+        <v>21448</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>31305</v>
+        <v>31360</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>112</v>
       </c>
       <c r="B49" s="2">
-        <v>65871</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>113</v>
       </c>
       <c r="B50" s="2">
-        <v>66592</v>
+        <v>64837</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>116</v>
       </c>
       <c r="B53" s="2">
-        <v>860962</v>
+        <v>860039</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>119</v>
       </c>
       <c r="B56" s="2">
-        <v>345237</v>
+        <v>344210</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="2">
-        <v>21877</v>
+        <v>21750</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="2">
-        <v>71629</v>
+        <v>71522</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>70</v>
       </c>
       <c r="B83" s="2">
-        <v>9383</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="2">
-        <v>20000</v>
+        <v>20637</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>84</v>
       </c>
       <c r="B98" s="2">
-        <v>18508</v>
+        <v>19203</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>80432</v>
+        <v>80124</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>88</v>
       </c>
       <c r="B102" s="2">
-        <v>23611</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>99000</v>
+        <v>99271</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="2">
-        <v>1500</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
         <v>105</v>
       </c>
       <c r="B120" s="2">
-        <v>160000</v>
+        <v>160670</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>121</v>
       </c>
       <c r="B129" s="2">
-        <v>1624032</v>
+        <v>1767000</v>
       </c>
     </row>
   </sheetData>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -901,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>15680</v>
+        <v>16325</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>31360</v>
+        <v>31403</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>22960</v>
+        <v>23140</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>112</v>
       </c>
       <c r="B49" s="2">
-        <v>65000</v>
+        <v>65798</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
         <v>113</v>
       </c>
       <c r="B50" s="2">
-        <v>64837</v>
+        <v>66552</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>116</v>
       </c>
       <c r="B53" s="2">
-        <v>860039</v>
+        <v>865387</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>119</v>
       </c>
       <c r="B56" s="2">
-        <v>344210</v>
+        <v>345910</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="2">
-        <v>21750</v>
+        <v>21800</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="2">
-        <v>71522</v>
+        <v>71611</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>70</v>
       </c>
       <c r="B83" s="2">
-        <v>9000</v>
+        <v>9105</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>76</v>
       </c>
       <c r="B89" s="2">
-        <v>18140</v>
+        <v>19067</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>87</v>
       </c>
       <c r="B101" s="2">
-        <v>685260</v>
+        <v>684600</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>88</v>
       </c>
       <c r="B102" s="2">
-        <v>23000</v>
+        <v>23111</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -805,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>18480</v>
+        <v>19040</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>30487</v>
+        <v>30420</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -821,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>31052</v>
+        <v>31662</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>20146</v>
+        <v>20160</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,7 +1037,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>25373</v>
+        <v>20213</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>21448</v>
+        <v>21402</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>28266</v>
+        <v>28230</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1133,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>24140</v>
+        <v>14054</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>24308</v>
+        <v>24080</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
         <v>64</v>
       </c>
       <c r="B77" s="2">
-        <v>29660</v>
+        <v>25584</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>95</v>
       </c>
       <c r="B109" s="2">
-        <v>147000</v>
+        <v>49101</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +1701,7 @@
         <v>101</v>
       </c>
       <c r="B115" s="2">
-        <v>11128</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>material</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t>П-8 Фп Сб. Арфазетин-Э 20х2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Бруснивер 20x2,0г</t>
   </si>
   <si>
     <t>П-8 Фп Сб. Грудной №4 20x2,0г</t>
@@ -775,7 +772,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B129"/>
+      <selection activeCell="A2" sqref="A2:B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +791,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2">
         <v>14950</v>
@@ -837,7 +834,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>24230</v>
+        <v>14560</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -869,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>22630</v>
+        <v>12320</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +882,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>50360</v>
+        <v>15188</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +906,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>20160</v>
+        <v>20119</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -917,7 +914,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>35840</v>
+        <v>21280</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,7 +1034,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>20213</v>
+        <v>20363</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,12 +1090,12 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>94500</v>
+        <v>63927</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="2">
         <v>14950</v>
@@ -1133,7 +1130,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>14054</v>
+        <v>14026</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1157,7 +1154,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>24080</v>
+        <v>24280</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1170,23 +1167,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B49" s="2">
-        <v>65798</v>
+        <v>60798</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B50" s="2">
-        <v>66552</v>
+        <v>61421</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B51" s="2">
         <v>1179120</v>
@@ -1194,31 +1191,31 @@
     </row>
     <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B52" s="2">
-        <v>1767608</v>
+        <v>1729948</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2">
-        <v>865387</v>
+        <v>762767</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2">
-        <v>247277</v>
+        <v>192438</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2">
         <v>436740</v>
@@ -1226,7 +1223,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2">
         <v>345910</v>
@@ -1234,7 +1231,7 @@
     </row>
     <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B57" s="2">
         <v>499183</v>
@@ -1242,7 +1239,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2">
         <v>815019</v>
@@ -1253,7 +1250,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="2">
-        <v>29212</v>
+        <v>27105</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,7 +1282,7 @@
         <v>48</v>
       </c>
       <c r="B63" s="2">
-        <v>59925</v>
+        <v>58045</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1298,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="2">
-        <v>71611</v>
+        <v>66435</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1357,7 +1354,7 @@
         <v>60</v>
       </c>
       <c r="B72" s="2">
-        <v>20579</v>
+        <v>18283</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1378,7 +1375,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2">
         <v>24308</v>
@@ -1397,7 +1394,7 @@
         <v>64</v>
       </c>
       <c r="B77" s="2">
-        <v>25584</v>
+        <v>25527</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1437,7 +1434,7 @@
         <v>69</v>
       </c>
       <c r="B82" s="2">
-        <v>44544</v>
+        <v>33184</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1538,7 +1535,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2">
         <v>3713</v>
@@ -1573,7 +1570,7 @@
         <v>85</v>
       </c>
       <c r="B99" s="2">
-        <v>80124</v>
+        <v>67665</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1586,7 @@
         <v>87</v>
       </c>
       <c r="B101" s="2">
-        <v>684600</v>
+        <v>683600</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1602,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>99271</v>
+        <v>599611</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1613,7 +1610,7 @@
         <v>90</v>
       </c>
       <c r="B104" s="2">
-        <v>703611</v>
+        <v>13677</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +1618,7 @@
         <v>91</v>
       </c>
       <c r="B105" s="2">
-        <v>13677</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1626,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="2">
-        <v>2193</v>
+        <v>55818</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1634,7 @@
         <v>93</v>
       </c>
       <c r="B107" s="2">
-        <v>55818</v>
+        <v>65676</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1642,7 @@
         <v>94</v>
       </c>
       <c r="B108" s="2">
-        <v>65676</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1650,7 @@
         <v>95</v>
       </c>
       <c r="B109" s="2">
-        <v>49101</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +1658,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="2">
-        <v>50000</v>
+        <v>50640</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1666,7 @@
         <v>97</v>
       </c>
       <c r="B111" s="2">
-        <v>50640</v>
+        <v>36360</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1677,7 +1674,7 @@
         <v>98</v>
       </c>
       <c r="B112" s="2">
-        <v>36360</v>
+        <v>101799</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1682,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>101799</v>
+        <v>37067</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +1690,7 @@
         <v>100</v>
       </c>
       <c r="B114" s="2">
-        <v>37067</v>
+        <v>10909</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,31 +1698,31 @@
         <v>101</v>
       </c>
       <c r="B115" s="2">
-        <v>10000</v>
+        <v>27696</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B116" s="2">
-        <v>27696</v>
+      <c r="B116" s="3">
+        <v>233</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B117" s="3">
-        <v>233</v>
+        <v>126</v>
+      </c>
+      <c r="B117" s="2">
+        <v>4645</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B118" s="2">
-        <v>4645</v>
+        <v>29385</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1733,23 +1730,23 @@
         <v>104</v>
       </c>
       <c r="B119" s="2">
-        <v>29385</v>
+        <v>160670</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B120" s="2">
-        <v>160670</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B121" s="2">
-        <v>3620</v>
+        <v>31445</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1754,7 @@
         <v>106</v>
       </c>
       <c r="B122" s="2">
-        <v>31445</v>
+        <v>55097</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,7 +1762,7 @@
         <v>107</v>
       </c>
       <c r="B123" s="2">
-        <v>55413</v>
+        <v>37750</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1773,7 +1770,7 @@
         <v>108</v>
       </c>
       <c r="B124" s="2">
-        <v>37750</v>
+        <v>38084</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1781,7 +1778,7 @@
         <v>109</v>
       </c>
       <c r="B125" s="2">
-        <v>38084</v>
+        <v>84570</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1789,15 +1786,15 @@
         <v>110</v>
       </c>
       <c r="B126" s="2">
-        <v>84570</v>
+        <v>47600</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B127" s="2">
-        <v>47600</v>
+        <v>610367</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,16 +1802,12 @@
         <v>120</v>
       </c>
       <c r="B128" s="2">
-        <v>737985</v>
+        <v>1587000</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B129" s="2">
-        <v>1767000</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -834,7 +834,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>14560</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>37050</v>
+        <v>25184</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>15188</v>
+        <v>15120</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>42910</v>
+        <v>33021</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>64838</v>
+        <v>50203</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
         <v>111</v>
       </c>
       <c r="B49" s="2">
-        <v>60798</v>
+        <v>63798</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1210,7 +1210,7 @@
         <v>116</v>
       </c>
       <c r="B54" s="2">
-        <v>192438</v>
+        <v>207277</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="2">
-        <v>27105</v>
+        <v>27183</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
         <v>67</v>
       </c>
       <c r="B80" s="2">
-        <v>40730</v>
+        <v>24410</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>105</v>
       </c>
       <c r="B121" s="2">
-        <v>31445</v>
+        <v>11959</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -477,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -486,6 +486,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -793,9 +796,7 @@
       <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="2">
-        <v>14950</v>
-      </c>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -826,7 +827,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>23190</v>
+        <v>12807</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,7 +859,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>25184</v>
+        <v>24730</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -866,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>12320</v>
+        <v>12399</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -914,7 +915,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>21280</v>
+        <v>21560</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -962,7 +963,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>33021</v>
+        <v>32830</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,7 +995,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>50203</v>
+        <v>49840</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1074,7 +1075,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>21290</v>
+        <v>13043</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1194,7 +1195,7 @@
         <v>114</v>
       </c>
       <c r="B52" s="2">
-        <v>1729948</v>
+        <v>1735108</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1282,7 +1283,7 @@
         <v>48</v>
       </c>
       <c r="B63" s="2">
-        <v>58045</v>
+        <v>58275</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1354,7 +1355,7 @@
         <v>60</v>
       </c>
       <c r="B72" s="2">
-        <v>18283</v>
+        <v>18511</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1402,7 +1403,7 @@
         <v>65</v>
       </c>
       <c r="B78" s="2">
-        <v>25253</v>
+        <v>21253</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1418,7 +1419,7 @@
         <v>67</v>
       </c>
       <c r="B80" s="2">
-        <v>24410</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1458,7 +1459,7 @@
         <v>72</v>
       </c>
       <c r="B85" s="2">
-        <v>31733</v>
+        <v>15413</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1466,7 +1467,7 @@
         <v>73</v>
       </c>
       <c r="B86" s="2">
-        <v>29107</v>
+        <v>23624</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1546,7 +1547,7 @@
         <v>82</v>
       </c>
       <c r="B96" s="2">
-        <v>16382</v>
+        <v>11029</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1586,7 +1587,7 @@
         <v>87</v>
       </c>
       <c r="B101" s="2">
-        <v>683600</v>
+        <v>592420</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1602,7 +1603,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>599611</v>
+        <v>598776</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1610,7 +1611,7 @@
         <v>90</v>
       </c>
       <c r="B104" s="2">
-        <v>13677</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1626,7 +1627,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="2">
-        <v>55818</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1682,7 +1683,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>37067</v>
+        <v>20747</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1698,7 +1699,7 @@
         <v>101</v>
       </c>
       <c r="B115" s="2">
-        <v>27696</v>
+        <v>23064</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +1747,7 @@
         <v>105</v>
       </c>
       <c r="B121" s="2">
-        <v>11959</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,7 +1763,7 @@
         <v>107</v>
       </c>
       <c r="B123" s="2">
-        <v>37750</v>
+        <v>21430</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +1771,7 @@
         <v>108</v>
       </c>
       <c r="B124" s="2">
-        <v>38084</v>
+        <v>25159</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1794,7 +1795,7 @@
         <v>119</v>
       </c>
       <c r="B127" s="2">
-        <v>610367</v>
+        <v>705485</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>material</t>
   </si>
@@ -402,9 +402,6 @@
   </si>
   <si>
     <t xml:space="preserve">П-8 Фп "Щедрость природы Фиточай успокоительный"20х2,0 г </t>
-  </si>
-  <si>
-    <t>Б-6М "Лён обыкновенный" (ТМ "Будь здоров!")(БАД) 100г</t>
   </si>
   <si>
     <t>Б-6М Фиточай "Укроп" (ТМ "Будь здоров!")(БАД) 50г</t>
@@ -775,7 +772,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B128"/>
+      <selection activeCell="A2" sqref="A2:B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,1017 +791,1013 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>19040</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>19040</v>
+        <v>30420</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>30420</v>
+        <v>31662</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>31662</v>
+        <v>12807</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>12807</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>14900</v>
+        <v>28379</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>40850</v>
+        <v>26756</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>36546</v>
+        <v>25450</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>24730</v>
+        <v>12399</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>12399</v>
+        <v>35226</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>47290</v>
+        <v>15473</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>15120</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>23520</v>
+        <v>5982</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>16325</v>
+        <v>20119</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>20119</v>
+        <v>21560</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>21560</v>
+        <v>34590</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>34590</v>
+        <v>79520</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>79520</v>
+        <v>39950</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>39950</v>
+        <v>27645</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>27645</v>
+        <v>13030</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>13030</v>
+        <v>33131</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>32830</v>
+        <v>34910</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>49150</v>
+        <v>13001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>27050</v>
+        <v>14353</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>25230</v>
+        <v>49840</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>49840</v>
+        <v>27470</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>27470</v>
+        <v>111160</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>111160</v>
+        <v>16670</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>16670</v>
+        <v>60566</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>60566</v>
+        <v>20363</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>20363</v>
+        <v>20320</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>20320</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>12300</v>
+        <v>21402</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>21402</v>
+        <v>31403</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>31403</v>
+        <v>13043</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>13043</v>
+        <v>28230</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>28230</v>
+        <v>63927</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="B39" s="2">
-        <v>63927</v>
+        <v>14950</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>14950</v>
+        <v>60590</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>60590</v>
+        <v>10860</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>32120</v>
+        <v>26405</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>26405</v>
+        <v>14026</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>14026</v>
+        <v>23140</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>23140</v>
+        <v>21865</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>34720</v>
+        <v>24280</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>24280</v>
+        <v>32760</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="B48" s="2">
-        <v>32760</v>
+        <v>63798</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B49" s="2">
-        <v>63798</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B50" s="2">
-        <v>61421</v>
+        <v>1179120</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2">
-        <v>1179120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+        <v>1735108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2">
-        <v>1735108</v>
+        <v>762767</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B53" s="2">
-        <v>762767</v>
+        <v>207277</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2">
-        <v>207277</v>
+        <v>436740</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2">
-        <v>436740</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>345910</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B56" s="2">
-        <v>345910</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+        <v>499183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2">
-        <v>499183</v>
+        <v>815019</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="B58" s="2">
-        <v>815019</v>
+        <v>27183</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B59" s="2">
-        <v>27183</v>
+        <v>28104</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B60" s="2">
-        <v>28104</v>
+        <v>21800</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B61" s="2">
-        <v>21800</v>
+        <v>25613</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B62" s="2">
-        <v>25613</v>
+        <v>58275</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B63" s="2">
-        <v>58275</v>
+        <v>22161</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B64" s="2">
-        <v>22161</v>
+        <v>66435</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B65" s="2">
-        <v>66435</v>
+        <v>42140</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B66" s="2">
-        <v>42140</v>
+        <v>20702</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B67" s="2">
-        <v>20702</v>
+        <v>17470</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B68" s="2">
-        <v>17470</v>
+        <v>7222</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B69" s="2">
-        <v>7222</v>
+        <v>19590</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B70" s="2">
-        <v>19590</v>
+        <v>26750</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B71" s="2">
-        <v>26750</v>
+        <v>18511</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B72" s="2">
-        <v>18511</v>
+        <v>33908</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B73" s="2">
-        <v>33908</v>
+        <v>34875</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="B74" s="2">
-        <v>34875</v>
+        <v>24308</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="B75" s="2">
-        <v>24308</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B76" s="2">
-        <v>12000</v>
+        <v>25527</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B77" s="2">
-        <v>25527</v>
+        <v>21916</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B78" s="2">
-        <v>21253</v>
+        <v>30909</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B79" s="2">
-        <v>30909</v>
+        <v>7093</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B80" s="2">
-        <v>24000</v>
+        <v>29375</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B81" s="2">
-        <v>29375</v>
+        <v>33184</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B82" s="2">
-        <v>33184</v>
+        <v>9105</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B83" s="2">
-        <v>9105</v>
+        <v>18944</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B84" s="2">
-        <v>32000</v>
+        <v>15256</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B85" s="2">
-        <v>15413</v>
+        <v>23107</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B86" s="2">
-        <v>23624</v>
+        <v>9933</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B87" s="2">
-        <v>24000</v>
+        <v>21604</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B88" s="2">
-        <v>21604</v>
+        <v>19067</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B89" s="2">
-        <v>19067</v>
+        <v>20637</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B90" s="2">
-        <v>20637</v>
+        <v>38052</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B91" s="2">
-        <v>38052</v>
+        <v>29250</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B92" s="2">
-        <v>41000</v>
+        <v>40367</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B93" s="2">
-        <v>56132</v>
+        <v>22404</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2">
-        <v>22404</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="B95" s="2">
-        <v>3713</v>
+        <v>10455</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B96" s="2">
-        <v>11029</v>
+        <v>21620</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B97" s="2">
-        <v>21620</v>
+        <v>19203</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B98" s="2">
-        <v>19203</v>
+        <v>67665</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B99" s="2">
-        <v>67665</v>
+        <v>14431</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B100" s="2">
-        <v>32187</v>
+        <v>591000</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B101" s="2">
-        <v>592420</v>
+        <v>8431</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B102" s="2">
-        <v>23111</v>
+        <v>598776</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B103" s="2">
-        <v>598776</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B104" s="2">
-        <v>3690</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B105" s="2">
-        <v>2193</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B106" s="2">
-        <v>25000</v>
+        <v>31236</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B107" s="2">
-        <v>65676</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B108" s="2">
-        <v>47000</v>
+        <v>40001</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B109" s="2">
-        <v>50000</v>
+        <v>50640</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B110" s="2">
-        <v>50640</v>
+        <v>36360</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B111" s="2">
-        <v>36360</v>
+        <v>85479</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B112" s="2">
-        <v>101799</v>
+        <v>20747</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B113" s="2">
-        <v>20747</v>
+        <v>10909</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B114" s="2">
-        <v>10909</v>
+        <v>23184</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B115" s="2">
-        <v>23064</v>
+        <v>102</v>
+      </c>
+      <c r="B115" s="3">
+        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B116" s="3">
-        <v>233</v>
+        <v>125</v>
+      </c>
+      <c r="B116" s="2">
+        <v>4645</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B117" s="2">
-        <v>4645</v>
+        <v>29385</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B118" s="2">
-        <v>29385</v>
+        <v>160670</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B119" s="2">
-        <v>160670</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B120" s="2">
-        <v>3620</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B121" s="2">
-        <v>11000</v>
+        <v>55097</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B122" s="2">
-        <v>55097</v>
+        <v>21430</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2">
-        <v>21430</v>
+        <v>24084</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B124" s="2">
-        <v>25159</v>
+        <v>84570</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B125" s="2">
-        <v>84570</v>
+        <v>47600</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B126" s="2">
-        <v>47600</v>
+        <v>705485</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2">
-        <v>705485</v>
+        <v>1587000</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B128" s="2">
-        <v>1587000</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>material</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик®для спокойного сна"</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Бруснивер 20x2,0г</t>
   </si>
 </sst>
 </file>
@@ -772,7 +775,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B127"/>
+      <selection activeCell="A2" sqref="A2:B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +821,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>12807</v>
+        <v>12745</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -866,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>35226</v>
+        <v>34660</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -882,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>5246</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>14353</v>
+        <v>14030</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -986,7 +989,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>49840</v>
+        <v>36142</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -994,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>27470</v>
+        <v>16712</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1026,7 +1029,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>20363</v>
+        <v>10278</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1066,7 +1069,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>13043</v>
+        <v>13170</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1106,7 +1109,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>10860</v>
+        <v>11481</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1138,7 +1141,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>21865</v>
+        <v>21840</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1362,7 +1365,7 @@
         <v>62</v>
       </c>
       <c r="B73" s="2">
-        <v>34875</v>
+        <v>32427</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1410,7 +1413,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="2">
-        <v>7093</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1434,7 +1437,7 @@
         <v>70</v>
       </c>
       <c r="B82" s="2">
-        <v>9105</v>
+        <v>29105</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1442,7 +1445,7 @@
         <v>71</v>
       </c>
       <c r="B83" s="2">
-        <v>18944</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1458,7 +1461,7 @@
         <v>73</v>
       </c>
       <c r="B85" s="2">
-        <v>23107</v>
+        <v>23501</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1466,7 +1469,7 @@
         <v>74</v>
       </c>
       <c r="B86" s="2">
-        <v>9933</v>
+        <v>29933</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1538,7 +1541,7 @@
         <v>82</v>
       </c>
       <c r="B95" s="2">
-        <v>10455</v>
+        <v>10908</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1562,7 +1565,7 @@
         <v>85</v>
       </c>
       <c r="B98" s="2">
-        <v>67665</v>
+        <v>99665</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1570,7 +1573,7 @@
         <v>86</v>
       </c>
       <c r="B99" s="2">
-        <v>14431</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1578,7 +1581,7 @@
         <v>87</v>
       </c>
       <c r="B100" s="2">
-        <v>591000</v>
+        <v>534585</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1591,213 +1594,217 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="B102" s="2">
-        <v>598776</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>3000</v>
+        <v>598776</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B104" s="2">
-        <v>2193</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2">
-        <v>25000</v>
+        <v>22193</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2">
-        <v>31236</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B107" s="2">
-        <v>47000</v>
+        <v>31236</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B108" s="2">
-        <v>40001</v>
+        <v>111000</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B109" s="2">
-        <v>50640</v>
+        <v>39770</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110" s="2">
-        <v>36360</v>
+        <v>26040</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B111" s="2">
-        <v>85479</v>
+        <v>36360</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B112" s="2">
-        <v>20747</v>
+        <v>85479</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>10909</v>
+        <v>20220</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B114" s="2">
-        <v>23184</v>
+        <v>10909</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B115" s="3">
-        <v>233</v>
+        <v>101</v>
+      </c>
+      <c r="B115" s="2">
+        <v>23184</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B116" s="2">
-        <v>4645</v>
+        <v>102</v>
+      </c>
+      <c r="B116" s="3">
+        <v>233</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B117" s="2">
-        <v>29385</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B118" s="2">
-        <v>160670</v>
+        <v>29385</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B119" s="2">
-        <v>3620</v>
+        <v>160670</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B120" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="B120" s="2">
+        <v>3620</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B121" s="2">
-        <v>55097</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B121" s="4"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B122" s="2">
-        <v>21430</v>
+        <v>55097</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B123" s="2">
-        <v>24084</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B124" s="2">
-        <v>84570</v>
+        <v>24809</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2">
-        <v>47600</v>
+        <v>84570</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B126" s="2">
-        <v>705485</v>
+        <v>47600</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B127" s="2">
+        <v>705485</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B128" s="2">
         <v>1587000</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -837,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>28379</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -869,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>34660</v>
+        <v>35630</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>14030</v>
+        <v>14590</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
         <v>71</v>
       </c>
       <c r="B83" s="2">
-        <v>18000</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
         <v>74</v>
       </c>
       <c r="B86" s="2">
-        <v>29933</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>79</v>
       </c>
       <c r="B91" s="2">
-        <v>29250</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
         <v>88</v>
       </c>
       <c r="B101" s="2">
-        <v>8431</v>
+        <v>8111</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>128</v>
       </c>
       <c r="B102" s="2">
-        <v>320000</v>
+        <v>267000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="2">
-        <v>45000</v>
+        <v>45290</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>material</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Б-6М Береза почки 50г</t>
   </si>
   <si>
-    <t>Б-6М Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
     <t>Б-6М Боярышник плоды 75г</t>
   </si>
   <si>
@@ -345,9 +342,6 @@
   </si>
   <si>
     <t>П-8 Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20*1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Хвощ трава 20х1,5 г</t>
   </si>
   <si>
     <t>П-8 Фп Чабрец трава (РПС) 20х1.5 г</t>
@@ -477,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -486,9 +480,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -775,7 +766,7 @@
   <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B128"/>
+      <selection activeCell="A2" sqref="A2:B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,8 +819,8 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
-        <v>27</v>
+      <c r="B6" s="2">
+        <v>28560</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -837,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>28000</v>
+        <v>26466</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,7 +836,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>26756</v>
+        <v>25450</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -853,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>25450</v>
+        <v>12399</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -861,7 +852,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>12399</v>
+        <v>35630</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -869,7 +860,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>35630</v>
+        <v>15473</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -877,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>15473</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -885,7 +876,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>5040</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -893,7 +884,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>5982</v>
+        <v>20119</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -901,7 +892,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>20119</v>
+        <v>21560</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -909,7 +900,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>21560</v>
+        <v>34590</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -917,7 +908,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>34590</v>
+        <v>79520</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -925,7 +916,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>79520</v>
+        <v>39950</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +924,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>39950</v>
+        <v>27645</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -941,7 +932,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>27645</v>
+        <v>13030</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +940,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>13030</v>
+        <v>33131</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +948,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>33131</v>
+        <v>34590</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +956,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>34910</v>
+        <v>12880</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +964,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>13001</v>
+        <v>14590</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +972,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>14590</v>
+        <v>36142</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -989,7 +980,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>36142</v>
+        <v>16712</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +988,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>16712</v>
+        <v>111160</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,7 +996,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>111160</v>
+        <v>16670</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1004,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>16670</v>
+        <v>60566</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1021,7 +1012,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>60566</v>
+        <v>10278</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1029,7 +1020,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>10278</v>
+        <v>20320</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,7 +1028,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>20320</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1045,7 +1036,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>12300</v>
+        <v>21402</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1053,7 +1044,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>21402</v>
+        <v>31403</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1052,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>31403</v>
+        <v>13170</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1069,7 +1060,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>13170</v>
+        <v>28230</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1077,23 +1068,23 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>28230</v>
+        <v>63927</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="B38" s="2">
-        <v>63927</v>
+        <v>14950</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>14950</v>
+        <v>60590</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1092,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>60590</v>
+        <v>11481</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,7 +1100,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>11481</v>
+        <v>15725</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1108,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>26405</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1116,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>14026</v>
+        <v>23140</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1124,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>23140</v>
+        <v>22178</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,7 +1132,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>21840</v>
+        <v>24280</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,95 +1140,95 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>24280</v>
+        <v>32760</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="B47" s="2">
-        <v>32760</v>
+        <v>63798</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="2">
+        <v>61421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="2">
-        <v>63798</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="B49" s="2">
-        <v>61421</v>
+        <v>1179120</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1735108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="2">
-        <v>1179120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="B51" s="2">
-        <v>1735108</v>
+        <v>762767</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B52" s="2">
-        <v>762767</v>
+        <v>207277</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2">
-        <v>207277</v>
+        <v>436740</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B54" s="2">
-        <v>436740</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>345910</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B55" s="2">
-        <v>345910</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+        <v>499183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2">
-        <v>499183</v>
+        <v>815019</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="B57" s="2">
-        <v>815019</v>
+        <v>27183</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1245,23 +1236,23 @@
         <v>49</v>
       </c>
       <c r="B58" s="2">
-        <v>27183</v>
+        <v>28104</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59" s="2">
-        <v>28104</v>
+        <v>21800</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B60" s="2">
-        <v>21800</v>
+        <v>25613</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,23 +1260,23 @@
         <v>47</v>
       </c>
       <c r="B61" s="2">
-        <v>25613</v>
+        <v>58275</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B62" s="2">
-        <v>58275</v>
+        <v>22161</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B63" s="2">
-        <v>22161</v>
+        <v>66435</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1284,7 @@
         <v>53</v>
       </c>
       <c r="B64" s="2">
-        <v>66435</v>
+        <v>42140</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1301,7 +1292,7 @@
         <v>54</v>
       </c>
       <c r="B65" s="2">
-        <v>42140</v>
+        <v>20702</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1309,7 +1300,7 @@
         <v>55</v>
       </c>
       <c r="B66" s="2">
-        <v>20702</v>
+        <v>17470</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1317,7 +1308,7 @@
         <v>56</v>
       </c>
       <c r="B67" s="2">
-        <v>17470</v>
+        <v>7222</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1325,7 +1316,7 @@
         <v>57</v>
       </c>
       <c r="B68" s="2">
-        <v>7222</v>
+        <v>19590</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1333,7 +1324,7 @@
         <v>58</v>
       </c>
       <c r="B69" s="2">
-        <v>19590</v>
+        <v>26750</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1341,7 +1332,7 @@
         <v>59</v>
       </c>
       <c r="B70" s="2">
-        <v>26750</v>
+        <v>18511</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1349,7 +1340,7 @@
         <v>60</v>
       </c>
       <c r="B71" s="2">
-        <v>18511</v>
+        <v>33908</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1357,23 +1348,23 @@
         <v>61</v>
       </c>
       <c r="B72" s="2">
-        <v>33908</v>
+        <v>32388</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2">
-        <v>32427</v>
+        <v>24308</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B74" s="2">
-        <v>24308</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,7 +1372,7 @@
         <v>63</v>
       </c>
       <c r="B75" s="2">
-        <v>12000</v>
+        <v>25527</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1389,7 +1380,7 @@
         <v>64</v>
       </c>
       <c r="B76" s="2">
-        <v>25527</v>
+        <v>21916</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1397,7 +1388,7 @@
         <v>65</v>
       </c>
       <c r="B77" s="2">
-        <v>21916</v>
+        <v>30909</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1405,7 +1396,7 @@
         <v>66</v>
       </c>
       <c r="B78" s="2">
-        <v>30909</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1413,7 +1404,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="2">
-        <v>39000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +1412,7 @@
         <v>68</v>
       </c>
       <c r="B80" s="2">
-        <v>29375</v>
+        <v>33184</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +1420,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="2">
-        <v>33184</v>
+        <v>29105</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1437,7 +1428,7 @@
         <v>70</v>
       </c>
       <c r="B82" s="2">
-        <v>29105</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1445,7 +1436,7 @@
         <v>71</v>
       </c>
       <c r="B83" s="2">
-        <v>18500</v>
+        <v>15256</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1453,7 +1444,7 @@
         <v>72</v>
       </c>
       <c r="B84" s="2">
-        <v>15256</v>
+        <v>23501</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1461,7 +1452,7 @@
         <v>73</v>
       </c>
       <c r="B85" s="2">
-        <v>23501</v>
+        <v>29642</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1469,7 +1460,7 @@
         <v>74</v>
       </c>
       <c r="B86" s="2">
-        <v>29000</v>
+        <v>21604</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,7 +1468,7 @@
         <v>75</v>
       </c>
       <c r="B87" s="2">
-        <v>21604</v>
+        <v>19067</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1485,7 +1476,7 @@
         <v>76</v>
       </c>
       <c r="B88" s="2">
-        <v>19067</v>
+        <v>20637</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1493,7 +1484,7 @@
         <v>77</v>
       </c>
       <c r="B89" s="2">
-        <v>20637</v>
+        <v>38052</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1501,7 +1492,7 @@
         <v>78</v>
       </c>
       <c r="B90" s="2">
-        <v>38052</v>
+        <v>29086</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1509,7 +1500,7 @@
         <v>79</v>
       </c>
       <c r="B91" s="2">
-        <v>29000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1517,23 +1508,23 @@
         <v>80</v>
       </c>
       <c r="B92" s="2">
-        <v>40367</v>
+        <v>22404</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2">
-        <v>22404</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2">
-        <v>3713</v>
+        <v>10908</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1541,7 +1532,7 @@
         <v>82</v>
       </c>
       <c r="B95" s="2">
-        <v>10908</v>
+        <v>21620</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1549,7 +1540,7 @@
         <v>83</v>
       </c>
       <c r="B96" s="2">
-        <v>21620</v>
+        <v>19203</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1557,7 +1548,7 @@
         <v>84</v>
       </c>
       <c r="B97" s="2">
-        <v>19203</v>
+        <v>99665</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1565,7 +1556,7 @@
         <v>85</v>
       </c>
       <c r="B98" s="2">
-        <v>99665</v>
+        <v>14217</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1573,7 +1564,7 @@
         <v>86</v>
       </c>
       <c r="B99" s="2">
-        <v>14000</v>
+        <v>533000</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1581,23 +1572,23 @@
         <v>87</v>
       </c>
       <c r="B100" s="2">
-        <v>534585</v>
+        <v>7111</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2">
-        <v>8111</v>
+        <v>180328</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B102" s="2">
-        <v>267000</v>
+        <v>598776</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1605,7 +1596,7 @@
         <v>89</v>
       </c>
       <c r="B103" s="2">
-        <v>598776</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1613,7 +1604,7 @@
         <v>90</v>
       </c>
       <c r="B104" s="2">
-        <v>3431</v>
+        <v>22193</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1621,7 +1612,7 @@
         <v>91</v>
       </c>
       <c r="B105" s="2">
-        <v>22193</v>
+        <v>45290</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1629,7 +1620,7 @@
         <v>92</v>
       </c>
       <c r="B106" s="2">
-        <v>45290</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1637,7 +1628,7 @@
         <v>93</v>
       </c>
       <c r="B107" s="2">
-        <v>31236</v>
+        <v>111000</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1645,7 +1636,7 @@
         <v>94</v>
       </c>
       <c r="B108" s="2">
-        <v>111000</v>
+        <v>39770</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +1644,7 @@
         <v>95</v>
       </c>
       <c r="B109" s="2">
-        <v>39770</v>
+        <v>26040</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +1652,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="2">
-        <v>26040</v>
+        <v>36360</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +1660,7 @@
         <v>97</v>
       </c>
       <c r="B111" s="2">
-        <v>36360</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1677,7 +1668,7 @@
         <v>98</v>
       </c>
       <c r="B112" s="2">
-        <v>85479</v>
+        <v>20220</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +1676,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="2">
-        <v>20220</v>
+        <v>10909</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,31 +1684,31 @@
         <v>100</v>
       </c>
       <c r="B114" s="2">
-        <v>10909</v>
+        <v>23184</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B115" s="2">
-        <v>23184</v>
+      <c r="B115" s="3">
+        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B116" s="3">
-        <v>233</v>
+        <v>123</v>
+      </c>
+      <c r="B116" s="2">
+        <v>4645</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B117" s="2">
-        <v>4645</v>
+        <v>29385</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,37 +1716,39 @@
         <v>103</v>
       </c>
       <c r="B118" s="2">
-        <v>29385</v>
+        <v>160670</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B119" s="2">
-        <v>160670</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B120" s="2">
-        <v>3620</v>
+        <v>55097</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B121" s="4"/>
+      <c r="B121" s="2">
+        <v>21000</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B122" s="2">
-        <v>55097</v>
+        <v>24809</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1763,7 +1756,7 @@
         <v>107</v>
       </c>
       <c r="B123" s="2">
-        <v>20000</v>
+        <v>84570</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1771,40 +1764,32 @@
         <v>108</v>
       </c>
       <c r="B124" s="2">
-        <v>24809</v>
+        <v>47600</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B125" s="2">
-        <v>84570</v>
+        <v>705485</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2">
-        <v>47600</v>
+        <v>1587000</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B127" s="2">
-        <v>705485</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B128" s="2">
-        <v>1587000</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -828,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>26466</v>
+        <v>26800</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>16712</v>
+        <v>16240</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>10278</v>
+        <v>9460</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="2">
-        <v>19000</v>
+        <v>19490</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>87</v>
       </c>
       <c r="B100" s="2">
-        <v>7111</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
         <v>95</v>
       </c>
       <c r="B109" s="2">
-        <v>26040</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1660,7 +1660,7 @@
         <v>97</v>
       </c>
       <c r="B111" s="2">
-        <v>85000</v>
+        <v>88000</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>material</t>
   </si>
@@ -38,379 +38,433 @@
     <t>stock</t>
   </si>
   <si>
+    <t>Б-6М Алтей корни 75г</t>
+  </si>
+  <si>
+    <t>Б-6М Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Б-6М Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Горца птичьего (cпорыша) трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Б-6М Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Б-6М Ламинарии слоевища 100г</t>
+  </si>
+  <si>
+    <t>Б-6М Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Б-6М Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Б-6М Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Б-6М Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Б-6М Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Рябина плоды 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Б-6М Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Б-6М Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Б-6М Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Б-6М Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>П-6К Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем" 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-6К Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-6К Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5г.</t>
+  </si>
+  <si>
+    <t>П-6К Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5г.</t>
+  </si>
+  <si>
+    <t>П-6К Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-6К Фп Детский травяной чай "ФармаЦветик® при простуде" 20х1,5г.</t>
+  </si>
+  <si>
+    <t>П-6К Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-6К Фп Фиточай "ФармаЦветик® для кормящих мам"20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Фитосбор №1" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Фитосбор №2" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай для иммунитета" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай для пищеварения" 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай кардиологический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай очищающий" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай при простуде" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Аир корневища 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Бадан корневища 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Береза листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Боярышник плоды 20х3,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Валериана корневища с корнями 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Девясил корни и корневища 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Душица трава (порошок с РПС) 20х1.5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Золототысячник трава 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Кровохлебка корневища и корни 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Крушина кора 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Лапчатка корневища 20х2,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Ноготки цветки 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Пастушья сумка 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Пижма цветки 20х1.5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Подорожник листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Почечный чай листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Пустырник трава (порошок с РПС) 20х1.5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Арфазетин-Э 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Желудочный №3 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сенна листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Фиалка трава 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Фиточай "Дивный вечер" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Фиточай "Опалиховский"(ТМ "Будь здоров!") (БАД)20*2.0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20*1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Чабрец трава (РПС) 20х1.5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Шалфей листья 20х1,5г, шт</t>
+  </si>
+  <si>
+    <t>П-8 Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Вкладыш к П-6К Фп Детский травяной чай "ФармаЦветик"</t>
+  </si>
+  <si>
+    <t>Вкладыш к П-6К Фп Фиточай "Лактафитол"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый "Фиточай "Лактафитол"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик® для животика"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик® для иммунитета"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик® при простуде"</t>
+  </si>
+  <si>
+    <t>Ярлык "ВердиоГаст® Фиточай для улучшения пищеварения"</t>
+  </si>
+  <si>
+    <t>Ярлык "Три листа"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конверт полипропиленовый Фиточай «ФармаЦветик® для кормящих мам» </t>
+  </si>
+  <si>
+    <t xml:space="preserve">П-8 Фп "Щедрость природы Фиточай успокоительный"20х2,0 г </t>
+  </si>
+  <si>
+    <t>Б-6М Фиточай "Укроп" (ТМ "Будь здоров!")(БАД) 50г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Фиточай "Мята" (ТМ "Будь здоров!") (БАД)20*1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Фиточай "Шиповник" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик®для спокойного сна"</t>
+  </si>
+  <si>
     <t>Б-6М Аир корневища 75г</t>
   </si>
   <si>
-    <t>Б-6М Алтей корни 75г</t>
-  </si>
-  <si>
-    <t>Б-6М Багульник болотный побеги 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Береза почки 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Боярышник плоды 75г</t>
-  </si>
-  <si>
-    <t>Б-6М Брусника листья 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Валериана корневища с корнями 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Горца птичьего (cпорыша) трава 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Б-6М Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Б-6М Ламинарии слоевища 100г</t>
-  </si>
-  <si>
-    <t>Б-6М Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Б-6М Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Б-6М Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Б-6М Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Б-6М Подорожник большой листья 50г</t>
+    <t>Этикетка самоклеящаяся к "Стоматофит 100 мл"</t>
+  </si>
+  <si>
+    <t>Этикетка самоклеящаяся к "Стоматофит 50 мл"</t>
+  </si>
+  <si>
+    <t>Этикетка самоклеящаяся к "Стоматофит А 25 мл"</t>
+  </si>
+  <si>
+    <t>Этикетка самоклеящаяся к "Стоматофит Эксперт 50 мл"</t>
+  </si>
+  <si>
+    <t>Этикетка самоклеящаяся к "Бронхофитол 100 мл"</t>
+  </si>
+  <si>
+    <t>Инструкция к "Бронхофитол 100мл"</t>
+  </si>
+  <si>
+    <t>Инструкция к "Стоматофит 50мл и Стоматофит 100мл"</t>
+  </si>
+  <si>
+    <t>Инструкция к "Стоматофит А25мл"</t>
+  </si>
+  <si>
+    <t>Инструкция к "Стоматофит Эксперт 50мл"</t>
+  </si>
+  <si>
+    <t>Б-6М "Лён обыкновенный" (ТМ "Будь здоров!")(БАД) 100г</t>
+  </si>
+  <si>
+    <t>С-100 "Стоматофит 100мл"</t>
+  </si>
+  <si>
+    <t>С-50 "Стоматофит 50мл"</t>
+  </si>
+  <si>
+    <t>С-25 "Стоматофит А 25мл"</t>
+  </si>
+  <si>
+    <t>С-50Э "Стоматофит Эксперт 50мл"</t>
+  </si>
+  <si>
+    <t>Б-100 "Бронхофитол 100мл"</t>
+  </si>
+  <si>
+    <t>П-8 Фп Зверобой трава (порошок С РПС) 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Хвощ трава 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Тысячелистник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Ольхи соплодия  20х1,5г</t>
   </si>
   <si>
     <t>Б-6М Полынь горькая трава 50г</t>
   </si>
   <si>
-    <t>Б-6М Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Рябина плоды 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Б-6М Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Б-6М Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Б-6М Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Тысячелистник трава 50г</t>
-  </si>
-  <si>
     <t>Б-6М Укроп пахучий плоды 50г</t>
   </si>
   <si>
-    <t>Б-6М Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Шалфей листья 50г</t>
+    <t>Буклет к П-6К Фп Детский травяной чай "ФармаЦветик и Лактафитол"</t>
+  </si>
+  <si>
+    <t>Б-6М Бессмертник песчаный цветки 30г</t>
   </si>
   <si>
     <t>Б-6М Шиповник плоды низковитаминные 50г</t>
   </si>
   <si>
-    <t>Б-6М Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Б-6М Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>П-6К Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем" 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-6К Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-6К Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5г.</t>
-  </si>
-  <si>
-    <t>П-6К Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5г.</t>
-  </si>
-  <si>
-    <t>П-6К Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>П-6К Фп Детский травяной чай "ФармаЦветик® при простуде" 20х1,5г.</t>
-  </si>
-  <si>
-    <t>П-6К Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
-    <t>П-6К Фп Фиточай "ФармаЦветик® для кормящих мам"20х1,5 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Фитосбор №1" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Фитосбор №2" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Щедрость природы Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Щедрость природы Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Щедрость природы Фиточай для пищеварения" 20х2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Щедрость природы Фиточай кардиологический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Щедрость природы Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Щедрость природы Фиточай при простуде" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Аир корневища 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Бадан корневища 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Береза листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Боярышник плоды 20х3,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Валериана корневища с корнями 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Девясил корни и корневища 20х1,5 г</t>
-  </si>
-  <si>
     <t>П-8 Фп Дуб кора (РПС) 20х1,5 г</t>
   </si>
   <si>
-    <t>П-8 Фп Душица трава (порошок с РПС) 20х1.5 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Зверобой трава (порошок С РПС) 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Золототысячник трава 20х1,5 г</t>
-  </si>
-  <si>
     <t>П-8 Фп Крапива листья (порошок С РПС) 20х1,5г</t>
   </si>
   <si>
-    <t>П-8 Фп Кровохлебка корневища и корни 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Крушина кора 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Лапчатка корневища 20х2,5г</t>
-  </si>
-  <si>
     <t>П-8 Фп Липа цветки 20x1,5г</t>
   </si>
   <si>
-    <t>П-8 Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
     <t>П-8 Фп Мята перечная листья 20x1,5г</t>
   </si>
   <si>
-    <t>П-8 Фп Ноготки цветки 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Пастушья сумка 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Пижма цветки 20х1.5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Подорожник листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Почечный чай листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Пустырник трава (порошок с РПС) 20х1.5 г</t>
-  </si>
-  <si>
     <t>П-8 Фп Ромашка цветки (порошок с РПС) 20х1,5г</t>
   </si>
   <si>
-    <t>П-8 Фп Сб. Арфазетин-Э 20х2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Желудочный №3 20х2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20х2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сенна листья 20х1,5г</t>
+    <t>П-8 Фп Сб. Бруснивер 20x2,0г</t>
   </si>
   <si>
     <t>П-8 Фп Толокнянка листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Тысячелистник трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Фиалка трава 20х1,5 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Фиточай "Дивный вечер" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Фиточай "Опалиховский"(ТМ "Будь здоров!") (БАД)20*2.0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20*1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Чабрец трава (РПС) 20х1.5 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Шалфей листья 20х1,5г, шт</t>
-  </si>
-  <si>
-    <t>П-8 Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Вкладыш к П-6К Фп Детский травяной чай "ФармаЦветик"</t>
-  </si>
-  <si>
-    <t>Вкладыш к П-6К Фп Фиточай "Лактафитол"</t>
-  </si>
-  <si>
-    <t>Конверт полипропиленовый "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"</t>
-  </si>
-  <si>
-    <t>Конверт полипропиленовый "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем"</t>
-  </si>
-  <si>
-    <t>Конверт полипропиленовый "Фиточай "Лактафитол"</t>
-  </si>
-  <si>
-    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик® для животика"</t>
-  </si>
-  <si>
-    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик® для иммунитета"</t>
-  </si>
-  <si>
-    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик® при простуде"</t>
-  </si>
-  <si>
-    <t>Ярлык "ВердиоГаст® Фиточай для улучшения пищеварения"</t>
-  </si>
-  <si>
-    <t>Ярлык "Три листа"</t>
-  </si>
-  <si>
-    <t>П-8 Фп Ольхи соплодия  20х1,5г</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Конверт полипропиленовый Фиточай «ФармаЦветик® для кормящих мам» </t>
-  </si>
-  <si>
-    <t xml:space="preserve">П-8 Фп "Щедрость природы Фиточай успокоительный"20х2,0 г </t>
-  </si>
-  <si>
-    <t>Б-6М Фиточай "Укроп" (ТМ "Будь здоров!")(БАД) 50г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Фиточай "Мята" (ТМ "Будь здоров!") (БАД)20*1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Фиточай "Шиповник" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
-  </si>
-  <si>
-    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик®для спокойного сна"</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Бруснивер 20x2,0г</t>
   </si>
 </sst>
 </file>
@@ -471,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -480,6 +534,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -763,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B126"/>
+      <selection activeCell="A2" sqref="A2:B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,1015 +842,1135 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2">
-        <v>19040</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2">
-        <v>30420</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2">
-        <v>31662</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2">
-        <v>12745</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2">
-        <v>28560</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2">
-        <v>26800</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2">
-        <v>25450</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="B9" s="2">
-        <v>12399</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="B10" s="2">
-        <v>35630</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="B11" s="2">
-        <v>15473</v>
+        <v>15900</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2">
-        <v>5370</v>
+        <v>24900</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2">
-        <v>5600</v>
+        <v>39900</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2">
-        <v>20119</v>
+        <v>24900</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2">
-        <v>21560</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>34590</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="B17" s="2">
-        <v>79520</v>
+        <v>38580</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2">
-        <v>39950</v>
+        <v>20980</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2">
-        <v>27645</v>
+        <v>23730</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2">
-        <v>13030</v>
+        <v>17665</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>33131</v>
+        <v>24405</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="B22" s="2">
-        <v>34590</v>
+        <v>23760</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2">
-        <v>12880</v>
+        <v>39710</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2">
-        <v>14590</v>
+        <v>27140</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2">
-        <v>36142</v>
+        <v>36730</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2">
-        <v>16240</v>
+        <v>24900</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2">
-        <v>111160</v>
+        <v>23775</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B28" s="2">
-        <v>16670</v>
+        <v>121380</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2">
-        <v>60566</v>
+        <v>46988</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2">
-        <v>9460</v>
+        <v>26100</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B31" s="2">
-        <v>20320</v>
+        <v>14592</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2">
-        <v>12300</v>
+        <v>30045</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B33" s="2">
-        <v>21402</v>
+        <v>22265</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B34" s="2">
-        <v>31403</v>
+        <v>161415</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B35" s="2">
-        <v>13170</v>
+        <v>30490</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B36" s="2">
-        <v>28230</v>
+        <v>40210</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B37" s="2">
-        <v>63927</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="B38" s="2">
-        <v>14950</v>
+        <v>28215</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B39" s="2">
-        <v>60590</v>
+        <v>20650</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B40" s="2">
-        <v>11481</v>
+        <v>36640</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2">
-        <v>15725</v>
+        <v>14670</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="B42" s="2">
-        <v>3940</v>
+        <v>65590</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B43" s="2">
-        <v>23140</v>
+        <v>16633</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B44" s="2">
-        <v>22178</v>
+        <v>128520</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B45" s="2">
-        <v>24280</v>
+        <v>16670</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B46" s="2">
-        <v>32760</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="B47" s="2">
-        <v>63798</v>
+        <v>10167</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="B48" s="2">
-        <v>61421</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+        <v>20320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="B49" s="2">
-        <v>1179120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="B50" s="2">
-        <v>1735108</v>
+        <v>66255</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="B51" s="2">
-        <v>762767</v>
+        <v>28190</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="B52" s="2">
-        <v>207277</v>
+        <v>15839</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="B53" s="2">
-        <v>436740</v>
+        <v>40400</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B54" s="2">
-        <v>345910</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+        <v>104760</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2">
-        <v>499183</v>
+        <v>38440</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="B56" s="2">
-        <v>815019</v>
+        <v>42670</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B57" s="2">
-        <v>27183</v>
+        <v>55620</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B58" s="2">
-        <v>28104</v>
+        <v>25660</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B59" s="2">
-        <v>21800</v>
+        <v>39840</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B60" s="2">
-        <v>25613</v>
+        <v>15960</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="B61" s="2">
-        <v>58275</v>
+        <v>48060</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B62" s="2">
-        <v>22161</v>
+        <v>18336</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B63" s="2">
-        <v>66435</v>
+        <v>31623</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2">
-        <v>42140</v>
+        <v>49350</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2">
-        <v>20702</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48621</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2">
-        <v>17470</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1141658</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2">
-        <v>7222</v>
+        <v>1735108</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2">
-        <v>19590</v>
+        <v>451281</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2">
-        <v>26750</v>
+        <v>164073</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2">
-        <v>18511</v>
+        <v>388152</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2">
-        <v>33908</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>275745</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B72" s="2">
-        <v>32388</v>
+        <v>324423</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2">
-        <v>24308</v>
+        <v>815019</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B74" s="2">
-        <v>12000</v>
+        <v>27183</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B75" s="2">
-        <v>25527</v>
+        <v>25635</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B76" s="2">
-        <v>21916</v>
+        <v>18428</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B77" s="2">
-        <v>30909</v>
+        <v>23832</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B78" s="2">
-        <v>39000</v>
+        <v>58275</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B79" s="2">
-        <v>19490</v>
+        <v>13410</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B80" s="2">
-        <v>33184</v>
+        <v>53560</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B81" s="2">
-        <v>29105</v>
+        <v>42140</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B82" s="2">
-        <v>18500</v>
+        <v>81520</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B83" s="2">
-        <v>15256</v>
+        <v>32040</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B84" s="2">
-        <v>23501</v>
+        <v>52</v>
+      </c>
+      <c r="B84" s="3">
+        <v>622</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B85" s="2">
-        <v>29642</v>
+        <v>17010</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B86" s="2">
-        <v>21604</v>
+        <v>26750</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B87" s="2">
-        <v>19067</v>
+        <v>16513</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B88" s="2">
-        <v>20637</v>
+        <v>31257</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B89" s="2">
-        <v>38052</v>
+        <v>29418</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2">
-        <v>29086</v>
+        <v>21248</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B91" s="2">
-        <v>40000</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B92" s="2">
-        <v>22404</v>
+        <v>25527</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="B93" s="2">
-        <v>3713</v>
+        <v>18513</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B94" s="2">
-        <v>10908</v>
+        <v>14264</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B95" s="2">
-        <v>21620</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B96" s="2">
-        <v>19203</v>
+        <v>38789</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B97" s="2">
-        <v>99665</v>
+        <v>33184</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="B98" s="2">
-        <v>14217</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B99" s="2">
-        <v>533000</v>
+        <v>65</v>
+      </c>
+      <c r="B99" s="3">
+        <v>752</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2">
-        <v>7982</v>
+        <v>42075</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B101" s="2">
-        <v>180328</v>
+        <v>23501</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2">
-        <v>598776</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B103" s="2">
-        <v>3431</v>
+        <v>30724</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B104" s="2">
-        <v>22193</v>
+        <v>29410</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B105" s="2">
-        <v>45290</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B106" s="2">
-        <v>30000</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B106" s="4"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B107" s="2">
-        <v>111000</v>
+        <v>37280</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B108" s="2">
-        <v>39770</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B108" s="4"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B109" s="2">
-        <v>25000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B110" s="2">
-        <v>36360</v>
+        <v>132</v>
+      </c>
+      <c r="B110" s="3">
+        <v>420</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B111" s="2">
-        <v>88000</v>
+        <v>10908</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B112" s="2">
-        <v>20220</v>
+        <v>14590</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B113" s="2">
-        <v>10909</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B114" s="2">
-        <v>23184</v>
+        <v>208752</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B115" s="3">
-        <v>233</v>
+        <v>76</v>
+      </c>
+      <c r="B115" s="2">
+        <v>44680</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B116" s="2">
-        <v>4645</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B116" s="4"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B117" s="2">
-        <v>29385</v>
+        <v>51233</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B118" s="2">
-        <v>160670</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B118" s="4"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B119" s="2">
-        <v>3620</v>
+        <v>78</v>
+      </c>
+      <c r="B119" s="3">
+        <v>857</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B120" s="2">
-        <v>55097</v>
+        <v>35105</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B121" s="2">
-        <v>21000</v>
+        <v>43420</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B122" s="2">
-        <v>24809</v>
+        <v>87108</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B123" s="2">
-        <v>84570</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B124" s="2">
-        <v>47600</v>
+        <v>283088</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B125" s="2">
-        <v>705485</v>
+        <v>8674</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B126" s="2">
-        <v>1587000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="2"/>
+      <c r="A127" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127" s="2">
+        <v>4550</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="2"/>
+      <c r="A128" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B128" s="2">
+        <v>158000</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="2"/>
+      <c r="A129" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B131" s="2">
+        <v>23184</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B132" s="2">
+        <v>15120</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B133" s="2">
+        <v>18935</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B134" s="2">
+        <v>53570</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B135" s="2">
+        <v>535922</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B136" s="2">
+        <v>27709</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B137" s="2">
+        <v>69900</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B138" s="2">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B139" s="2">
+        <v>81174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B140" s="2">
+        <v>42109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B141" s="2">
+        <v>10068</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B142" s="2">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B143" s="2">
+        <v>669367</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1006428</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/materials_stocks.xlsx
+++ b/data/materials_stocks.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>material</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Б-6М Алтей корни 75г</t>
   </si>
   <si>
-    <t>Б-6М Багульник болотный побеги 50г</t>
-  </si>
-  <si>
     <t>Б-6М Береза почки 50г</t>
   </si>
   <si>
@@ -83,388 +80,370 @@
     <t>Б-6М Лен семена 100г</t>
   </si>
   <si>
+    <t>Б-6М Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Б-6М Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Б-6М Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Рябина плоды 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Б-6М Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Б-6М Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Б-6М Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Б-6М Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>П-6К Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем" 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-6К Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-6К Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5г.</t>
+  </si>
+  <si>
+    <t>П-6К Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5г.</t>
+  </si>
+  <si>
+    <t>П-6К Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-6К Фп Детский травяной чай "ФармаЦветик® при простуде" 20х1,5г.</t>
+  </si>
+  <si>
+    <t>П-6К Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-6К Фп Фиточай "ФармаЦветик® для кормящих мам"20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Фитосбор №1" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Фитосбор №2" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай для иммунитета" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай для пищеварения" 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай кардиологический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай очищающий" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай при простуде" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Аир корневища 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Бадан корневища 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Береза листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Боярышник плоды 20х3,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Валериана корневища с корнями 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Девясил корни и корневища 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Душица трава (порошок с РПС) 20х1.5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Золототысячник трава 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Крушина кора 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Лапчатка корневища 20х2,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Ноготки цветки 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Пастушья сумка 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Подорожник листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Почечный чай листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Пустырник трава (порошок с РПС) 20х1.5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Арфазетин-Э 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Желудочный №3 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сенна листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Фиалка трава 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Фиточай "Дивный вечер" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Фиточай "Опалиховский"(ТМ "Будь здоров!") (БАД)20*2.0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20*1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Чабрец трава (РПС) 20х1.5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Вкладыш к П-6К Фп Детский травяной чай "ФармаЦветик"</t>
+  </si>
+  <si>
+    <t>Вкладыш к П-6К Фп Фиточай "Лактафитол"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик® для животика"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик® для иммунитета"</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик® при простуде"</t>
+  </si>
+  <si>
+    <t>Ярлык "ВердиоГаст® Фиточай для улучшения пищеварения"</t>
+  </si>
+  <si>
+    <t>Ярлык "Три листа"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конверт полипропиленовый Фиточай «ФармаЦветик® для кормящих мам» </t>
+  </si>
+  <si>
+    <t xml:space="preserve">П-8 Фп "Щедрость природы Фиточай успокоительный"20х2,0 г </t>
+  </si>
+  <si>
+    <t>П-8 Фп Фиточай "Мята" (ТМ "Будь здоров!") (БАД)20*1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Фиточай "Шиповник" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
+  </si>
+  <si>
+    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик®для спокойного сна"</t>
+  </si>
+  <si>
+    <t>Б-6М Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Этикетка самоклеящаяся к "Стоматофит 100 мл"</t>
+  </si>
+  <si>
+    <t>Этикетка самоклеящаяся к "Стоматофит 50 мл"</t>
+  </si>
+  <si>
+    <t>Этикетка самоклеящаяся к "Стоматофит А 25 мл"</t>
+  </si>
+  <si>
+    <t>Этикетка самоклеящаяся к "Стоматофит Эксперт 50 мл"</t>
+  </si>
+  <si>
+    <t>Этикетка самоклеящаяся к "Бронхофитол 100 мл"</t>
+  </si>
+  <si>
+    <t>Инструкция к "Бронхофитол 100мл"</t>
+  </si>
+  <si>
+    <t>Инструкция к "Стоматофит 50мл и Стоматофит 100мл"</t>
+  </si>
+  <si>
+    <t>Инструкция к "Стоматофит А25мл"</t>
+  </si>
+  <si>
+    <t>Инструкция к "Стоматофит Эксперт 50мл"</t>
+  </si>
+  <si>
+    <t>Б-6М "Лён обыкновенный" (ТМ "Будь здоров!")(БАД) 100г</t>
+  </si>
+  <si>
+    <t>С-100 "Стоматофит 100мл"</t>
+  </si>
+  <si>
+    <t>С-50 "Стоматофит 50мл"</t>
+  </si>
+  <si>
+    <t>С-25 "Стоматофит А 25мл"</t>
+  </si>
+  <si>
+    <t>С-50Э "Стоматофит Эксперт 50мл"</t>
+  </si>
+  <si>
+    <t>Б-100 "Бронхофитол 100мл"</t>
+  </si>
+  <si>
+    <t>П-8 Фп Зверобой трава (порошок С РПС) 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Хвощ трава 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Тысячелистник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Ольхи соплодия  20х1,5г</t>
+  </si>
+  <si>
+    <t>Б-6М Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Крапива листья (порошок С РПС) 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Ромашка цветки (порошок с РПС) 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Толокнянка листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Б-6М Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Шалфей листья 50г</t>
+  </si>
+  <si>
     <t>Б-6М Липа цветки 35г</t>
   </si>
   <si>
-    <t>Б-6М Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Б-6М Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Б-6М Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Рябина плоды 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Б-6М Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Б-6М Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Б-6М Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Б-6М Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>П-6К Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем" 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-6К Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-6К Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5г.</t>
-  </si>
-  <si>
-    <t>П-6К Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5г.</t>
-  </si>
-  <si>
-    <t>П-6К Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>П-6К Фп Детский травяной чай "ФармаЦветик® при простуде" 20х1,5г.</t>
-  </si>
-  <si>
-    <t>П-6К Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
-    <t>П-6К Фп Фиточай "ФармаЦветик® для кормящих мам"20х1,5 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Фитосбор №1" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Фитосбор №2" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Щедрость природы Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Щедрость природы Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Щедрость природы Фиточай для пищеварения" 20х2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Щедрость природы Фиточай кардиологический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Щедрость природы Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп "Щедрость природы Фиточай при простуде" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Аир корневища 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Бадан корневища 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Береза листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Боярышник плоды 20х3,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Валериана корневища с корнями 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Девясил корни и корневища 20х1,5 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Душица трава (порошок с РПС) 20х1.5 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Золототысячник трава 20х1,5 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Кровохлебка корневища и корни 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Крушина кора 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Лапчатка корневища 20х2,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Ноготки цветки 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Пастушья сумка 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Пижма цветки 20х1.5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Подорожник листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Почечный чай листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Пустырник трава (порошок с РПС) 20х1.5 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Арфазетин-Э 20х2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Желудочный №3 20х2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20х2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сенна листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Фиалка трава 20х1,5 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Фиточай "Дивный вечер" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Фиточай "Опалиховский"(ТМ "Будь здоров!") (БАД)20*2.0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Фиточай "Ромашковый" (ТМ "Будь здоров!") (БАД)20*1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Чабрец трава (РПС) 20х1.5 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Череда трава 20х1,5г</t>
+    <t>П-8 Фп Шалфей листья 20х1,5г, шт</t>
   </si>
   <si>
     <t>П-8 Фп Чистотел трава 20х1,5г</t>
   </si>
   <si>
-    <t>П-8 Фп Шалфей листья 20х1,5г, шт</t>
-  </si>
-  <si>
-    <t>П-8 Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Вкладыш к П-6К Фп Детский травяной чай "ФармаЦветик"</t>
-  </si>
-  <si>
-    <t>Вкладыш к П-6К Фп Фиточай "Лактафитол"</t>
-  </si>
-  <si>
-    <t>Конверт полипропиленовый "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"</t>
-  </si>
-  <si>
-    <t>Конверт полипропиленовый "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем"</t>
-  </si>
-  <si>
     <t>Конверт полипропиленовый "Фиточай "Лактафитол"</t>
   </si>
   <si>
-    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик® для животика"</t>
-  </si>
-  <si>
-    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик® для иммунитета"</t>
-  </si>
-  <si>
-    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик® при простуде"</t>
-  </si>
-  <si>
-    <t>Ярлык "ВердиоГаст® Фиточай для улучшения пищеварения"</t>
-  </si>
-  <si>
-    <t>Ярлык "Три листа"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Конверт полипропиленовый Фиточай «ФармаЦветик® для кормящих мам» </t>
-  </si>
-  <si>
-    <t xml:space="preserve">П-8 Фп "Щедрость природы Фиточай успокоительный"20х2,0 г </t>
-  </si>
-  <si>
-    <t>Б-6М Фиточай "Укроп" (ТМ "Будь здоров!")(БАД) 50г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Фиточай "Мята" (ТМ "Будь здоров!") (БАД)20*1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Фиточай "Шиповник" (ТМ "Будь здоров!") (БАД)20*2.0г</t>
-  </si>
-  <si>
-    <t>Конверт полипропиленовый Детский травяной чай "ФармаЦветик®для спокойного сна"</t>
-  </si>
-  <si>
-    <t>Б-6М Аир корневища 75г</t>
-  </si>
-  <si>
-    <t>Этикетка самоклеящаяся к "Стоматофит 100 мл"</t>
-  </si>
-  <si>
-    <t>Этикетка самоклеящаяся к "Стоматофит 50 мл"</t>
-  </si>
-  <si>
-    <t>Этикетка самоклеящаяся к "Стоматофит А 25 мл"</t>
-  </si>
-  <si>
-    <t>Этикетка самоклеящаяся к "Стоматофит Эксперт 50 мл"</t>
-  </si>
-  <si>
-    <t>Этикетка самоклеящаяся к "Бронхофитол 100 мл"</t>
-  </si>
-  <si>
-    <t>Инструкция к "Бронхофитол 100мл"</t>
-  </si>
-  <si>
-    <t>Инструкция к "Стоматофит 50мл и Стоматофит 100мл"</t>
-  </si>
-  <si>
-    <t>Инструкция к "Стоматофит А25мл"</t>
-  </si>
-  <si>
-    <t>Инструкция к "Стоматофит Эксперт 50мл"</t>
-  </si>
-  <si>
-    <t>Б-6М "Лён обыкновенный" (ТМ "Будь здоров!")(БАД) 100г</t>
-  </si>
-  <si>
-    <t>С-100 "Стоматофит 100мл"</t>
-  </si>
-  <si>
-    <t>С-50 "Стоматофит 50мл"</t>
-  </si>
-  <si>
-    <t>С-25 "Стоматофит А 25мл"</t>
-  </si>
-  <si>
-    <t>С-50Э "Стоматофит Эксперт 50мл"</t>
-  </si>
-  <si>
-    <t>Б-100 "Бронхофитол 100мл"</t>
-  </si>
-  <si>
-    <t>П-8 Фп Зверобой трава (порошок С РПС) 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Хвощ трава 20х1,5 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Тысячелистник трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Ольхи соплодия  20х1,5г</t>
-  </si>
-  <si>
-    <t>Б-6М Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Б-6М Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Буклет к П-6К Фп Детский травяной чай "ФармаЦветик и Лактафитол"</t>
-  </si>
-  <si>
-    <t>Б-6М Бессмертник песчаный цветки 30г</t>
-  </si>
-  <si>
     <t>Б-6М Шиповник плоды низковитаминные 50г</t>
   </si>
   <si>
     <t>П-8 Фп Дуб кора (РПС) 20х1,5 г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Крапива листья (порошок С РПС) 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Ромашка цветки (порошок с РПС) 20х1,5г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>П-8 Фп Толокнянка листья 20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -533,10 +512,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -823,7 +802,7 @@
   <dimension ref="A1:B144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B144"/>
+      <selection activeCell="A2" sqref="A2:B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +821,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2">
         <v>9000</v>
@@ -850,7 +829,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2">
         <v>18000</v>
@@ -858,15 +837,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2">
-        <v>36000</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2">
         <v>18000</v>
@@ -874,7 +853,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2">
         <v>9000</v>
@@ -882,7 +861,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2">
         <v>9000</v>
@@ -890,7 +869,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2">
         <v>27000</v>
@@ -898,15 +877,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2">
-        <v>36000</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2">
         <v>17000</v>
@@ -914,7 +893,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2">
         <v>15900</v>
@@ -922,7 +901,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2">
         <v>24900</v>
@@ -930,15 +909,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2">
-        <v>39900</v>
+        <v>38900</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2">
         <v>24900</v>
@@ -946,7 +925,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B15" s="2">
         <v>13900</v>
@@ -954,40 +933,42 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="B16" s="2">
+        <v>22835</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2">
-        <v>38580</v>
+        <v>18215</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2">
-        <v>20980</v>
+        <v>12335</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" s="2">
-        <v>23730</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B20" s="2">
-        <v>17665</v>
+        <v>56470</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -995,103 +976,103 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>24405</v>
+        <v>17751</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2">
-        <v>23760</v>
+        <v>39977</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2">
-        <v>39710</v>
+        <v>5496</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2">
-        <v>27140</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2">
-        <v>36730</v>
+        <v>22735</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2">
-        <v>24900</v>
+        <v>68880</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2">
-        <v>23775</v>
+        <v>35286</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2">
-        <v>121380</v>
+        <v>42120</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" s="2">
-        <v>46988</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2">
-        <v>26100</v>
+        <v>28970</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2">
-        <v>14592</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2">
-        <v>30045</v>
+        <v>248970</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="B33" s="2">
-        <v>22265</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1099,7 +1080,7 @@
         <v>16</v>
       </c>
       <c r="B34" s="2">
-        <v>161415</v>
+        <v>32466</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1107,7 +1088,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="2">
-        <v>30490</v>
+        <v>28820</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1115,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="2">
-        <v>40210</v>
+        <v>18360</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1123,7 +1104,7 @@
         <v>19</v>
       </c>
       <c r="B37" s="2">
-        <v>11300</v>
+        <v>19695</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1131,7 +1112,7 @@
         <v>20</v>
       </c>
       <c r="B38" s="2">
-        <v>28215</v>
+        <v>36640</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1139,135 +1120,135 @@
         <v>21</v>
       </c>
       <c r="B39" s="2">
-        <v>20650</v>
+        <v>10290</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="B40" s="2">
-        <v>36640</v>
+        <v>19571</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" s="2">
-        <v>14670</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B42" s="2">
-        <v>65590</v>
+        <v>177188</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="2">
-        <v>16633</v>
+        <v>12010</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44" s="2">
-        <v>128520</v>
+        <v>61170</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="2">
-        <v>16670</v>
+        <v>22140</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" s="2">
-        <v>2800</v>
+        <v>10880</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2">
-        <v>10167</v>
+        <v>8124</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48" s="2">
-        <v>20320</v>
+        <v>77520</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" s="2">
-        <v>12300</v>
+        <v>17902</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" s="2">
-        <v>66255</v>
+        <v>16289</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="2">
-        <v>28190</v>
+        <v>26771</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="B52" s="2">
-        <v>15839</v>
+        <v>124498</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B53" s="2">
-        <v>40400</v>
+        <v>46830</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="B54" s="2">
-        <v>104760</v>
+        <v>84580</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="B55" s="2">
-        <v>38440</v>
+        <v>21060</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1275,183 +1256,183 @@
         <v>35</v>
       </c>
       <c r="B56" s="2">
-        <v>42670</v>
+        <v>48928</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="B57" s="2">
-        <v>55620</v>
+        <v>23520</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="2">
-        <v>25660</v>
+        <v>136</v>
+      </c>
+      <c r="B58" s="4">
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B59" s="2">
-        <v>39840</v>
+        <v>24080</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B60" s="2">
-        <v>15960</v>
+        <v>50080</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2">
-        <v>48060</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2">
-        <v>18336</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26906</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2">
-        <v>31623</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1066415</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2">
-        <v>49350</v>
+        <v>1656308</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2">
-        <v>48621</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2">
-        <v>1141658</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+        <v>94267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2">
-        <v>1735108</v>
+        <v>256078</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2">
-        <v>451281</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63383</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2">
-        <v>164073</v>
+        <v>56608</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2">
-        <v>388152</v>
+        <v>815019</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="B71" s="2">
-        <v>275745</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+        <v>23855</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="B72" s="2">
-        <v>324423</v>
+        <v>19248</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B73" s="2">
-        <v>815019</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B74" s="2">
-        <v>27183</v>
+        <v>20136</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B75" s="2">
-        <v>25635</v>
+        <v>54285</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B76" s="2">
-        <v>18428</v>
+        <v>30600</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B77" s="2">
-        <v>23832</v>
+        <v>31665</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B78" s="2">
-        <v>58275</v>
+        <v>42140</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1459,518 +1440,498 @@
         <v>46</v>
       </c>
       <c r="B79" s="2">
-        <v>13410</v>
+        <v>61000</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B80" s="2">
-        <v>53560</v>
+        <v>19540</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B81" s="2">
-        <v>42140</v>
+        <v>16480</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B82" s="2">
-        <v>81520</v>
+        <v>8530</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B83" s="2">
-        <v>32040</v>
+        <v>18791</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B84" s="3">
-        <v>622</v>
+        <v>51</v>
+      </c>
+      <c r="B84" s="2">
+        <v>10080</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B85" s="2">
-        <v>17010</v>
+        <v>23235</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B86" s="2">
-        <v>26750</v>
+        <v>24055</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2">
-        <v>16513</v>
+        <v>9570</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B88" s="2">
-        <v>31257</v>
+        <v>10207</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B89" s="2">
-        <v>29418</v>
+        <v>16313</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="B90" s="2">
-        <v>21248</v>
+        <v>10210</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B91" s="2">
-        <v>6140</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B92" s="2">
-        <v>25527</v>
+        <v>31064</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B93" s="2">
-        <v>18513</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B94" s="2">
-        <v>14264</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B94" s="3"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B95" s="2">
-        <v>65000</v>
+        <v>55587</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2">
-        <v>38789</v>
+        <v>30269</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B97" s="2">
-        <v>33184</v>
+        <v>17830</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2">
-        <v>32000</v>
+        <v>124116</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B99" s="3">
-        <v>752</v>
+        <v>62</v>
+      </c>
+      <c r="B99" s="2">
+        <v>20519</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="B100" s="2">
-        <v>42075</v>
+        <v>24768</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2">
-        <v>23501</v>
+        <v>81800</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="B102" s="2">
-        <v>65000</v>
+        <v>63170</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2">
-        <v>30724</v>
+        <v>91328</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B104" s="2">
-        <v>29410</v>
+        <v>40850</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B105" s="2">
-        <v>13000</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B106" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="B106" s="2">
+        <v>25153</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B107" s="2">
-        <v>37280</v>
+        <v>42260</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B108" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="B108" s="2">
+        <v>140664</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B109" s="2">
-        <v>15000</v>
+        <v>21630</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B110" s="3">
-        <v>420</v>
+        <v>126</v>
+      </c>
+      <c r="B110" s="2">
+        <v>590073</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B111" s="2">
-        <v>10908</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="B112" s="2">
-        <v>14590</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B113" s="2">
-        <v>3485</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>208752</v>
+        <v>14966</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B115" s="2">
-        <v>44680</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B116" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="B116" s="2">
+        <v>126654</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B117" s="2">
-        <v>51233</v>
+        <v>158080</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B118" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="B118" s="2">
+        <v>39770</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B119" s="3">
-        <v>857</v>
+        <v>75</v>
+      </c>
+      <c r="B119" s="2">
+        <v>38145</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B120" s="2">
-        <v>35105</v>
+        <v>61645</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="B121" s="2">
-        <v>43420</v>
+        <v>266490</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2">
-        <v>87108</v>
+        <v>22380</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B123" s="2">
-        <v>13000</v>
+        <v>26450</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B124" s="2">
-        <v>283088</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B125" s="2">
-        <v>8674</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B126" s="2">
-        <v>65000</v>
+        <v>8290</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B127" s="2">
-        <v>4550</v>
+        <v>37818</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B128" s="2">
-        <v>158000</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B129" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="B129" s="2">
+        <v>17164</v>
+      </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2">
-        <v>1000</v>
+        <v>37842</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B131" s="2">
-        <v>23184</v>
+        <v>65780</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B132" s="2">
-        <v>15120</v>
+        <v>88756</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2">
-        <v>18935</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>53570</v>
+        <v>231800</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B135" s="2">
-        <v>535922</v>
+        <v>90530</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B136" s="2">
-        <v>27709</v>
+        <v>516767</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="B137" s="2">
-        <v>69900</v>
+        <v>780000</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B138" s="2">
-        <v>37000</v>
-      </c>
+      <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B139" s="2">
-        <v>81174</v>
-      </c>
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B140" s="2">
-        <v>42109</v>
-      </c>
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B141" s="2">
-        <v>10068</v>
-      </c>
+      <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B142" s="2">
-        <v>75000</v>
-      </c>
+      <c r="A142" s="1"/>
+      <c r="B142" s="2"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B143" s="2">
-        <v>669367</v>
-      </c>
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B144" s="2">
-        <v>1006428</v>
-      </c>
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
